--- a/Data/database.xlsx
+++ b/Data/database.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="P:\Projet_archipel_Saintes\Saintes_IAS_density\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB35D806-5F3A-4C69-B270-B156A3C3FA5F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AC5AFF1-1CBC-4F7B-99F8-C1BD8E7796C3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="10608" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="10605" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="spot" sheetId="1" r:id="rId1"/>
@@ -877,17 +877,17 @@
       <selection pane="bottomRight" activeCell="B74" sqref="B74"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="5" width="11.5546875" style="3"/>
-    <col min="6" max="6" width="11.5546875" style="28"/>
-    <col min="7" max="8" width="11.5546875" style="3"/>
-    <col min="9" max="9" width="11.5546875" style="28"/>
-    <col min="10" max="12" width="11.5546875" style="3"/>
-    <col min="19" max="16384" width="11.5546875" style="3"/>
+    <col min="1" max="5" width="11.5703125" style="3"/>
+    <col min="6" max="6" width="11.5703125" style="28"/>
+    <col min="7" max="8" width="11.5703125" style="3"/>
+    <col min="9" max="9" width="11.5703125" style="28"/>
+    <col min="10" max="12" width="11.5703125" style="3"/>
+    <col min="19" max="16384" width="11.5703125" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="19" t="s">
         <v>37</v>
       </c>
@@ -925,7 +925,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" s="6">
         <v>1</v>
       </c>
@@ -951,7 +951,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" s="6">
         <v>2</v>
       </c>
@@ -992,7 +992,7 @@
       <c r="N3" s="32"/>
       <c r="O3" s="32"/>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" s="6">
         <v>3</v>
       </c>
@@ -1033,7 +1033,7 @@
       <c r="N4" s="32"/>
       <c r="O4" s="32"/>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="6">
         <v>4</v>
       </c>
@@ -1062,7 +1062,7 @@
       <c r="N5" s="32"/>
       <c r="O5" s="32"/>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="6">
         <v>5</v>
       </c>
@@ -1091,7 +1091,7 @@
       <c r="N6" s="32"/>
       <c r="O6" s="32"/>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="6">
         <v>6</v>
       </c>
@@ -1120,7 +1120,7 @@
       <c r="N7" s="32"/>
       <c r="O7" s="32"/>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="6">
         <v>7</v>
       </c>
@@ -1161,7 +1161,7 @@
       <c r="N8" s="32"/>
       <c r="O8" s="32"/>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="6">
         <v>8</v>
       </c>
@@ -1202,7 +1202,7 @@
       <c r="N9" s="32"/>
       <c r="O9" s="32"/>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" s="6">
         <v>9</v>
       </c>
@@ -1243,7 +1243,7 @@
       <c r="N10" s="32"/>
       <c r="O10" s="32"/>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" s="6">
         <v>10</v>
       </c>
@@ -1284,7 +1284,7 @@
       <c r="N11" s="32"/>
       <c r="O11" s="32"/>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" s="6">
         <v>11</v>
       </c>
@@ -1325,7 +1325,7 @@
       <c r="N12" s="32"/>
       <c r="O12" s="32"/>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" s="6">
         <v>12</v>
       </c>
@@ -1366,7 +1366,7 @@
       <c r="N13" s="32"/>
       <c r="O13" s="32"/>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" s="6">
         <v>13</v>
       </c>
@@ -1407,7 +1407,7 @@
       <c r="N14" s="32"/>
       <c r="O14" s="32"/>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" s="6">
         <v>14</v>
       </c>
@@ -1448,7 +1448,7 @@
       <c r="N15" s="32"/>
       <c r="O15" s="32"/>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" s="6">
         <v>15</v>
       </c>
@@ -1489,7 +1489,7 @@
       <c r="N16" s="32"/>
       <c r="O16" s="32"/>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17" s="6">
         <v>16</v>
       </c>
@@ -1530,7 +1530,7 @@
       <c r="N17" s="32"/>
       <c r="O17" s="32"/>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A18" s="6">
         <v>17</v>
       </c>
@@ -1571,7 +1571,7 @@
       <c r="N18" s="32"/>
       <c r="O18" s="32"/>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A19" s="6">
         <v>18</v>
       </c>
@@ -1612,7 +1612,7 @@
       <c r="N19" s="32"/>
       <c r="O19" s="32"/>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A20" s="6">
         <v>19</v>
       </c>
@@ -1653,7 +1653,7 @@
       <c r="N20" s="32"/>
       <c r="O20" s="32"/>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A21" s="6">
         <v>20</v>
       </c>
@@ -1694,7 +1694,7 @@
       <c r="N21" s="32"/>
       <c r="O21" s="32"/>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A22" s="6">
         <v>21</v>
       </c>
@@ -1735,7 +1735,7 @@
       <c r="N22" s="32"/>
       <c r="O22" s="32"/>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A23" s="6">
         <v>22</v>
       </c>
@@ -1776,7 +1776,7 @@
       <c r="N23" s="32"/>
       <c r="O23" s="32"/>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A24" s="6">
         <v>23</v>
       </c>
@@ -1805,7 +1805,7 @@
       <c r="N24" s="32"/>
       <c r="O24" s="32"/>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A25" s="8">
         <v>24</v>
       </c>
@@ -1846,7 +1846,7 @@
       <c r="N25" s="32"/>
       <c r="O25" s="32"/>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A26" s="8">
         <v>25</v>
       </c>
@@ -1887,7 +1887,7 @@
       <c r="N26" s="32"/>
       <c r="O26" s="32"/>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A27" s="8">
         <v>26</v>
       </c>
@@ -1928,7 +1928,7 @@
       <c r="N27" s="32"/>
       <c r="O27" s="32"/>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A28" s="8">
         <v>27</v>
       </c>
@@ -1969,7 +1969,7 @@
       <c r="N28" s="32"/>
       <c r="O28" s="32"/>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A29" s="8">
         <v>28</v>
       </c>
@@ -2010,7 +2010,7 @@
       <c r="N29" s="32"/>
       <c r="O29" s="32"/>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A30" s="8">
         <v>29</v>
       </c>
@@ -2051,7 +2051,7 @@
       <c r="N30" s="32"/>
       <c r="O30" s="32"/>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A31" s="8">
         <v>30</v>
       </c>
@@ -2092,7 +2092,7 @@
       <c r="N31" s="32"/>
       <c r="O31" s="32"/>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A32" s="8">
         <v>31</v>
       </c>
@@ -2133,7 +2133,7 @@
       <c r="N32" s="32"/>
       <c r="O32" s="32"/>
     </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A33" s="8">
         <v>32</v>
       </c>
@@ -2174,7 +2174,7 @@
       <c r="N33" s="32"/>
       <c r="O33" s="32"/>
     </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A34" s="8">
         <v>33</v>
       </c>
@@ -2215,7 +2215,7 @@
       <c r="N34" s="32"/>
       <c r="O34" s="32"/>
     </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A35" s="8">
         <v>34</v>
       </c>
@@ -2256,7 +2256,7 @@
       <c r="N35" s="32"/>
       <c r="O35" s="32"/>
     </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A36" s="8">
         <v>35</v>
       </c>
@@ -2297,7 +2297,7 @@
       <c r="N36" s="32"/>
       <c r="O36" s="32"/>
     </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A37" s="8">
         <v>36</v>
       </c>
@@ -2338,7 +2338,7 @@
       <c r="N37" s="32"/>
       <c r="O37" s="32"/>
     </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A38" s="8">
         <v>37</v>
       </c>
@@ -2379,7 +2379,7 @@
       <c r="N38" s="32"/>
       <c r="O38" s="32"/>
     </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A39" s="8">
         <v>38</v>
       </c>
@@ -2420,7 +2420,7 @@
       <c r="N39" s="32"/>
       <c r="O39" s="32"/>
     </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A40" s="8">
         <v>39</v>
       </c>
@@ -2461,7 +2461,7 @@
       <c r="N40" s="32"/>
       <c r="O40" s="32"/>
     </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A41" s="8">
         <v>40</v>
       </c>
@@ -2502,7 +2502,7 @@
       <c r="N41" s="32"/>
       <c r="O41" s="32"/>
     </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A42" s="8">
         <v>41</v>
       </c>
@@ -2543,7 +2543,7 @@
       <c r="N42" s="32"/>
       <c r="O42" s="32"/>
     </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A43" s="8">
         <v>42</v>
       </c>
@@ -2584,7 +2584,7 @@
       <c r="N43" s="32"/>
       <c r="O43" s="32"/>
     </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A44" s="8">
         <v>43</v>
       </c>
@@ -2625,7 +2625,7 @@
       <c r="N44" s="32"/>
       <c r="O44" s="32"/>
     </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A45" s="8">
         <v>44</v>
       </c>
@@ -2666,7 +2666,7 @@
       <c r="N45" s="32"/>
       <c r="O45" s="32"/>
     </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A46" s="8">
         <v>45</v>
       </c>
@@ -2707,7 +2707,7 @@
       <c r="N46" s="32"/>
       <c r="O46" s="32"/>
     </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A47" s="8">
         <v>46</v>
       </c>
@@ -2748,7 +2748,7 @@
       <c r="N47" s="32"/>
       <c r="O47" s="32"/>
     </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A48" s="8">
         <v>47</v>
       </c>
@@ -2789,7 +2789,7 @@
       <c r="N48" s="32"/>
       <c r="O48" s="32"/>
     </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A49" s="8">
         <v>48</v>
       </c>
@@ -2830,7 +2830,7 @@
       <c r="N49" s="32"/>
       <c r="O49" s="32"/>
     </row>
-    <row r="50" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A50" s="8">
         <v>49</v>
       </c>
@@ -2871,7 +2871,7 @@
       <c r="N50" s="32"/>
       <c r="O50" s="32"/>
     </row>
-    <row r="51" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A51" s="8">
         <v>50</v>
       </c>
@@ -2912,7 +2912,7 @@
       <c r="N51" s="32"/>
       <c r="O51" s="32"/>
     </row>
-    <row r="52" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A52" s="8">
         <v>51</v>
       </c>
@@ -2953,7 +2953,7 @@
       <c r="N52" s="32"/>
       <c r="O52" s="32"/>
     </row>
-    <row r="53" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A53" s="8">
         <v>52</v>
       </c>
@@ -2994,7 +2994,7 @@
       <c r="N53" s="32"/>
       <c r="O53" s="32"/>
     </row>
-    <row r="54" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A54" s="8">
         <v>53</v>
       </c>
@@ -3035,7 +3035,7 @@
       <c r="N54" s="32"/>
       <c r="O54" s="32"/>
     </row>
-    <row r="55" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A55" s="7">
         <v>54</v>
       </c>
@@ -3076,7 +3076,7 @@
       <c r="N55" s="32"/>
       <c r="O55" s="32"/>
     </row>
-    <row r="56" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A56" s="7">
         <v>55</v>
       </c>
@@ -3117,7 +3117,7 @@
       <c r="N56" s="32"/>
       <c r="O56" s="32"/>
     </row>
-    <row r="57" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A57" s="7">
         <v>56</v>
       </c>
@@ -3158,7 +3158,7 @@
       <c r="N57" s="32"/>
       <c r="O57" s="32"/>
     </row>
-    <row r="58" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A58" s="7">
         <v>57</v>
       </c>
@@ -3199,7 +3199,7 @@
       <c r="N58" s="32"/>
       <c r="O58" s="32"/>
     </row>
-    <row r="59" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A59" s="7">
         <v>58</v>
       </c>
@@ -3240,7 +3240,7 @@
       <c r="N59" s="32"/>
       <c r="O59" s="32"/>
     </row>
-    <row r="60" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A60" s="7">
         <v>59</v>
       </c>
@@ -3281,7 +3281,7 @@
       <c r="N60" s="32"/>
       <c r="O60" s="32"/>
     </row>
-    <row r="61" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A61" s="7">
         <v>60</v>
       </c>
@@ -3322,7 +3322,7 @@
       <c r="N61" s="32"/>
       <c r="O61" s="32"/>
     </row>
-    <row r="62" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A62" s="7">
         <v>61</v>
       </c>
@@ -3363,7 +3363,7 @@
       <c r="N62" s="32"/>
       <c r="O62" s="32"/>
     </row>
-    <row r="63" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A63" s="7">
         <v>62</v>
       </c>
@@ -3404,7 +3404,7 @@
       <c r="N63" s="32"/>
       <c r="O63" s="32"/>
     </row>
-    <row r="64" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A64" s="7">
         <v>63</v>
       </c>
@@ -3445,7 +3445,7 @@
       <c r="N64" s="32"/>
       <c r="O64" s="32"/>
     </row>
-    <row r="65" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A65" s="7">
         <v>64</v>
       </c>
@@ -3486,7 +3486,7 @@
       <c r="N65" s="32"/>
       <c r="O65" s="32"/>
     </row>
-    <row r="66" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A66" s="7">
         <v>65</v>
       </c>
@@ -3527,7 +3527,7 @@
       <c r="N66" s="32"/>
       <c r="O66" s="32"/>
     </row>
-    <row r="67" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A67" s="7">
         <v>66</v>
       </c>
@@ -3568,7 +3568,7 @@
       <c r="N67" s="32"/>
       <c r="O67" s="32"/>
     </row>
-    <row r="68" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A68" s="7">
         <v>67</v>
       </c>
@@ -3609,7 +3609,7 @@
       <c r="N68" s="32"/>
       <c r="O68" s="32"/>
     </row>
-    <row r="69" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A69" s="7">
         <v>68</v>
       </c>
@@ -3650,7 +3650,7 @@
       <c r="N69" s="32"/>
       <c r="O69" s="32"/>
     </row>
-    <row r="70" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A70" s="7">
         <v>69</v>
       </c>
@@ -3691,7 +3691,7 @@
       <c r="N70" s="32"/>
       <c r="O70" s="32"/>
     </row>
-    <row r="71" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A71" s="7">
         <v>70</v>
       </c>
@@ -3732,7 +3732,7 @@
       <c r="N71" s="32"/>
       <c r="O71" s="32"/>
     </row>
-    <row r="72" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A72" s="7">
         <v>71</v>
       </c>
@@ -3773,7 +3773,7 @@
       <c r="N72" s="32"/>
       <c r="O72" s="32"/>
     </row>
-    <row r="73" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A73" s="7">
         <v>72</v>
       </c>
@@ -3814,7 +3814,7 @@
       <c r="N73" s="32"/>
       <c r="O73" s="32"/>
     </row>
-    <row r="74" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A74" s="7">
         <v>73</v>
       </c>
@@ -3855,7 +3855,7 @@
       <c r="N74" s="32"/>
       <c r="O74" s="32"/>
     </row>
-    <row r="75" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A75" s="7">
         <v>74</v>
       </c>
@@ -3896,7 +3896,7 @@
       <c r="N75" s="32"/>
       <c r="O75" s="32"/>
     </row>
-    <row r="76" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A76" s="7">
         <v>75</v>
       </c>
@@ -3937,7 +3937,7 @@
       <c r="N76" s="32"/>
       <c r="O76" s="32"/>
     </row>
-    <row r="77" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A77" s="7">
         <v>76</v>
       </c>
@@ -3978,7 +3978,7 @@
       <c r="N77" s="32"/>
       <c r="O77" s="32"/>
     </row>
-    <row r="78" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A78" s="7">
         <v>77</v>
       </c>
@@ -4019,7 +4019,7 @@
       <c r="N78" s="32"/>
       <c r="O78" s="32"/>
     </row>
-    <row r="79" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A79" s="3">
         <v>78</v>
       </c>
@@ -4047,19 +4047,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:X734"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A608" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A615" sqref="A615"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="5" width="11.5546875" style="2"/>
+    <col min="1" max="5" width="11.5703125" style="2"/>
     <col min="6" max="6" width="13" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="16384" width="11.5546875" style="2"/>
+    <col min="7" max="16384" width="11.5703125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="19" t="s">
         <v>38</v>
       </c>
@@ -4094,7 +4094,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="2" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="22">
         <v>1</v>
       </c>
@@ -4108,7 +4108,9 @@
       <c r="E2" s="4">
         <v>44860</v>
       </c>
-      <c r="F2" s="4"/>
+      <c r="F2" s="2">
+        <v>1</v>
+      </c>
       <c r="G2" s="4" t="s">
         <v>29</v>
       </c>
@@ -4125,7 +4127,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="3" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="22">
         <v>2</v>
       </c>
@@ -4139,7 +4141,9 @@
       <c r="E3" s="4">
         <v>44861</v>
       </c>
-      <c r="F3" s="4"/>
+      <c r="F3" s="2">
+        <v>1</v>
+      </c>
       <c r="G3" s="4" t="s">
         <v>29</v>
       </c>
@@ -4156,7 +4160,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="22">
         <v>3</v>
       </c>
@@ -4182,7 +4186,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="22">
         <v>4</v>
       </c>
@@ -4208,7 +4212,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="22">
         <v>5</v>
       </c>
@@ -4234,7 +4238,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="22">
         <v>6</v>
       </c>
@@ -4260,7 +4264,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="22">
         <v>7</v>
       </c>
@@ -4286,7 +4290,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="22">
         <v>8</v>
       </c>
@@ -4312,7 +4316,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="22">
         <v>9</v>
       </c>
@@ -4338,7 +4342,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="22">
         <v>10</v>
       </c>
@@ -4364,7 +4368,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="22">
         <v>11</v>
       </c>
@@ -4390,7 +4394,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="22">
         <v>12</v>
       </c>
@@ -4416,7 +4420,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="22">
         <v>13</v>
       </c>
@@ -4442,7 +4446,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="22">
         <v>14</v>
       </c>
@@ -4468,7 +4472,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="22">
         <v>15</v>
       </c>
@@ -4494,7 +4498,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="22">
         <v>16</v>
       </c>
@@ -4520,7 +4524,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="22">
         <v>17</v>
       </c>
@@ -4546,7 +4550,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="22">
         <v>18</v>
       </c>
@@ -4572,7 +4576,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="22">
         <v>19</v>
       </c>
@@ -4598,7 +4602,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="22">
         <v>20</v>
       </c>
@@ -4624,7 +4628,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="22">
         <v>21</v>
       </c>
@@ -4650,7 +4654,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="22">
         <v>22</v>
       </c>
@@ -4676,7 +4680,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="22">
         <v>23</v>
       </c>
@@ -4702,7 +4706,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="22">
         <v>24</v>
       </c>
@@ -4728,7 +4732,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="22">
         <v>25</v>
       </c>
@@ -4754,7 +4758,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="22">
         <v>26</v>
       </c>
@@ -4780,7 +4784,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="22">
         <v>27</v>
       </c>
@@ -4806,7 +4810,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="22">
         <v>28</v>
       </c>
@@ -4832,7 +4836,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="22">
         <v>29</v>
       </c>
@@ -4858,7 +4862,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="22">
         <v>30</v>
       </c>
@@ -4884,7 +4888,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="22">
         <v>31</v>
       </c>
@@ -4910,7 +4914,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A33" s="22">
         <v>32</v>
       </c>
@@ -4936,7 +4940,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A34" s="22">
         <v>33</v>
       </c>
@@ -4962,7 +4966,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A35" s="22">
         <v>34</v>
       </c>
@@ -4988,7 +4992,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A36" s="22">
         <v>35</v>
       </c>
@@ -5014,7 +5018,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A37" s="22">
         <v>36</v>
       </c>
@@ -5040,7 +5044,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A38" s="22">
         <v>37</v>
       </c>
@@ -5066,7 +5070,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A39" s="22">
         <v>38</v>
       </c>
@@ -5092,7 +5096,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A40" s="22">
         <v>39</v>
       </c>
@@ -5118,7 +5122,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A41" s="22">
         <v>40</v>
       </c>
@@ -5144,7 +5148,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A42" s="22">
         <v>41</v>
       </c>
@@ -5170,7 +5174,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A43" s="22">
         <v>42</v>
       </c>
@@ -5196,7 +5200,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A44" s="22">
         <v>43</v>
       </c>
@@ -5222,7 +5226,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A45" s="22">
         <v>44</v>
       </c>
@@ -5248,7 +5252,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A46" s="22">
         <v>45</v>
       </c>
@@ -5274,7 +5278,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A47" s="22">
         <v>46</v>
       </c>
@@ -5300,7 +5304,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:12" ht="14.45" x14ac:dyDescent="0.2">
       <c r="A48" s="22">
         <v>47</v>
       </c>
@@ -5327,7 +5331,7 @@
       </c>
       <c r="L48" s="10"/>
     </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:12" ht="14.45" x14ac:dyDescent="0.2">
       <c r="A49" s="22">
         <v>48</v>
       </c>
@@ -5354,7 +5358,7 @@
       </c>
       <c r="L49" s="10"/>
     </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:12" ht="14.45" x14ac:dyDescent="0.2">
       <c r="A50" s="22">
         <v>49</v>
       </c>
@@ -5381,7 +5385,7 @@
       </c>
       <c r="L50" s="10"/>
     </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:12" ht="14.45" x14ac:dyDescent="0.2">
       <c r="A51" s="22">
         <v>50</v>
       </c>
@@ -5408,7 +5412,7 @@
       </c>
       <c r="L51" s="10"/>
     </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:12" ht="14.45" x14ac:dyDescent="0.2">
       <c r="A52" s="22">
         <v>51</v>
       </c>
@@ -5435,7 +5439,7 @@
       </c>
       <c r="L52" s="10"/>
     </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:12" ht="14.45" x14ac:dyDescent="0.2">
       <c r="A53" s="22">
         <v>52</v>
       </c>
@@ -5462,7 +5466,7 @@
       </c>
       <c r="L53" s="10"/>
     </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:12" ht="14.45" x14ac:dyDescent="0.2">
       <c r="A54" s="22">
         <v>53</v>
       </c>
@@ -5489,7 +5493,7 @@
       </c>
       <c r="L54" s="10"/>
     </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:12" ht="14.45" x14ac:dyDescent="0.2">
       <c r="A55" s="22">
         <v>54</v>
       </c>
@@ -5516,7 +5520,7 @@
       </c>
       <c r="L55" s="10"/>
     </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:12" ht="14.45" x14ac:dyDescent="0.2">
       <c r="A56" s="22">
         <v>55</v>
       </c>
@@ -5543,7 +5547,7 @@
       </c>
       <c r="L56" s="10"/>
     </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:12" ht="14.45" x14ac:dyDescent="0.2">
       <c r="A57" s="22">
         <v>56</v>
       </c>
@@ -5570,7 +5574,7 @@
       </c>
       <c r="L57" s="10"/>
     </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:12" ht="14.45" x14ac:dyDescent="0.2">
       <c r="A58" s="22">
         <v>57</v>
       </c>
@@ -5597,7 +5601,7 @@
       </c>
       <c r="L58" s="10"/>
     </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:12" ht="14.45" x14ac:dyDescent="0.2">
       <c r="A59" s="22">
         <v>58</v>
       </c>
@@ -5624,7 +5628,7 @@
       </c>
       <c r="L59" s="10"/>
     </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:12" ht="14.45" x14ac:dyDescent="0.2">
       <c r="A60" s="22">
         <v>59</v>
       </c>
@@ -5651,7 +5655,7 @@
       </c>
       <c r="L60" s="10"/>
     </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:12" ht="14.45" x14ac:dyDescent="0.2">
       <c r="A61" s="22">
         <v>60</v>
       </c>
@@ -5678,7 +5682,7 @@
       </c>
       <c r="L61" s="10"/>
     </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:12" ht="14.45" x14ac:dyDescent="0.2">
       <c r="A62" s="22">
         <v>61</v>
       </c>
@@ -5705,7 +5709,7 @@
       </c>
       <c r="L62" s="10"/>
     </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:12" ht="14.45" x14ac:dyDescent="0.2">
       <c r="A63" s="22">
         <v>62</v>
       </c>
@@ -5732,7 +5736,7 @@
       </c>
       <c r="L63" s="10"/>
     </row>
-    <row r="64" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:12" ht="14.45" x14ac:dyDescent="0.2">
       <c r="A64" s="22">
         <v>63</v>
       </c>
@@ -5759,7 +5763,7 @@
       </c>
       <c r="L64" s="10"/>
     </row>
-    <row r="65" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:12" ht="14.45" x14ac:dyDescent="0.2">
       <c r="A65" s="22">
         <v>64</v>
       </c>
@@ -5786,7 +5790,7 @@
       </c>
       <c r="L65" s="10"/>
     </row>
-    <row r="66" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:12" ht="14.45" x14ac:dyDescent="0.2">
       <c r="A66" s="22">
         <v>65</v>
       </c>
@@ -5813,7 +5817,7 @@
       </c>
       <c r="L66" s="10"/>
     </row>
-    <row r="67" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:12" ht="14.45" x14ac:dyDescent="0.2">
       <c r="A67" s="22">
         <v>66</v>
       </c>
@@ -5840,7 +5844,7 @@
       </c>
       <c r="L67" s="10"/>
     </row>
-    <row r="68" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:12" ht="14.45" x14ac:dyDescent="0.2">
       <c r="A68" s="22">
         <v>67</v>
       </c>
@@ -5867,7 +5871,7 @@
       </c>
       <c r="L68" s="10"/>
     </row>
-    <row r="69" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:12" ht="14.45" x14ac:dyDescent="0.2">
       <c r="A69" s="22">
         <v>68</v>
       </c>
@@ -5894,7 +5898,7 @@
       </c>
       <c r="L69" s="10"/>
     </row>
-    <row r="70" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:12" ht="14.45" x14ac:dyDescent="0.2">
       <c r="A70" s="22">
         <v>69</v>
       </c>
@@ -5921,7 +5925,7 @@
       </c>
       <c r="K70" s="10"/>
     </row>
-    <row r="71" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:12" ht="14.45" x14ac:dyDescent="0.2">
       <c r="A71" s="22">
         <v>70</v>
       </c>
@@ -5948,7 +5952,7 @@
       </c>
       <c r="K71" s="10"/>
     </row>
-    <row r="72" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:12" ht="14.45" x14ac:dyDescent="0.2">
       <c r="A72" s="22">
         <v>71</v>
       </c>
@@ -5981,7 +5985,7 @@
       </c>
       <c r="K72" s="10"/>
     </row>
-    <row r="73" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:12" ht="14.45" x14ac:dyDescent="0.2">
       <c r="A73" s="22">
         <v>72</v>
       </c>
@@ -6008,7 +6012,7 @@
       </c>
       <c r="K73" s="10"/>
     </row>
-    <row r="74" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:12" ht="14.45" x14ac:dyDescent="0.2">
       <c r="A74" s="22">
         <v>73</v>
       </c>
@@ -6035,7 +6039,7 @@
       </c>
       <c r="K74" s="10"/>
     </row>
-    <row r="75" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:12" ht="14.45" x14ac:dyDescent="0.2">
       <c r="A75" s="22">
         <v>74</v>
       </c>
@@ -6064,7 +6068,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="76" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:12" ht="14.45" x14ac:dyDescent="0.2">
       <c r="A76" s="22">
         <v>75</v>
       </c>
@@ -6094,7 +6098,7 @@
       </c>
       <c r="L76" s="10"/>
     </row>
-    <row r="77" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:12" ht="14.45" x14ac:dyDescent="0.2">
       <c r="A77" s="22">
         <v>76</v>
       </c>
@@ -6124,7 +6128,7 @@
       </c>
       <c r="L77" s="10"/>
     </row>
-    <row r="78" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:12" ht="14.45" x14ac:dyDescent="0.2">
       <c r="A78" s="22">
         <v>77</v>
       </c>
@@ -6154,7 +6158,7 @@
       </c>
       <c r="L78" s="10"/>
     </row>
-    <row r="79" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:12" ht="14.45" x14ac:dyDescent="0.2">
       <c r="A79" s="22">
         <v>78</v>
       </c>
@@ -6184,7 +6188,7 @@
       </c>
       <c r="L79" s="10"/>
     </row>
-    <row r="80" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:12" ht="14.45" x14ac:dyDescent="0.2">
       <c r="A80" s="22">
         <v>79</v>
       </c>
@@ -6214,7 +6218,7 @@
       </c>
       <c r="L80" s="10"/>
     </row>
-    <row r="81" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:12" ht="14.45" x14ac:dyDescent="0.2">
       <c r="A81" s="22">
         <v>80</v>
       </c>
@@ -6244,7 +6248,7 @@
       </c>
       <c r="L81" s="10"/>
     </row>
-    <row r="82" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:12" ht="14.45" x14ac:dyDescent="0.2">
       <c r="A82" s="22">
         <v>81</v>
       </c>
@@ -6274,7 +6278,7 @@
       </c>
       <c r="L82" s="10"/>
     </row>
-    <row r="83" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:12" ht="14.45" x14ac:dyDescent="0.2">
       <c r="A83" s="22">
         <v>82</v>
       </c>
@@ -6304,7 +6308,7 @@
       </c>
       <c r="L83" s="10"/>
     </row>
-    <row r="84" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:12" ht="14.45" x14ac:dyDescent="0.2">
       <c r="A84" s="22">
         <v>83</v>
       </c>
@@ -6334,7 +6338,7 @@
       </c>
       <c r="L84" s="10"/>
     </row>
-    <row r="85" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:12" ht="14.45" x14ac:dyDescent="0.2">
       <c r="A85" s="22">
         <v>84</v>
       </c>
@@ -6364,7 +6368,7 @@
       </c>
       <c r="L85" s="10"/>
     </row>
-    <row r="86" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:12" ht="14.45" x14ac:dyDescent="0.2">
       <c r="A86" s="22">
         <v>85</v>
       </c>
@@ -6394,7 +6398,7 @@
       </c>
       <c r="L86" s="10"/>
     </row>
-    <row r="87" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:12" ht="14.45" x14ac:dyDescent="0.2">
       <c r="A87" s="22">
         <v>86</v>
       </c>
@@ -6424,7 +6428,7 @@
       </c>
       <c r="L87" s="10"/>
     </row>
-    <row r="88" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:12" ht="14.45" x14ac:dyDescent="0.2">
       <c r="A88" s="22">
         <v>87</v>
       </c>
@@ -6454,7 +6458,7 @@
       </c>
       <c r="L88" s="10"/>
     </row>
-    <row r="89" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:12" ht="14.45" x14ac:dyDescent="0.2">
       <c r="A89" s="22">
         <v>88</v>
       </c>
@@ -6484,7 +6488,7 @@
       </c>
       <c r="L89" s="10"/>
     </row>
-    <row r="90" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:12" ht="14.45" x14ac:dyDescent="0.2">
       <c r="A90" s="22">
         <v>89</v>
       </c>
@@ -6514,7 +6518,7 @@
       </c>
       <c r="L90" s="10"/>
     </row>
-    <row r="91" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:12" ht="14.45" x14ac:dyDescent="0.2">
       <c r="A91" s="22">
         <v>90</v>
       </c>
@@ -6544,7 +6548,7 @@
       </c>
       <c r="L91" s="10"/>
     </row>
-    <row r="92" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:12" ht="14.45" x14ac:dyDescent="0.2">
       <c r="A92" s="22">
         <v>91</v>
       </c>
@@ -6574,7 +6578,7 @@
       </c>
       <c r="L92" s="10"/>
     </row>
-    <row r="93" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:12" ht="14.45" x14ac:dyDescent="0.2">
       <c r="A93" s="22">
         <v>92</v>
       </c>
@@ -6604,7 +6608,7 @@
       </c>
       <c r="L93" s="10"/>
     </row>
-    <row r="94" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:12" ht="14.45" x14ac:dyDescent="0.2">
       <c r="A94" s="22">
         <v>93</v>
       </c>
@@ -6634,7 +6638,7 @@
       </c>
       <c r="L94" s="10"/>
     </row>
-    <row r="95" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:12" ht="14.45" x14ac:dyDescent="0.2">
       <c r="A95" s="22">
         <v>94</v>
       </c>
@@ -6664,7 +6668,7 @@
       </c>
       <c r="L95" s="10"/>
     </row>
-    <row r="96" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:12" ht="14.45" x14ac:dyDescent="0.2">
       <c r="A96" s="22">
         <v>95</v>
       </c>
@@ -6694,7 +6698,7 @@
       </c>
       <c r="L96" s="10"/>
     </row>
-    <row r="97" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:12" ht="14.45" x14ac:dyDescent="0.2">
       <c r="A97" s="22">
         <v>96</v>
       </c>
@@ -6724,7 +6728,7 @@
       </c>
       <c r="L97" s="10"/>
     </row>
-    <row r="98" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A98" s="22">
         <v>97</v>
       </c>
@@ -6753,7 +6757,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="99" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A99" s="22">
         <v>98</v>
       </c>
@@ -6782,7 +6786,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="100" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A100" s="22">
         <v>99</v>
       </c>
@@ -6811,7 +6815,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="101" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A101" s="22">
         <v>100</v>
       </c>
@@ -6840,7 +6844,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="102" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A102" s="22">
         <v>101</v>
       </c>
@@ -6875,7 +6879,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="103" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A103" s="22">
         <v>102</v>
       </c>
@@ -6910,7 +6914,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="104" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:12" ht="14.45" x14ac:dyDescent="0.2">
       <c r="A104" s="22">
         <v>103</v>
       </c>
@@ -6938,7 +6942,7 @@
       <c r="K104" s="10"/>
       <c r="L104" s="10"/>
     </row>
-    <row r="105" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:12" ht="14.45" x14ac:dyDescent="0.2">
       <c r="A105" s="22">
         <v>104</v>
       </c>
@@ -6966,7 +6970,7 @@
       <c r="K105" s="10"/>
       <c r="L105" s="10"/>
     </row>
-    <row r="106" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:12" ht="14.45" x14ac:dyDescent="0.2">
       <c r="A106" s="22">
         <v>105</v>
       </c>
@@ -6994,7 +6998,7 @@
       <c r="K106" s="10"/>
       <c r="L106" s="10"/>
     </row>
-    <row r="107" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:12" ht="14.45" x14ac:dyDescent="0.2">
       <c r="A107" s="22">
         <v>106</v>
       </c>
@@ -7022,7 +7026,7 @@
       <c r="K107" s="10"/>
       <c r="L107" s="10"/>
     </row>
-    <row r="108" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:12" ht="14.45" x14ac:dyDescent="0.2">
       <c r="A108" s="22">
         <v>107</v>
       </c>
@@ -7050,7 +7054,7 @@
       <c r="K108" s="10"/>
       <c r="L108" s="10"/>
     </row>
-    <row r="109" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:12" ht="14.45" x14ac:dyDescent="0.2">
       <c r="A109" s="22">
         <v>108</v>
       </c>
@@ -7078,7 +7082,7 @@
       <c r="K109" s="10"/>
       <c r="L109" s="10"/>
     </row>
-    <row r="110" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:12" ht="14.45" x14ac:dyDescent="0.2">
       <c r="A110" s="22">
         <v>109</v>
       </c>
@@ -7106,7 +7110,7 @@
       <c r="K110" s="10"/>
       <c r="L110" s="10"/>
     </row>
-    <row r="111" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:12" ht="14.45" x14ac:dyDescent="0.2">
       <c r="A111" s="22">
         <v>110</v>
       </c>
@@ -7134,7 +7138,7 @@
       <c r="K111" s="10"/>
       <c r="L111" s="10"/>
     </row>
-    <row r="112" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:12" ht="14.45" x14ac:dyDescent="0.2">
       <c r="A112" s="22">
         <v>111</v>
       </c>
@@ -7162,7 +7166,7 @@
       <c r="K112" s="10"/>
       <c r="L112" s="10"/>
     </row>
-    <row r="113" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:12" ht="14.45" x14ac:dyDescent="0.2">
       <c r="A113" s="22">
         <v>112</v>
       </c>
@@ -7190,7 +7194,7 @@
       <c r="K113" s="10"/>
       <c r="L113" s="10"/>
     </row>
-    <row r="114" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:12" ht="14.45" x14ac:dyDescent="0.2">
       <c r="A114" s="22">
         <v>113</v>
       </c>
@@ -7218,7 +7222,7 @@
       <c r="K114" s="10"/>
       <c r="L114" s="10"/>
     </row>
-    <row r="115" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:12" ht="14.45" x14ac:dyDescent="0.2">
       <c r="A115" s="22">
         <v>114</v>
       </c>
@@ -7246,7 +7250,7 @@
       <c r="K115" s="10"/>
       <c r="L115" s="10"/>
     </row>
-    <row r="116" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:12" ht="14.45" x14ac:dyDescent="0.2">
       <c r="A116" s="22">
         <v>115</v>
       </c>
@@ -7274,7 +7278,7 @@
       <c r="K116" s="10"/>
       <c r="L116" s="10"/>
     </row>
-    <row r="117" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:12" ht="14.45" x14ac:dyDescent="0.2">
       <c r="A117" s="22">
         <v>116</v>
       </c>
@@ -7302,7 +7306,7 @@
       <c r="K117" s="10"/>
       <c r="L117" s="10"/>
     </row>
-    <row r="118" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:12" ht="14.45" x14ac:dyDescent="0.2">
       <c r="A118" s="22">
         <v>117</v>
       </c>
@@ -7330,7 +7334,7 @@
       <c r="K118" s="10"/>
       <c r="L118" s="10"/>
     </row>
-    <row r="119" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:12" ht="14.45" x14ac:dyDescent="0.2">
       <c r="A119" s="22">
         <v>118</v>
       </c>
@@ -7358,7 +7362,7 @@
       <c r="K119" s="10"/>
       <c r="L119" s="10"/>
     </row>
-    <row r="120" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:12" ht="14.45" x14ac:dyDescent="0.2">
       <c r="A120" s="22">
         <v>119</v>
       </c>
@@ -7386,7 +7390,7 @@
       <c r="K120" s="10"/>
       <c r="L120" s="10"/>
     </row>
-    <row r="121" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:12" ht="14.45" x14ac:dyDescent="0.2">
       <c r="A121" s="22">
         <v>120</v>
       </c>
@@ -7414,7 +7418,7 @@
       <c r="K121" s="10"/>
       <c r="L121" s="10"/>
     </row>
-    <row r="122" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:12" ht="14.45" x14ac:dyDescent="0.2">
       <c r="A122" s="22">
         <v>121</v>
       </c>
@@ -7442,7 +7446,7 @@
       <c r="K122" s="10"/>
       <c r="L122" s="10"/>
     </row>
-    <row r="123" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:12" ht="14.45" x14ac:dyDescent="0.2">
       <c r="A123" s="22">
         <v>122</v>
       </c>
@@ -7470,7 +7474,7 @@
       <c r="K123" s="10"/>
       <c r="L123" s="10"/>
     </row>
-    <row r="124" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:12" ht="14.45" x14ac:dyDescent="0.2">
       <c r="A124" s="22">
         <v>123</v>
       </c>
@@ -7498,7 +7502,7 @@
       <c r="K124" s="10"/>
       <c r="L124" s="10"/>
     </row>
-    <row r="125" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:12" ht="14.45" x14ac:dyDescent="0.2">
       <c r="A125" s="22">
         <v>124</v>
       </c>
@@ -7526,7 +7530,7 @@
       <c r="K125" s="10"/>
       <c r="L125" s="10"/>
     </row>
-    <row r="126" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:12" ht="14.45" x14ac:dyDescent="0.2">
       <c r="A126" s="22">
         <v>125</v>
       </c>
@@ -7553,7 +7557,7 @@
       </c>
       <c r="K126" s="10"/>
     </row>
-    <row r="127" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:12" ht="14.45" x14ac:dyDescent="0.2">
       <c r="A127" s="22">
         <v>126</v>
       </c>
@@ -7580,7 +7584,7 @@
       </c>
       <c r="K127" s="10"/>
     </row>
-    <row r="128" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:12" ht="14.45" x14ac:dyDescent="0.2">
       <c r="A128" s="22">
         <v>127</v>
       </c>
@@ -7607,7 +7611,7 @@
       </c>
       <c r="K128" s="10"/>
     </row>
-    <row r="129" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:12" ht="14.45" x14ac:dyDescent="0.2">
       <c r="A129" s="22">
         <v>128</v>
       </c>
@@ -7634,7 +7638,7 @@
       </c>
       <c r="K129" s="10"/>
     </row>
-    <row r="130" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:12" ht="14.45" x14ac:dyDescent="0.2">
       <c r="A130" s="22">
         <v>129</v>
       </c>
@@ -7661,7 +7665,7 @@
       </c>
       <c r="K130" s="10"/>
     </row>
-    <row r="131" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:12" ht="14.45" x14ac:dyDescent="0.2">
       <c r="A131" s="22">
         <v>130</v>
       </c>
@@ -7696,7 +7700,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="132" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:12" ht="14.45" x14ac:dyDescent="0.2">
       <c r="A132" s="22">
         <v>131</v>
       </c>
@@ -7724,7 +7728,7 @@
       <c r="K132" s="10"/>
       <c r="L132" s="10"/>
     </row>
-    <row r="133" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:12" ht="14.45" x14ac:dyDescent="0.2">
       <c r="A133" s="22">
         <v>132</v>
       </c>
@@ -7752,7 +7756,7 @@
       <c r="K133" s="10"/>
       <c r="L133" s="10"/>
     </row>
-    <row r="134" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:12" ht="14.45" x14ac:dyDescent="0.2">
       <c r="A134" s="22">
         <v>133</v>
       </c>
@@ -7780,7 +7784,7 @@
       <c r="K134" s="10"/>
       <c r="L134" s="10"/>
     </row>
-    <row r="135" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:12" ht="14.45" x14ac:dyDescent="0.2">
       <c r="A135" s="22">
         <v>134</v>
       </c>
@@ -7808,7 +7812,7 @@
       <c r="K135" s="10"/>
       <c r="L135" s="10"/>
     </row>
-    <row r="136" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:12" ht="14.45" x14ac:dyDescent="0.2">
       <c r="A136" s="22">
         <v>135</v>
       </c>
@@ -7836,7 +7840,7 @@
       <c r="K136" s="10"/>
       <c r="L136" s="10"/>
     </row>
-    <row r="137" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:12" ht="14.45" x14ac:dyDescent="0.2">
       <c r="A137" s="22">
         <v>136</v>
       </c>
@@ -7864,7 +7868,7 @@
       <c r="K137" s="10"/>
       <c r="L137" s="10"/>
     </row>
-    <row r="138" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:12" ht="14.45" x14ac:dyDescent="0.2">
       <c r="A138" s="22">
         <v>137</v>
       </c>
@@ -7892,7 +7896,7 @@
       <c r="K138" s="10"/>
       <c r="L138" s="10"/>
     </row>
-    <row r="139" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:12" ht="14.45" x14ac:dyDescent="0.2">
       <c r="A139" s="22">
         <v>138</v>
       </c>
@@ -7920,7 +7924,7 @@
       <c r="K139" s="10"/>
       <c r="L139" s="10"/>
     </row>
-    <row r="140" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:12" ht="14.45" x14ac:dyDescent="0.2">
       <c r="A140" s="22">
         <v>139</v>
       </c>
@@ -7948,7 +7952,7 @@
       <c r="K140" s="10"/>
       <c r="L140" s="10"/>
     </row>
-    <row r="141" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:12" ht="14.45" x14ac:dyDescent="0.2">
       <c r="A141" s="22">
         <v>140</v>
       </c>
@@ -7976,7 +7980,7 @@
       <c r="K141" s="10"/>
       <c r="L141" s="10"/>
     </row>
-    <row r="142" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:12" ht="14.45" x14ac:dyDescent="0.2">
       <c r="A142" s="22">
         <v>141</v>
       </c>
@@ -8004,7 +8008,7 @@
       <c r="K142" s="10"/>
       <c r="L142" s="10"/>
     </row>
-    <row r="143" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:12" ht="14.45" x14ac:dyDescent="0.2">
       <c r="A143" s="22">
         <v>142</v>
       </c>
@@ -8032,7 +8036,7 @@
       <c r="K143" s="10"/>
       <c r="L143" s="10"/>
     </row>
-    <row r="144" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:12" ht="14.45" x14ac:dyDescent="0.2">
       <c r="A144" s="22">
         <v>143</v>
       </c>
@@ -8060,7 +8064,7 @@
       <c r="K144" s="10"/>
       <c r="L144" s="10"/>
     </row>
-    <row r="145" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:24" ht="14.45" x14ac:dyDescent="0.2">
       <c r="A145" s="22">
         <v>144</v>
       </c>
@@ -8088,7 +8092,7 @@
       <c r="K145" s="10"/>
       <c r="L145" s="10"/>
     </row>
-    <row r="146" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:24" ht="14.45" x14ac:dyDescent="0.2">
       <c r="A146" s="22">
         <v>145</v>
       </c>
@@ -8116,7 +8120,7 @@
       <c r="K146" s="10"/>
       <c r="L146" s="10"/>
     </row>
-    <row r="147" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:24" ht="14.45" x14ac:dyDescent="0.2">
       <c r="A147" s="22">
         <v>146</v>
       </c>
@@ -8144,7 +8148,7 @@
       <c r="K147" s="10"/>
       <c r="L147" s="10"/>
     </row>
-    <row r="148" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:24" ht="14.45" x14ac:dyDescent="0.2">
       <c r="A148" s="22">
         <v>147</v>
       </c>
@@ -8172,7 +8176,7 @@
       <c r="K148" s="10"/>
       <c r="L148" s="10"/>
     </row>
-    <row r="149" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:24" ht="14.45" x14ac:dyDescent="0.2">
       <c r="A149" s="22">
         <v>148</v>
       </c>
@@ -8200,7 +8204,7 @@
       <c r="K149" s="10"/>
       <c r="L149" s="10"/>
     </row>
-    <row r="150" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:24" ht="14.45" x14ac:dyDescent="0.2">
       <c r="A150" s="22">
         <v>149</v>
       </c>
@@ -8228,7 +8232,7 @@
       <c r="K150" s="10"/>
       <c r="L150" s="10"/>
     </row>
-    <row r="151" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:24" ht="14.45" x14ac:dyDescent="0.2">
       <c r="A151" s="22">
         <v>150</v>
       </c>
@@ -8256,7 +8260,7 @@
       <c r="K151" s="10"/>
       <c r="L151" s="10"/>
     </row>
-    <row r="152" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:24" ht="14.45" x14ac:dyDescent="0.2">
       <c r="A152" s="22">
         <v>151</v>
       </c>
@@ -8284,7 +8288,7 @@
       <c r="K152" s="10"/>
       <c r="L152" s="10"/>
     </row>
-    <row r="153" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:24" ht="14.45" x14ac:dyDescent="0.2">
       <c r="A153" s="22">
         <v>152</v>
       </c>
@@ -8312,7 +8316,7 @@
       <c r="K153" s="10"/>
       <c r="L153" s="10"/>
     </row>
-    <row r="154" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:24" ht="14.45" x14ac:dyDescent="0.2">
       <c r="A154" s="22">
         <v>153</v>
       </c>
@@ -8339,7 +8343,7 @@
       </c>
       <c r="K154" s="10"/>
     </row>
-    <row r="155" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:24" ht="14.45" x14ac:dyDescent="0.2">
       <c r="A155" s="22">
         <v>154</v>
       </c>
@@ -8366,7 +8370,7 @@
       </c>
       <c r="K155" s="10"/>
     </row>
-    <row r="156" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:24" ht="14.45" x14ac:dyDescent="0.2">
       <c r="A156" s="22">
         <v>155</v>
       </c>
@@ -8399,7 +8403,7 @@
       </c>
       <c r="K156" s="10"/>
     </row>
-    <row r="157" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:24" ht="14.45" x14ac:dyDescent="0.2">
       <c r="A157" s="22">
         <v>156</v>
       </c>
@@ -8426,7 +8430,7 @@
       </c>
       <c r="K157" s="10"/>
     </row>
-    <row r="158" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:24" ht="14.45" x14ac:dyDescent="0.2">
       <c r="A158" s="22">
         <v>157</v>
       </c>
@@ -8453,7 +8457,7 @@
       </c>
       <c r="K158" s="10"/>
     </row>
-    <row r="159" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:24" ht="14.45" x14ac:dyDescent="0.2">
       <c r="A159" s="22">
         <v>158</v>
       </c>
@@ -8486,7 +8490,7 @@
       </c>
       <c r="K159" s="10"/>
     </row>
-    <row r="160" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:24" ht="14.45" x14ac:dyDescent="0.2">
       <c r="A160" s="22">
         <v>159</v>
       </c>
@@ -8515,7 +8519,7 @@
       <c r="W160" s="10"/>
       <c r="X160" s="10"/>
     </row>
-    <row r="161" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:24" ht="14.45" x14ac:dyDescent="0.2">
       <c r="A161" s="22">
         <v>160</v>
       </c>
@@ -8544,7 +8548,7 @@
       <c r="W161" s="10"/>
       <c r="X161" s="10"/>
     </row>
-    <row r="162" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:24" ht="14.45" x14ac:dyDescent="0.2">
       <c r="A162" s="22">
         <v>161</v>
       </c>
@@ -8573,7 +8577,7 @@
       <c r="W162" s="10"/>
       <c r="X162" s="10"/>
     </row>
-    <row r="163" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A163" s="22">
         <v>162</v>
       </c>
@@ -8600,7 +8604,7 @@
       </c>
       <c r="K163" s="5"/>
     </row>
-    <row r="164" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A164" s="22">
         <v>163</v>
       </c>
@@ -8627,7 +8631,7 @@
       </c>
       <c r="K164" s="5"/>
     </row>
-    <row r="165" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A165" s="22">
         <v>164</v>
       </c>
@@ -8653,7 +8657,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="166" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A166" s="22">
         <v>165</v>
       </c>
@@ -8679,7 +8683,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="167" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A167" s="22">
         <v>166</v>
       </c>
@@ -8705,7 +8709,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="168" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A168" s="22">
         <v>167</v>
       </c>
@@ -8731,7 +8735,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="169" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A169" s="22">
         <v>168</v>
       </c>
@@ -8757,7 +8761,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="170" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A170" s="22">
         <v>169</v>
       </c>
@@ -8783,7 +8787,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="171" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A171" s="22">
         <v>170</v>
       </c>
@@ -8809,7 +8813,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="172" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A172" s="22">
         <v>171</v>
       </c>
@@ -8835,7 +8839,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="173" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A173" s="22">
         <v>172</v>
       </c>
@@ -8861,7 +8865,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="174" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A174" s="22">
         <v>173</v>
       </c>
@@ -8887,7 +8891,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="175" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A175" s="22">
         <v>174</v>
       </c>
@@ -8913,7 +8917,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="176" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A176" s="22">
         <v>175</v>
       </c>
@@ -8939,7 +8943,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="177" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A177" s="22">
         <v>176</v>
       </c>
@@ -8965,7 +8969,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="178" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A178" s="22">
         <v>177</v>
       </c>
@@ -8991,7 +8995,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="179" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A179" s="22">
         <v>178</v>
       </c>
@@ -9017,7 +9021,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="180" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A180" s="22">
         <v>179</v>
       </c>
@@ -9043,7 +9047,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="181" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A181" s="22">
         <v>180</v>
       </c>
@@ -9069,7 +9073,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="182" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A182" s="22">
         <v>181</v>
       </c>
@@ -9095,7 +9099,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="183" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A183" s="22">
         <v>182</v>
       </c>
@@ -9121,7 +9125,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="184" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A184" s="22">
         <v>183</v>
       </c>
@@ -9147,7 +9151,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="185" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A185" s="22">
         <v>184</v>
       </c>
@@ -9173,7 +9177,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="186" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A186" s="22">
         <v>185</v>
       </c>
@@ -9199,7 +9203,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="187" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A187" s="22">
         <v>186</v>
       </c>
@@ -9225,7 +9229,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="188" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A188" s="22">
         <v>187</v>
       </c>
@@ -9251,7 +9255,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="189" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A189" s="22">
         <v>188</v>
       </c>
@@ -9277,7 +9281,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="190" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A190" s="22">
         <v>189</v>
       </c>
@@ -9303,7 +9307,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="191" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A191" s="22">
         <v>190</v>
       </c>
@@ -9329,7 +9333,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="192" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A192" s="22">
         <v>191</v>
       </c>
@@ -9355,7 +9359,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="193" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:24" ht="14.45" x14ac:dyDescent="0.2">
       <c r="A193" s="22">
         <v>192</v>
       </c>
@@ -9383,7 +9387,7 @@
       <c r="W193" s="10"/>
       <c r="X193" s="18"/>
     </row>
-    <row r="194" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:24" ht="14.45" x14ac:dyDescent="0.2">
       <c r="A194" s="22">
         <v>193</v>
       </c>
@@ -9411,7 +9415,7 @@
       <c r="W194" s="10"/>
       <c r="X194" s="18"/>
     </row>
-    <row r="195" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:24" ht="14.45" x14ac:dyDescent="0.2">
       <c r="A195" s="22">
         <v>194</v>
       </c>
@@ -9439,7 +9443,7 @@
       <c r="W195" s="10"/>
       <c r="X195" s="18"/>
     </row>
-    <row r="196" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:24" ht="14.45" x14ac:dyDescent="0.2">
       <c r="A196" s="22">
         <v>195</v>
       </c>
@@ -9467,7 +9471,7 @@
       <c r="W196" s="10"/>
       <c r="X196" s="18"/>
     </row>
-    <row r="197" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:24" ht="14.45" x14ac:dyDescent="0.2">
       <c r="A197" s="22">
         <v>196</v>
       </c>
@@ -9495,7 +9499,7 @@
       <c r="W197" s="10"/>
       <c r="X197" s="18"/>
     </row>
-    <row r="198" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:24" ht="14.45" x14ac:dyDescent="0.2">
       <c r="A198" s="22">
         <v>197</v>
       </c>
@@ -9523,7 +9527,7 @@
       <c r="W198" s="10"/>
       <c r="X198" s="10"/>
     </row>
-    <row r="199" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:24" ht="14.45" x14ac:dyDescent="0.2">
       <c r="A199" s="22">
         <v>198</v>
       </c>
@@ -9551,7 +9555,7 @@
       <c r="W199" s="10"/>
       <c r="X199" s="10"/>
     </row>
-    <row r="200" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:24" ht="14.45" x14ac:dyDescent="0.2">
       <c r="A200" s="22">
         <v>199</v>
       </c>
@@ -9579,7 +9583,7 @@
       <c r="W200" s="10"/>
       <c r="X200" s="10"/>
     </row>
-    <row r="201" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:24" ht="14.45" x14ac:dyDescent="0.2">
       <c r="A201" s="22">
         <v>200</v>
       </c>
@@ -9607,7 +9611,7 @@
       <c r="W201" s="10"/>
       <c r="X201" s="10"/>
     </row>
-    <row r="202" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:24" ht="14.45" x14ac:dyDescent="0.2">
       <c r="A202" s="22">
         <v>201</v>
       </c>
@@ -9635,7 +9639,7 @@
       <c r="W202" s="10"/>
       <c r="X202" s="10"/>
     </row>
-    <row r="203" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:24" ht="14.45" x14ac:dyDescent="0.2">
       <c r="A203" s="22">
         <v>202</v>
       </c>
@@ -9665,7 +9669,7 @@
       <c r="W203" s="10"/>
       <c r="X203" s="10"/>
     </row>
-    <row r="204" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:24" ht="14.45" x14ac:dyDescent="0.2">
       <c r="A204" s="22">
         <v>203</v>
       </c>
@@ -9695,7 +9699,7 @@
       <c r="W204" s="10"/>
       <c r="X204" s="10"/>
     </row>
-    <row r="205" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:24" ht="14.45" x14ac:dyDescent="0.2">
       <c r="A205" s="22">
         <v>204</v>
       </c>
@@ -9725,7 +9729,7 @@
       <c r="W205" s="10"/>
       <c r="X205" s="10"/>
     </row>
-    <row r="206" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:24" ht="14.45" x14ac:dyDescent="0.2">
       <c r="A206" s="22">
         <v>205</v>
       </c>
@@ -9753,7 +9757,7 @@
       <c r="K206" s="10"/>
       <c r="L206" s="10"/>
     </row>
-    <row r="207" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:24" ht="14.45" x14ac:dyDescent="0.2">
       <c r="A207" s="22">
         <v>206</v>
       </c>
@@ -9781,7 +9785,7 @@
       <c r="K207" s="10"/>
       <c r="L207" s="10"/>
     </row>
-    <row r="208" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:24" ht="14.45" x14ac:dyDescent="0.2">
       <c r="A208" s="22">
         <v>207</v>
       </c>
@@ -9809,7 +9813,7 @@
       <c r="K208" s="10"/>
       <c r="L208" s="10"/>
     </row>
-    <row r="209" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:12" ht="14.45" x14ac:dyDescent="0.2">
       <c r="A209" s="22">
         <v>208</v>
       </c>
@@ -9837,7 +9841,7 @@
       <c r="K209" s="10"/>
       <c r="L209" s="10"/>
     </row>
-    <row r="210" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:12" ht="14.45" x14ac:dyDescent="0.2">
       <c r="A210" s="22">
         <v>209</v>
       </c>
@@ -9865,7 +9869,7 @@
       <c r="K210" s="10"/>
       <c r="L210" s="10"/>
     </row>
-    <row r="211" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:12" ht="14.45" x14ac:dyDescent="0.2">
       <c r="A211" s="22">
         <v>210</v>
       </c>
@@ -9893,7 +9897,7 @@
       <c r="K211" s="10"/>
       <c r="L211" s="10"/>
     </row>
-    <row r="212" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:12" ht="14.45" x14ac:dyDescent="0.2">
       <c r="A212" s="22">
         <v>211</v>
       </c>
@@ -9921,7 +9925,7 @@
       <c r="K212" s="10"/>
       <c r="L212" s="10"/>
     </row>
-    <row r="213" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:12" ht="14.45" x14ac:dyDescent="0.2">
       <c r="A213" s="22">
         <v>212</v>
       </c>
@@ -9949,7 +9953,7 @@
       <c r="K213" s="10"/>
       <c r="L213" s="10"/>
     </row>
-    <row r="214" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:12" ht="14.45" x14ac:dyDescent="0.2">
       <c r="A214" s="22">
         <v>213</v>
       </c>
@@ -9977,7 +9981,7 @@
       <c r="K214" s="10"/>
       <c r="L214" s="10"/>
     </row>
-    <row r="215" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:12" ht="14.45" x14ac:dyDescent="0.2">
       <c r="A215" s="22">
         <v>214</v>
       </c>
@@ -10005,7 +10009,7 @@
       <c r="K215" s="10"/>
       <c r="L215" s="10"/>
     </row>
-    <row r="216" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:12" ht="14.45" x14ac:dyDescent="0.2">
       <c r="A216" s="22">
         <v>215</v>
       </c>
@@ -10033,7 +10037,7 @@
       <c r="K216" s="10"/>
       <c r="L216" s="10"/>
     </row>
-    <row r="217" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:12" ht="14.45" x14ac:dyDescent="0.2">
       <c r="A217" s="22">
         <v>216</v>
       </c>
@@ -10061,7 +10065,7 @@
       <c r="K217" s="10"/>
       <c r="L217" s="10"/>
     </row>
-    <row r="218" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:12" ht="14.45" x14ac:dyDescent="0.2">
       <c r="A218" s="22">
         <v>217</v>
       </c>
@@ -10089,7 +10093,7 @@
       <c r="K218" s="10"/>
       <c r="L218" s="10"/>
     </row>
-    <row r="219" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:12" ht="14.45" x14ac:dyDescent="0.2">
       <c r="A219" s="22">
         <v>218</v>
       </c>
@@ -10117,7 +10121,7 @@
       <c r="K219" s="10"/>
       <c r="L219" s="10"/>
     </row>
-    <row r="220" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:12" ht="14.45" x14ac:dyDescent="0.2">
       <c r="A220" s="22">
         <v>219</v>
       </c>
@@ -10145,7 +10149,7 @@
       <c r="K220" s="10"/>
       <c r="L220" s="10"/>
     </row>
-    <row r="221" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:12" ht="14.45" x14ac:dyDescent="0.2">
       <c r="A221" s="22">
         <v>220</v>
       </c>
@@ -10173,7 +10177,7 @@
       <c r="K221" s="10"/>
       <c r="L221" s="10"/>
     </row>
-    <row r="222" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:12" ht="14.45" x14ac:dyDescent="0.2">
       <c r="A222" s="22">
         <v>221</v>
       </c>
@@ -10201,7 +10205,7 @@
       <c r="K222" s="10"/>
       <c r="L222" s="10"/>
     </row>
-    <row r="223" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:12" ht="14.45" x14ac:dyDescent="0.2">
       <c r="A223" s="22">
         <v>222</v>
       </c>
@@ -10229,7 +10233,7 @@
       <c r="K223" s="10"/>
       <c r="L223" s="10"/>
     </row>
-    <row r="224" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:12" ht="14.45" x14ac:dyDescent="0.2">
       <c r="A224" s="22">
         <v>223</v>
       </c>
@@ -10257,7 +10261,7 @@
       <c r="K224" s="10"/>
       <c r="L224" s="10"/>
     </row>
-    <row r="225" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:24" ht="14.45" x14ac:dyDescent="0.2">
       <c r="A225" s="22">
         <v>224</v>
       </c>
@@ -10285,7 +10289,7 @@
       <c r="K225" s="10"/>
       <c r="L225" s="10"/>
     </row>
-    <row r="226" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:24" ht="14.45" x14ac:dyDescent="0.2">
       <c r="A226" s="22">
         <v>225</v>
       </c>
@@ -10313,7 +10317,7 @@
       <c r="K226" s="10"/>
       <c r="L226" s="10"/>
     </row>
-    <row r="227" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:24" ht="14.45" x14ac:dyDescent="0.2">
       <c r="A227" s="22">
         <v>226</v>
       </c>
@@ -10341,7 +10345,7 @@
       <c r="K227" s="10"/>
       <c r="L227" s="10"/>
     </row>
-    <row r="228" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:24" ht="14.45" x14ac:dyDescent="0.2">
       <c r="A228" s="22">
         <v>227</v>
       </c>
@@ -10369,7 +10373,7 @@
       <c r="K228" s="10"/>
       <c r="L228" s="10"/>
     </row>
-    <row r="229" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:24" ht="14.45" x14ac:dyDescent="0.2">
       <c r="A229" s="22">
         <v>228</v>
       </c>
@@ -10397,7 +10401,7 @@
       <c r="K229" s="10"/>
       <c r="L229" s="10"/>
     </row>
-    <row r="230" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:24" ht="14.45" x14ac:dyDescent="0.2">
       <c r="A230" s="22">
         <v>229</v>
       </c>
@@ -10425,7 +10429,7 @@
       <c r="K230" s="10"/>
       <c r="L230" s="10"/>
     </row>
-    <row r="231" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:24" ht="14.45" x14ac:dyDescent="0.2">
       <c r="A231" s="22">
         <v>230</v>
       </c>
@@ -10453,7 +10457,7 @@
       <c r="K231" s="10"/>
       <c r="L231" s="10"/>
     </row>
-    <row r="232" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:24" ht="14.45" x14ac:dyDescent="0.2">
       <c r="A232" s="22">
         <v>231</v>
       </c>
@@ -10481,7 +10485,7 @@
       <c r="K232" s="10"/>
       <c r="L232" s="10"/>
     </row>
-    <row r="233" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:24" ht="14.45" x14ac:dyDescent="0.2">
       <c r="A233" s="22">
         <v>232</v>
       </c>
@@ -10514,7 +10518,7 @@
       </c>
       <c r="K233" s="10"/>
     </row>
-    <row r="234" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:24" ht="14.45" x14ac:dyDescent="0.2">
       <c r="A234" s="22">
         <v>233</v>
       </c>
@@ -10541,7 +10545,7 @@
       </c>
       <c r="K234" s="10"/>
     </row>
-    <row r="235" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:24" ht="14.45" x14ac:dyDescent="0.2">
       <c r="A235" s="22">
         <v>234</v>
       </c>
@@ -10568,7 +10572,7 @@
       </c>
       <c r="K235" s="10"/>
     </row>
-    <row r="236" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:24" ht="14.45" x14ac:dyDescent="0.2">
       <c r="A236" s="22">
         <v>235</v>
       </c>
@@ -10597,7 +10601,7 @@
       <c r="W236" s="10"/>
       <c r="X236" s="18"/>
     </row>
-    <row r="237" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:24" ht="14.45" x14ac:dyDescent="0.2">
       <c r="A237" s="22">
         <v>236</v>
       </c>
@@ -10626,7 +10630,7 @@
       <c r="W237" s="10"/>
       <c r="X237" s="18"/>
     </row>
-    <row r="238" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:24" ht="14.45" x14ac:dyDescent="0.2">
       <c r="A238" s="22">
         <v>237</v>
       </c>
@@ -10661,7 +10665,7 @@
       <c r="W238" s="10"/>
       <c r="X238" s="18"/>
     </row>
-    <row r="239" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:24" ht="14.45" x14ac:dyDescent="0.2">
       <c r="A239" s="22">
         <v>238</v>
       </c>
@@ -10690,7 +10694,7 @@
       <c r="W239" s="10"/>
       <c r="X239" s="18"/>
     </row>
-    <row r="240" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:24" ht="14.45" x14ac:dyDescent="0.2">
       <c r="A240" s="22">
         <v>239</v>
       </c>
@@ -10719,7 +10723,7 @@
       <c r="W240" s="10"/>
       <c r="X240" s="18"/>
     </row>
-    <row r="241" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:24" ht="14.45" x14ac:dyDescent="0.2">
       <c r="A241" s="22">
         <v>240</v>
       </c>
@@ -10748,7 +10752,7 @@
       <c r="W241" s="10"/>
       <c r="X241" s="10"/>
     </row>
-    <row r="242" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:24" ht="14.45" x14ac:dyDescent="0.2">
       <c r="A242" s="22">
         <v>241</v>
       </c>
@@ -10783,7 +10787,7 @@
       <c r="W242" s="10"/>
       <c r="X242" s="10"/>
     </row>
-    <row r="243" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:24" ht="14.45" x14ac:dyDescent="0.2">
       <c r="A243" s="22">
         <v>242</v>
       </c>
@@ -10818,7 +10822,7 @@
       <c r="W243" s="10"/>
       <c r="X243" s="10"/>
     </row>
-    <row r="244" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:24" ht="14.45" x14ac:dyDescent="0.2">
       <c r="A244" s="22">
         <v>243</v>
       </c>
@@ -10853,7 +10857,7 @@
       <c r="W244" s="10"/>
       <c r="X244" s="10"/>
     </row>
-    <row r="245" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:24" ht="14.45" x14ac:dyDescent="0.2">
       <c r="A245" s="22">
         <v>244</v>
       </c>
@@ -10888,7 +10892,7 @@
       <c r="W245" s="10"/>
       <c r="X245" s="10"/>
     </row>
-    <row r="246" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:24" ht="14.45" x14ac:dyDescent="0.2">
       <c r="A246" s="22">
         <v>245</v>
       </c>
@@ -10917,7 +10921,7 @@
       <c r="W246" s="10"/>
       <c r="X246" s="10"/>
     </row>
-    <row r="247" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:24" ht="14.45" x14ac:dyDescent="0.2">
       <c r="A247" s="22">
         <v>246</v>
       </c>
@@ -10946,7 +10950,7 @@
       <c r="W247" s="10"/>
       <c r="X247" s="10"/>
     </row>
-    <row r="248" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:24" ht="14.45" x14ac:dyDescent="0.2">
       <c r="A248" s="22">
         <v>247</v>
       </c>
@@ -10975,7 +10979,7 @@
       <c r="W248" s="10"/>
       <c r="X248" s="10"/>
     </row>
-    <row r="249" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:24" ht="14.45" x14ac:dyDescent="0.2">
       <c r="A249" s="22">
         <v>248</v>
       </c>
@@ -11002,7 +11006,7 @@
       </c>
       <c r="L249" s="10"/>
     </row>
-    <row r="250" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:24" ht="14.45" x14ac:dyDescent="0.2">
       <c r="A250" s="22">
         <v>249</v>
       </c>
@@ -11029,7 +11033,7 @@
       </c>
       <c r="L250" s="10"/>
     </row>
-    <row r="251" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:24" ht="14.45" x14ac:dyDescent="0.2">
       <c r="A251" s="22">
         <v>250</v>
       </c>
@@ -11056,7 +11060,7 @@
       </c>
       <c r="L251" s="10"/>
     </row>
-    <row r="252" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:24" ht="14.45" x14ac:dyDescent="0.2">
       <c r="A252" s="22">
         <v>251</v>
       </c>
@@ -11083,7 +11087,7 @@
       </c>
       <c r="L252" s="10"/>
     </row>
-    <row r="253" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:24" ht="14.45" x14ac:dyDescent="0.2">
       <c r="A253" s="22">
         <v>252</v>
       </c>
@@ -11110,7 +11114,7 @@
       </c>
       <c r="L253" s="10"/>
     </row>
-    <row r="254" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:24" ht="14.45" x14ac:dyDescent="0.2">
       <c r="A254" s="22">
         <v>253</v>
       </c>
@@ -11137,7 +11141,7 @@
       </c>
       <c r="L254" s="10"/>
     </row>
-    <row r="255" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:24" ht="14.45" x14ac:dyDescent="0.2">
       <c r="A255" s="22">
         <v>254</v>
       </c>
@@ -11164,7 +11168,7 @@
       </c>
       <c r="L255" s="10"/>
     </row>
-    <row r="256" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:24" ht="14.45" x14ac:dyDescent="0.2">
       <c r="A256" s="22">
         <v>255</v>
       </c>
@@ -11191,7 +11195,7 @@
       </c>
       <c r="L256" s="10"/>
     </row>
-    <row r="257" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:12" ht="14.45" x14ac:dyDescent="0.2">
       <c r="A257" s="22">
         <v>256</v>
       </c>
@@ -11218,7 +11222,7 @@
       </c>
       <c r="L257" s="10"/>
     </row>
-    <row r="258" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:12" ht="14.45" x14ac:dyDescent="0.2">
       <c r="A258" s="22">
         <v>257</v>
       </c>
@@ -11245,7 +11249,7 @@
       </c>
       <c r="L258" s="10"/>
     </row>
-    <row r="259" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:12" ht="14.45" x14ac:dyDescent="0.2">
       <c r="A259" s="22">
         <v>258</v>
       </c>
@@ -11272,7 +11276,7 @@
       </c>
       <c r="L259" s="10"/>
     </row>
-    <row r="260" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:12" ht="14.45" x14ac:dyDescent="0.2">
       <c r="A260" s="22">
         <v>259</v>
       </c>
@@ -11299,7 +11303,7 @@
       </c>
       <c r="L260" s="10"/>
     </row>
-    <row r="261" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:12" ht="14.45" x14ac:dyDescent="0.2">
       <c r="A261" s="22">
         <v>260</v>
       </c>
@@ -11326,7 +11330,7 @@
       </c>
       <c r="L261" s="10"/>
     </row>
-    <row r="262" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:12" ht="14.45" x14ac:dyDescent="0.2">
       <c r="A262" s="22">
         <v>261</v>
       </c>
@@ -11353,7 +11357,7 @@
       </c>
       <c r="L262" s="10"/>
     </row>
-    <row r="263" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:12" ht="14.45" x14ac:dyDescent="0.2">
       <c r="A263" s="22">
         <v>262</v>
       </c>
@@ -11380,7 +11384,7 @@
       </c>
       <c r="L263" s="10"/>
     </row>
-    <row r="264" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:12" ht="14.45" x14ac:dyDescent="0.2">
       <c r="A264" s="22">
         <v>263</v>
       </c>
@@ -11407,7 +11411,7 @@
       </c>
       <c r="L264" s="10"/>
     </row>
-    <row r="265" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:12" ht="14.45" x14ac:dyDescent="0.2">
       <c r="A265" s="22">
         <v>264</v>
       </c>
@@ -11434,7 +11438,7 @@
       </c>
       <c r="L265" s="10"/>
     </row>
-    <row r="266" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:12" ht="14.45" x14ac:dyDescent="0.2">
       <c r="A266" s="22">
         <v>265</v>
       </c>
@@ -11461,7 +11465,7 @@
       </c>
       <c r="L266" s="10"/>
     </row>
-    <row r="267" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:12" ht="14.45" x14ac:dyDescent="0.2">
       <c r="A267" s="22">
         <v>266</v>
       </c>
@@ -11488,7 +11492,7 @@
       </c>
       <c r="L267" s="10"/>
     </row>
-    <row r="268" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:12" ht="14.45" x14ac:dyDescent="0.2">
       <c r="A268" s="22">
         <v>267</v>
       </c>
@@ -11515,7 +11519,7 @@
       </c>
       <c r="L268" s="10"/>
     </row>
-    <row r="269" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:12" ht="14.45" x14ac:dyDescent="0.2">
       <c r="A269" s="22">
         <v>268</v>
       </c>
@@ -11542,7 +11546,7 @@
       </c>
       <c r="L269" s="10"/>
     </row>
-    <row r="270" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:12" ht="14.45" x14ac:dyDescent="0.2">
       <c r="A270" s="22">
         <v>269</v>
       </c>
@@ -11569,7 +11573,7 @@
       </c>
       <c r="L270" s="10"/>
     </row>
-    <row r="271" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:12" ht="14.45" x14ac:dyDescent="0.2">
       <c r="A271" s="22">
         <v>270</v>
       </c>
@@ -11596,7 +11600,7 @@
       </c>
       <c r="L271" s="10"/>
     </row>
-    <row r="272" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:12" ht="14.45" x14ac:dyDescent="0.2">
       <c r="A272" s="22">
         <v>271</v>
       </c>
@@ -11623,7 +11627,7 @@
       </c>
       <c r="L272" s="10"/>
     </row>
-    <row r="273" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:24" ht="14.45" x14ac:dyDescent="0.2">
       <c r="A273" s="22">
         <v>272</v>
       </c>
@@ -11650,7 +11654,7 @@
       </c>
       <c r="L273" s="10"/>
     </row>
-    <row r="274" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:24" ht="14.45" x14ac:dyDescent="0.2">
       <c r="A274" s="22">
         <v>273</v>
       </c>
@@ -11677,7 +11681,7 @@
       </c>
       <c r="L274" s="10"/>
     </row>
-    <row r="275" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:24" ht="14.45" x14ac:dyDescent="0.2">
       <c r="A275" s="22">
         <v>274</v>
       </c>
@@ -11704,7 +11708,7 @@
       </c>
       <c r="L275" s="10"/>
     </row>
-    <row r="276" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:24" ht="14.45" x14ac:dyDescent="0.2">
       <c r="A276" s="22">
         <v>275</v>
       </c>
@@ -11731,7 +11735,7 @@
       </c>
       <c r="K276" s="10"/>
     </row>
-    <row r="277" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:24" ht="14.45" x14ac:dyDescent="0.2">
       <c r="A277" s="22">
         <v>276</v>
       </c>
@@ -11758,7 +11762,7 @@
       </c>
       <c r="K277" s="10"/>
     </row>
-    <row r="278" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:24" ht="14.45" x14ac:dyDescent="0.2">
       <c r="A278" s="22">
         <v>277</v>
       </c>
@@ -11791,7 +11795,7 @@
       </c>
       <c r="K278" s="10"/>
     </row>
-    <row r="279" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:24" ht="14.45" x14ac:dyDescent="0.2">
       <c r="A279" s="22">
         <v>278</v>
       </c>
@@ -11826,7 +11830,7 @@
       <c r="W279" s="10"/>
       <c r="X279" s="18"/>
     </row>
-    <row r="280" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:24" ht="14.45" x14ac:dyDescent="0.2">
       <c r="A280" s="22">
         <v>279</v>
       </c>
@@ -11855,7 +11859,7 @@
       <c r="W280" s="10"/>
       <c r="X280" s="18"/>
     </row>
-    <row r="281" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:24" ht="14.45" x14ac:dyDescent="0.2">
       <c r="A281" s="22">
         <v>280</v>
       </c>
@@ -11884,7 +11888,7 @@
       <c r="W281" s="10"/>
       <c r="X281" s="18"/>
     </row>
-    <row r="282" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:24" ht="14.45" x14ac:dyDescent="0.2">
       <c r="A282" s="22">
         <v>281</v>
       </c>
@@ -11913,7 +11917,7 @@
       <c r="W282" s="10"/>
       <c r="X282" s="18"/>
     </row>
-    <row r="283" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:24" ht="14.45" x14ac:dyDescent="0.2">
       <c r="A283" s="22">
         <v>282</v>
       </c>
@@ -11948,7 +11952,7 @@
       <c r="W283" s="10"/>
       <c r="X283" s="18"/>
     </row>
-    <row r="284" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:24" ht="14.45" x14ac:dyDescent="0.2">
       <c r="A284" s="22">
         <v>283</v>
       </c>
@@ -11977,7 +11981,7 @@
       <c r="W284" s="10"/>
       <c r="X284" s="10"/>
     </row>
-    <row r="285" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:24" ht="14.45" x14ac:dyDescent="0.2">
       <c r="A285" s="22">
         <v>284</v>
       </c>
@@ -12006,7 +12010,7 @@
       <c r="W285" s="10"/>
       <c r="X285" s="10"/>
     </row>
-    <row r="286" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:24" ht="14.45" x14ac:dyDescent="0.2">
       <c r="A286" s="22">
         <v>285</v>
       </c>
@@ -12035,7 +12039,7 @@
       <c r="W286" s="10"/>
       <c r="X286" s="10"/>
     </row>
-    <row r="287" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:24" ht="14.45" x14ac:dyDescent="0.2">
       <c r="A287" s="22">
         <v>286</v>
       </c>
@@ -12070,7 +12074,7 @@
       <c r="W287" s="10"/>
       <c r="X287" s="10"/>
     </row>
-    <row r="288" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:24" ht="14.45" x14ac:dyDescent="0.2">
       <c r="A288" s="22">
         <v>287</v>
       </c>
@@ -12105,7 +12109,7 @@
       <c r="W288" s="10"/>
       <c r="X288" s="10"/>
     </row>
-    <row r="289" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:24" ht="14.45" x14ac:dyDescent="0.2">
       <c r="A289" s="22">
         <v>288</v>
       </c>
@@ -12135,7 +12139,7 @@
       <c r="W289" s="10"/>
       <c r="X289" s="10"/>
     </row>
-    <row r="290" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:24" ht="14.45" x14ac:dyDescent="0.2">
       <c r="A290" s="22">
         <v>289</v>
       </c>
@@ -12165,7 +12169,7 @@
       <c r="W290" s="10"/>
       <c r="X290" s="10"/>
     </row>
-    <row r="291" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="291" spans="1:24" ht="14.45" x14ac:dyDescent="0.2">
       <c r="A291" s="22">
         <v>290</v>
       </c>
@@ -12195,7 +12199,7 @@
       <c r="W291" s="10"/>
       <c r="X291" s="10"/>
     </row>
-    <row r="292" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:24" ht="14.45" x14ac:dyDescent="0.2">
       <c r="A292" s="22">
         <v>291</v>
       </c>
@@ -12223,7 +12227,7 @@
       <c r="K292" s="10"/>
       <c r="L292" s="10"/>
     </row>
-    <row r="293" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:24" ht="14.45" x14ac:dyDescent="0.2">
       <c r="A293" s="22">
         <v>292</v>
       </c>
@@ -12251,7 +12255,7 @@
       <c r="K293" s="10"/>
       <c r="L293" s="10"/>
     </row>
-    <row r="294" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:24" ht="14.45" x14ac:dyDescent="0.2">
       <c r="A294" s="22">
         <v>293</v>
       </c>
@@ -12279,7 +12283,7 @@
       <c r="K294" s="10"/>
       <c r="L294" s="10"/>
     </row>
-    <row r="295" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="295" spans="1:24" ht="14.45" x14ac:dyDescent="0.2">
       <c r="A295" s="22">
         <v>294</v>
       </c>
@@ -12307,7 +12311,7 @@
       <c r="K295" s="10"/>
       <c r="L295" s="10"/>
     </row>
-    <row r="296" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:24" ht="14.45" x14ac:dyDescent="0.2">
       <c r="A296" s="22">
         <v>295</v>
       </c>
@@ -12335,7 +12339,7 @@
       <c r="K296" s="10"/>
       <c r="L296" s="10"/>
     </row>
-    <row r="297" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:24" ht="14.45" x14ac:dyDescent="0.2">
       <c r="A297" s="22">
         <v>296</v>
       </c>
@@ -12363,7 +12367,7 @@
       <c r="K297" s="10"/>
       <c r="L297" s="10"/>
     </row>
-    <row r="298" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:24" ht="14.45" x14ac:dyDescent="0.2">
       <c r="A298" s="22">
         <v>297</v>
       </c>
@@ -12391,7 +12395,7 @@
       <c r="K298" s="10"/>
       <c r="L298" s="10"/>
     </row>
-    <row r="299" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="299" spans="1:24" ht="14.45" x14ac:dyDescent="0.2">
       <c r="A299" s="22">
         <v>298</v>
       </c>
@@ -12419,7 +12423,7 @@
       <c r="K299" s="10"/>
       <c r="L299" s="10"/>
     </row>
-    <row r="300" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:24" ht="14.45" x14ac:dyDescent="0.2">
       <c r="A300" s="22">
         <v>299</v>
       </c>
@@ -12447,7 +12451,7 @@
       <c r="K300" s="10"/>
       <c r="L300" s="10"/>
     </row>
-    <row r="301" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="301" spans="1:24" ht="14.45" x14ac:dyDescent="0.2">
       <c r="A301" s="22">
         <v>300</v>
       </c>
@@ -12475,7 +12479,7 @@
       <c r="K301" s="10"/>
       <c r="L301" s="10"/>
     </row>
-    <row r="302" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="302" spans="1:24" ht="14.45" x14ac:dyDescent="0.2">
       <c r="A302" s="22">
         <v>301</v>
       </c>
@@ -12503,7 +12507,7 @@
       <c r="K302" s="10"/>
       <c r="L302" s="10"/>
     </row>
-    <row r="303" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="303" spans="1:24" ht="14.45" x14ac:dyDescent="0.2">
       <c r="A303" s="22">
         <v>302</v>
       </c>
@@ -12531,7 +12535,7 @@
       <c r="K303" s="10"/>
       <c r="L303" s="10"/>
     </row>
-    <row r="304" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="304" spans="1:24" ht="14.45" x14ac:dyDescent="0.2">
       <c r="A304" s="22">
         <v>303</v>
       </c>
@@ -12559,7 +12563,7 @@
       <c r="K304" s="10"/>
       <c r="L304" s="10"/>
     </row>
-    <row r="305" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="305" spans="1:12" ht="14.45" x14ac:dyDescent="0.2">
       <c r="A305" s="22">
         <v>304</v>
       </c>
@@ -12587,7 +12591,7 @@
       <c r="K305" s="10"/>
       <c r="L305" s="10"/>
     </row>
-    <row r="306" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="306" spans="1:12" ht="14.45" x14ac:dyDescent="0.2">
       <c r="A306" s="22">
         <v>305</v>
       </c>
@@ -12615,7 +12619,7 @@
       <c r="K306" s="10"/>
       <c r="L306" s="10"/>
     </row>
-    <row r="307" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="307" spans="1:12" ht="14.45" x14ac:dyDescent="0.2">
       <c r="A307" s="22">
         <v>306</v>
       </c>
@@ -12643,7 +12647,7 @@
       <c r="K307" s="10"/>
       <c r="L307" s="10"/>
     </row>
-    <row r="308" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="308" spans="1:12" ht="14.45" x14ac:dyDescent="0.2">
       <c r="A308" s="22">
         <v>307</v>
       </c>
@@ -12671,7 +12675,7 @@
       <c r="K308" s="10"/>
       <c r="L308" s="10"/>
     </row>
-    <row r="309" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="309" spans="1:12" ht="14.45" x14ac:dyDescent="0.2">
       <c r="A309" s="22">
         <v>308</v>
       </c>
@@ -12699,7 +12703,7 @@
       <c r="K309" s="10"/>
       <c r="L309" s="10"/>
     </row>
-    <row r="310" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="310" spans="1:12" ht="14.45" x14ac:dyDescent="0.2">
       <c r="A310" s="22">
         <v>309</v>
       </c>
@@ -12727,7 +12731,7 @@
       <c r="K310" s="10"/>
       <c r="L310" s="10"/>
     </row>
-    <row r="311" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="311" spans="1:12" ht="14.45" x14ac:dyDescent="0.2">
       <c r="A311" s="22">
         <v>310</v>
       </c>
@@ -12755,7 +12759,7 @@
       <c r="K311" s="10"/>
       <c r="L311" s="10"/>
     </row>
-    <row r="312" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="312" spans="1:12" ht="14.45" x14ac:dyDescent="0.2">
       <c r="A312" s="22">
         <v>311</v>
       </c>
@@ -12783,7 +12787,7 @@
       <c r="K312" s="10"/>
       <c r="L312" s="10"/>
     </row>
-    <row r="313" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="313" spans="1:12" ht="14.45" x14ac:dyDescent="0.2">
       <c r="A313" s="22">
         <v>312</v>
       </c>
@@ -12811,7 +12815,7 @@
       <c r="K313" s="10"/>
       <c r="L313" s="10"/>
     </row>
-    <row r="314" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="314" spans="1:12" ht="14.45" x14ac:dyDescent="0.2">
       <c r="A314" s="22">
         <v>313</v>
       </c>
@@ -12839,7 +12843,7 @@
       <c r="K314" s="10"/>
       <c r="L314" s="10"/>
     </row>
-    <row r="315" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="315" spans="1:12" ht="14.45" x14ac:dyDescent="0.2">
       <c r="A315" s="22">
         <v>314</v>
       </c>
@@ -12867,7 +12871,7 @@
       <c r="K315" s="10"/>
       <c r="L315" s="10"/>
     </row>
-    <row r="316" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="316" spans="1:12" ht="14.45" x14ac:dyDescent="0.2">
       <c r="A316" s="22">
         <v>315</v>
       </c>
@@ -12895,7 +12899,7 @@
       <c r="K316" s="10"/>
       <c r="L316" s="10"/>
     </row>
-    <row r="317" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="317" spans="1:12" ht="14.45" x14ac:dyDescent="0.2">
       <c r="A317" s="22">
         <v>316</v>
       </c>
@@ -12923,7 +12927,7 @@
       <c r="K317" s="10"/>
       <c r="L317" s="10"/>
     </row>
-    <row r="318" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="318" spans="1:12" ht="14.45" x14ac:dyDescent="0.2">
       <c r="A318" s="22">
         <v>317</v>
       </c>
@@ -12951,7 +12955,7 @@
       <c r="K318" s="10"/>
       <c r="L318" s="10"/>
     </row>
-    <row r="319" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="319" spans="1:12" ht="14.45" x14ac:dyDescent="0.2">
       <c r="A319" s="22">
         <v>318</v>
       </c>
@@ -12984,7 +12988,7 @@
       </c>
       <c r="K319" s="10"/>
     </row>
-    <row r="320" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="320" spans="1:12" ht="14.45" x14ac:dyDescent="0.2">
       <c r="A320" s="22">
         <v>319</v>
       </c>
@@ -13011,7 +13015,7 @@
       </c>
       <c r="K320" s="10"/>
     </row>
-    <row r="321" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="321" spans="1:24" ht="14.45" x14ac:dyDescent="0.2">
       <c r="A321" s="22">
         <v>320</v>
       </c>
@@ -13044,7 +13048,7 @@
       </c>
       <c r="K321" s="10"/>
     </row>
-    <row r="322" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="322" spans="1:24" ht="14.45" x14ac:dyDescent="0.2">
       <c r="A322" s="22">
         <v>321</v>
       </c>
@@ -13073,7 +13077,7 @@
       <c r="W322" s="10"/>
       <c r="X322" s="18"/>
     </row>
-    <row r="323" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="323" spans="1:24" ht="14.45" x14ac:dyDescent="0.2">
       <c r="A323" s="22">
         <v>322</v>
       </c>
@@ -13102,7 +13106,7 @@
       <c r="W323" s="10"/>
       <c r="X323" s="18"/>
     </row>
-    <row r="324" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="324" spans="1:24" ht="14.45" x14ac:dyDescent="0.2">
       <c r="A324" s="22">
         <v>323</v>
       </c>
@@ -13131,7 +13135,7 @@
       <c r="W324" s="10"/>
       <c r="X324" s="18"/>
     </row>
-    <row r="325" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="325" spans="1:24" ht="14.45" x14ac:dyDescent="0.2">
       <c r="A325" s="22">
         <v>324</v>
       </c>
@@ -13160,7 +13164,7 @@
       <c r="W325" s="10"/>
       <c r="X325" s="18"/>
     </row>
-    <row r="326" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="326" spans="1:24" ht="14.45" x14ac:dyDescent="0.2">
       <c r="A326" s="22">
         <v>325</v>
       </c>
@@ -13195,7 +13199,7 @@
       <c r="W326" s="10"/>
       <c r="X326" s="18"/>
     </row>
-    <row r="327" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="327" spans="1:24" ht="14.45" x14ac:dyDescent="0.2">
       <c r="A327" s="22">
         <v>326</v>
       </c>
@@ -13224,7 +13228,7 @@
       <c r="W327" s="10"/>
       <c r="X327" s="10"/>
     </row>
-    <row r="328" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="328" spans="1:24" ht="14.45" x14ac:dyDescent="0.2">
       <c r="A328" s="22">
         <v>327</v>
       </c>
@@ -13253,7 +13257,7 @@
       <c r="W328" s="10"/>
       <c r="X328" s="10"/>
     </row>
-    <row r="329" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="329" spans="1:24" ht="14.45" x14ac:dyDescent="0.2">
       <c r="A329" s="22">
         <v>328</v>
       </c>
@@ -13282,7 +13286,7 @@
       <c r="W329" s="10"/>
       <c r="X329" s="10"/>
     </row>
-    <row r="330" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="330" spans="1:24" ht="14.45" x14ac:dyDescent="0.2">
       <c r="A330" s="22">
         <v>329</v>
       </c>
@@ -13311,7 +13315,7 @@
       <c r="W330" s="10"/>
       <c r="X330" s="10"/>
     </row>
-    <row r="331" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="331" spans="1:24" ht="14.45" x14ac:dyDescent="0.2">
       <c r="A331" s="22">
         <v>330</v>
       </c>
@@ -13346,7 +13350,7 @@
       <c r="W331" s="10"/>
       <c r="X331" s="10"/>
     </row>
-    <row r="332" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="332" spans="1:24" ht="14.45" x14ac:dyDescent="0.2">
       <c r="A332" s="22">
         <v>331</v>
       </c>
@@ -13375,7 +13379,7 @@
       <c r="W332" s="10"/>
       <c r="X332" s="10"/>
     </row>
-    <row r="333" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="333" spans="1:24" ht="14.45" x14ac:dyDescent="0.2">
       <c r="A333" s="22">
         <v>332</v>
       </c>
@@ -13407,7 +13411,7 @@
       <c r="W333" s="10"/>
       <c r="X333" s="10"/>
     </row>
-    <row r="334" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="334" spans="1:24" ht="14.45" x14ac:dyDescent="0.2">
       <c r="A334" s="22">
         <v>333</v>
       </c>
@@ -13436,7 +13440,7 @@
       <c r="W334" s="10"/>
       <c r="X334" s="10"/>
     </row>
-    <row r="335" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="335" spans="1:24" ht="14.45" x14ac:dyDescent="0.2">
       <c r="A335" s="22">
         <v>334</v>
       </c>
@@ -13463,7 +13467,7 @@
       </c>
       <c r="L335" s="10"/>
     </row>
-    <row r="336" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="336" spans="1:24" ht="14.45" x14ac:dyDescent="0.2">
       <c r="A336" s="22">
         <v>335</v>
       </c>
@@ -13490,7 +13494,7 @@
       </c>
       <c r="L336" s="10"/>
     </row>
-    <row r="337" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="337" spans="1:12" ht="14.45" x14ac:dyDescent="0.2">
       <c r="A337" s="22">
         <v>336</v>
       </c>
@@ -13517,7 +13521,7 @@
       </c>
       <c r="L337" s="10"/>
     </row>
-    <row r="338" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="338" spans="1:12" ht="14.45" x14ac:dyDescent="0.2">
       <c r="A338" s="22">
         <v>337</v>
       </c>
@@ -13544,7 +13548,7 @@
       </c>
       <c r="L338" s="10"/>
     </row>
-    <row r="339" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="339" spans="1:12" ht="14.45" x14ac:dyDescent="0.2">
       <c r="A339" s="22">
         <v>338</v>
       </c>
@@ -13571,7 +13575,7 @@
       </c>
       <c r="L339" s="10"/>
     </row>
-    <row r="340" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="340" spans="1:12" ht="14.45" x14ac:dyDescent="0.2">
       <c r="A340" s="22">
         <v>339</v>
       </c>
@@ -13598,7 +13602,7 @@
       </c>
       <c r="L340" s="10"/>
     </row>
-    <row r="341" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="341" spans="1:12" ht="14.45" x14ac:dyDescent="0.2">
       <c r="A341" s="22">
         <v>340</v>
       </c>
@@ -13625,7 +13629,7 @@
       </c>
       <c r="L341" s="10"/>
     </row>
-    <row r="342" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="342" spans="1:12" ht="14.45" x14ac:dyDescent="0.2">
       <c r="A342" s="22">
         <v>341</v>
       </c>
@@ -13658,7 +13662,7 @@
       </c>
       <c r="L342" s="10"/>
     </row>
-    <row r="343" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="343" spans="1:12" ht="14.45" x14ac:dyDescent="0.2">
       <c r="A343" s="22">
         <v>342</v>
       </c>
@@ -13685,7 +13689,7 @@
       </c>
       <c r="L343" s="10"/>
     </row>
-    <row r="344" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="344" spans="1:12" ht="14.45" x14ac:dyDescent="0.2">
       <c r="A344" s="22">
         <v>343</v>
       </c>
@@ -13712,7 +13716,7 @@
       </c>
       <c r="L344" s="10"/>
     </row>
-    <row r="345" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="345" spans="1:12" ht="14.45" x14ac:dyDescent="0.2">
       <c r="A345" s="22">
         <v>344</v>
       </c>
@@ -13739,7 +13743,7 @@
       </c>
       <c r="L345" s="10"/>
     </row>
-    <row r="346" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="346" spans="1:12" ht="14.45" x14ac:dyDescent="0.2">
       <c r="A346" s="22">
         <v>345</v>
       </c>
@@ -13766,7 +13770,7 @@
       </c>
       <c r="L346" s="10"/>
     </row>
-    <row r="347" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="347" spans="1:12" ht="14.45" x14ac:dyDescent="0.2">
       <c r="A347" s="22">
         <v>346</v>
       </c>
@@ -13793,7 +13797,7 @@
       </c>
       <c r="L347" s="10"/>
     </row>
-    <row r="348" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="348" spans="1:12" ht="14.45" x14ac:dyDescent="0.2">
       <c r="A348" s="22">
         <v>347</v>
       </c>
@@ -13820,7 +13824,7 @@
       </c>
       <c r="L348" s="10"/>
     </row>
-    <row r="349" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="349" spans="1:12" ht="14.45" x14ac:dyDescent="0.2">
       <c r="A349" s="22">
         <v>348</v>
       </c>
@@ -13847,7 +13851,7 @@
       </c>
       <c r="L349" s="10"/>
     </row>
-    <row r="350" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="350" spans="1:12" ht="14.45" x14ac:dyDescent="0.2">
       <c r="A350" s="22">
         <v>349</v>
       </c>
@@ -13874,7 +13878,7 @@
       </c>
       <c r="L350" s="10"/>
     </row>
-    <row r="351" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="351" spans="1:12" ht="14.45" x14ac:dyDescent="0.2">
       <c r="A351" s="22">
         <v>350</v>
       </c>
@@ -13901,7 +13905,7 @@
       </c>
       <c r="L351" s="10"/>
     </row>
-    <row r="352" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="352" spans="1:12" ht="14.45" x14ac:dyDescent="0.2">
       <c r="A352" s="22">
         <v>351</v>
       </c>
@@ -13928,7 +13932,7 @@
       </c>
       <c r="L352" s="10"/>
     </row>
-    <row r="353" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="353" spans="1:24" ht="14.45" x14ac:dyDescent="0.2">
       <c r="A353" s="22">
         <v>352</v>
       </c>
@@ -13955,7 +13959,7 @@
       </c>
       <c r="L353" s="10"/>
     </row>
-    <row r="354" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="354" spans="1:24" ht="14.45" x14ac:dyDescent="0.2">
       <c r="A354" s="22">
         <v>353</v>
       </c>
@@ -13982,7 +13986,7 @@
       </c>
       <c r="L354" s="10"/>
     </row>
-    <row r="355" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="355" spans="1:24" ht="14.45" x14ac:dyDescent="0.2">
       <c r="A355" s="22">
         <v>354</v>
       </c>
@@ -14009,7 +14013,7 @@
       </c>
       <c r="L355" s="10"/>
     </row>
-    <row r="356" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="356" spans="1:24" ht="14.45" x14ac:dyDescent="0.2">
       <c r="A356" s="22">
         <v>355</v>
       </c>
@@ -14036,7 +14040,7 @@
       </c>
       <c r="L356" s="10"/>
     </row>
-    <row r="357" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="357" spans="1:24" ht="14.45" x14ac:dyDescent="0.2">
       <c r="A357" s="22">
         <v>356</v>
       </c>
@@ -14063,7 +14067,7 @@
       </c>
       <c r="L357" s="10"/>
     </row>
-    <row r="358" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="358" spans="1:24" ht="14.45" x14ac:dyDescent="0.2">
       <c r="A358" s="22">
         <v>357</v>
       </c>
@@ -14096,7 +14100,7 @@
       </c>
       <c r="L358" s="10"/>
     </row>
-    <row r="359" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="359" spans="1:24" ht="14.45" x14ac:dyDescent="0.2">
       <c r="A359" s="22">
         <v>358</v>
       </c>
@@ -14123,7 +14127,7 @@
       </c>
       <c r="L359" s="10"/>
     </row>
-    <row r="360" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="360" spans="1:24" ht="14.45" x14ac:dyDescent="0.2">
       <c r="A360" s="22">
         <v>359</v>
       </c>
@@ -14150,7 +14154,7 @@
       </c>
       <c r="L360" s="10"/>
     </row>
-    <row r="361" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="361" spans="1:24" ht="14.45" x14ac:dyDescent="0.2">
       <c r="A361" s="22">
         <v>360</v>
       </c>
@@ -14177,7 +14181,7 @@
       </c>
       <c r="L361" s="10"/>
     </row>
-    <row r="362" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="362" spans="1:24" ht="14.45" x14ac:dyDescent="0.2">
       <c r="A362" s="22">
         <v>361</v>
       </c>
@@ -14204,7 +14208,7 @@
       </c>
       <c r="K362" s="10"/>
     </row>
-    <row r="363" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="363" spans="1:24" ht="14.45" x14ac:dyDescent="0.2">
       <c r="A363" s="22">
         <v>362</v>
       </c>
@@ -14237,7 +14241,7 @@
       </c>
       <c r="K363" s="10"/>
     </row>
-    <row r="364" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="364" spans="1:24" ht="14.45" x14ac:dyDescent="0.2">
       <c r="A364" s="22">
         <v>363</v>
       </c>
@@ -14270,7 +14274,7 @@
       </c>
       <c r="K364" s="10"/>
     </row>
-    <row r="365" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="365" spans="1:24" ht="14.45" x14ac:dyDescent="0.2">
       <c r="A365" s="22">
         <v>364</v>
       </c>
@@ -14299,7 +14303,7 @@
       <c r="W365" s="10"/>
       <c r="X365" s="18"/>
     </row>
-    <row r="366" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="366" spans="1:24" ht="14.45" x14ac:dyDescent="0.2">
       <c r="A366" s="22">
         <v>365</v>
       </c>
@@ -14328,7 +14332,7 @@
       <c r="W366" s="10"/>
       <c r="X366" s="18"/>
     </row>
-    <row r="367" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="367" spans="1:24" ht="14.45" x14ac:dyDescent="0.2">
       <c r="A367" s="22">
         <v>366</v>
       </c>
@@ -14357,7 +14361,7 @@
       <c r="W367" s="10"/>
       <c r="X367" s="18"/>
     </row>
-    <row r="368" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="368" spans="1:24" ht="14.45" x14ac:dyDescent="0.2">
       <c r="A368" s="22">
         <v>367</v>
       </c>
@@ -14392,7 +14396,7 @@
       <c r="W368" s="10"/>
       <c r="X368" s="18"/>
     </row>
-    <row r="369" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="369" spans="1:24" ht="14.45" x14ac:dyDescent="0.2">
       <c r="A369" s="22">
         <v>368</v>
       </c>
@@ -14427,7 +14431,7 @@
       <c r="W369" s="10"/>
       <c r="X369" s="18"/>
     </row>
-    <row r="370" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="370" spans="1:24" ht="14.45" x14ac:dyDescent="0.2">
       <c r="A370" s="22">
         <v>369</v>
       </c>
@@ -14456,7 +14460,7 @@
       <c r="W370" s="10"/>
       <c r="X370" s="10"/>
     </row>
-    <row r="371" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="371" spans="1:24" ht="14.45" x14ac:dyDescent="0.2">
       <c r="A371" s="22">
         <v>370</v>
       </c>
@@ -14491,7 +14495,7 @@
       <c r="W371" s="10"/>
       <c r="X371" s="10"/>
     </row>
-    <row r="372" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="372" spans="1:24" ht="14.45" x14ac:dyDescent="0.2">
       <c r="A372" s="22">
         <v>371</v>
       </c>
@@ -14526,7 +14530,7 @@
       <c r="W372" s="10"/>
       <c r="X372" s="10"/>
     </row>
-    <row r="373" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="373" spans="1:24" ht="14.45" x14ac:dyDescent="0.2">
       <c r="A373" s="22">
         <v>372</v>
       </c>
@@ -14561,7 +14565,7 @@
       <c r="W373" s="10"/>
       <c r="X373" s="10"/>
     </row>
-    <row r="374" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="374" spans="1:24" ht="14.45" x14ac:dyDescent="0.2">
       <c r="A374" s="22">
         <v>373</v>
       </c>
@@ -14598,7 +14602,7 @@
       <c r="W374" s="10"/>
       <c r="X374" s="10"/>
     </row>
-    <row r="375" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="375" spans="1:24" ht="14.45" x14ac:dyDescent="0.2">
       <c r="A375" s="22">
         <v>374</v>
       </c>
@@ -14627,7 +14631,7 @@
       <c r="W375" s="10"/>
       <c r="X375" s="10"/>
     </row>
-    <row r="376" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="376" spans="1:24" ht="14.45" x14ac:dyDescent="0.2">
       <c r="A376" s="22">
         <v>375</v>
       </c>
@@ -14656,7 +14660,7 @@
       <c r="W376" s="10"/>
       <c r="X376" s="10"/>
     </row>
-    <row r="377" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="377" spans="1:24" ht="14.45" x14ac:dyDescent="0.2">
       <c r="A377" s="22">
         <v>376</v>
       </c>
@@ -14685,7 +14689,7 @@
       <c r="W377" s="10"/>
       <c r="X377" s="10"/>
     </row>
-    <row r="378" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="378" spans="1:24" ht="14.45" x14ac:dyDescent="0.2">
       <c r="A378" s="22">
         <v>377</v>
       </c>
@@ -14712,7 +14716,7 @@
       </c>
       <c r="L378" s="10"/>
     </row>
-    <row r="379" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="379" spans="1:24" ht="14.45" x14ac:dyDescent="0.2">
       <c r="A379" s="22">
         <v>378</v>
       </c>
@@ -14739,7 +14743,7 @@
       </c>
       <c r="L379" s="10"/>
     </row>
-    <row r="380" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="380" spans="1:24" ht="14.45" x14ac:dyDescent="0.2">
       <c r="A380" s="22">
         <v>379</v>
       </c>
@@ -14766,7 +14770,7 @@
       </c>
       <c r="L380" s="10"/>
     </row>
-    <row r="381" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="381" spans="1:24" ht="14.45" x14ac:dyDescent="0.2">
       <c r="A381" s="22">
         <v>380</v>
       </c>
@@ -14793,7 +14797,7 @@
       </c>
       <c r="L381" s="10"/>
     </row>
-    <row r="382" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="382" spans="1:24" ht="14.45" x14ac:dyDescent="0.2">
       <c r="A382" s="22">
         <v>381</v>
       </c>
@@ -14820,7 +14824,7 @@
       </c>
       <c r="L382" s="10"/>
     </row>
-    <row r="383" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="383" spans="1:24" ht="14.45" x14ac:dyDescent="0.2">
       <c r="A383" s="22">
         <v>382</v>
       </c>
@@ -14847,7 +14851,7 @@
       </c>
       <c r="L383" s="10"/>
     </row>
-    <row r="384" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="384" spans="1:24" ht="14.45" x14ac:dyDescent="0.2">
       <c r="A384" s="22">
         <v>383</v>
       </c>
@@ -14874,7 +14878,7 @@
       </c>
       <c r="L384" s="10"/>
     </row>
-    <row r="385" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="385" spans="1:12" ht="14.45" x14ac:dyDescent="0.2">
       <c r="A385" s="22">
         <v>384</v>
       </c>
@@ -14907,7 +14911,7 @@
       </c>
       <c r="L385" s="10"/>
     </row>
-    <row r="386" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="386" spans="1:12" ht="14.45" x14ac:dyDescent="0.2">
       <c r="A386" s="22">
         <v>385</v>
       </c>
@@ -14934,7 +14938,7 @@
       </c>
       <c r="L386" s="10"/>
     </row>
-    <row r="387" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="387" spans="1:12" ht="14.45" x14ac:dyDescent="0.2">
       <c r="A387" s="22">
         <v>386</v>
       </c>
@@ -14961,7 +14965,7 @@
       </c>
       <c r="L387" s="10"/>
     </row>
-    <row r="388" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="388" spans="1:12" ht="14.45" x14ac:dyDescent="0.2">
       <c r="A388" s="22">
         <v>387</v>
       </c>
@@ -14988,7 +14992,7 @@
       </c>
       <c r="L388" s="10"/>
     </row>
-    <row r="389" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="389" spans="1:12" ht="14.45" x14ac:dyDescent="0.2">
       <c r="A389" s="22">
         <v>388</v>
       </c>
@@ -15015,7 +15019,7 @@
       </c>
       <c r="L389" s="10"/>
     </row>
-    <row r="390" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="390" spans="1:12" ht="14.45" x14ac:dyDescent="0.2">
       <c r="A390" s="22">
         <v>389</v>
       </c>
@@ -15042,7 +15046,7 @@
       </c>
       <c r="L390" s="10"/>
     </row>
-    <row r="391" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="391" spans="1:12" ht="14.45" x14ac:dyDescent="0.2">
       <c r="A391" s="22">
         <v>390</v>
       </c>
@@ -15069,7 +15073,7 @@
       </c>
       <c r="L391" s="10"/>
     </row>
-    <row r="392" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="392" spans="1:12" ht="14.45" x14ac:dyDescent="0.2">
       <c r="A392" s="22">
         <v>391</v>
       </c>
@@ -15096,7 +15100,7 @@
       </c>
       <c r="L392" s="10"/>
     </row>
-    <row r="393" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="393" spans="1:12" ht="14.45" x14ac:dyDescent="0.2">
       <c r="A393" s="22">
         <v>392</v>
       </c>
@@ -15123,7 +15127,7 @@
       </c>
       <c r="L393" s="10"/>
     </row>
-    <row r="394" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="394" spans="1:12" ht="14.45" x14ac:dyDescent="0.2">
       <c r="A394" s="22">
         <v>393</v>
       </c>
@@ -15150,7 +15154,7 @@
       </c>
       <c r="L394" s="10"/>
     </row>
-    <row r="395" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="395" spans="1:12" ht="14.45" x14ac:dyDescent="0.2">
       <c r="A395" s="22">
         <v>394</v>
       </c>
@@ -15177,7 +15181,7 @@
       </c>
       <c r="L395" s="10"/>
     </row>
-    <row r="396" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="396" spans="1:12" ht="14.45" x14ac:dyDescent="0.2">
       <c r="A396" s="22">
         <v>395</v>
       </c>
@@ -15204,7 +15208,7 @@
       </c>
       <c r="L396" s="10"/>
     </row>
-    <row r="397" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="397" spans="1:12" ht="14.45" x14ac:dyDescent="0.2">
       <c r="A397" s="22">
         <v>396</v>
       </c>
@@ -15231,7 +15235,7 @@
       </c>
       <c r="L397" s="10"/>
     </row>
-    <row r="398" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="398" spans="1:12" ht="14.45" x14ac:dyDescent="0.2">
       <c r="A398" s="22">
         <v>397</v>
       </c>
@@ -15258,7 +15262,7 @@
       </c>
       <c r="L398" s="10"/>
     </row>
-    <row r="399" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="399" spans="1:12" ht="14.45" x14ac:dyDescent="0.2">
       <c r="A399" s="22">
         <v>398</v>
       </c>
@@ -15285,7 +15289,7 @@
       </c>
       <c r="L399" s="10"/>
     </row>
-    <row r="400" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="400" spans="1:12" ht="14.45" x14ac:dyDescent="0.2">
       <c r="A400" s="22">
         <v>399</v>
       </c>
@@ -15312,7 +15316,7 @@
       </c>
       <c r="L400" s="10"/>
     </row>
-    <row r="401" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="401" spans="1:24" ht="14.45" x14ac:dyDescent="0.2">
       <c r="A401" s="22">
         <v>400</v>
       </c>
@@ -15339,7 +15343,7 @@
       </c>
       <c r="L401" s="10"/>
     </row>
-    <row r="402" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="402" spans="1:24" ht="14.45" x14ac:dyDescent="0.2">
       <c r="A402" s="22">
         <v>401</v>
       </c>
@@ -15366,7 +15370,7 @@
       </c>
       <c r="L402" s="10"/>
     </row>
-    <row r="403" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="403" spans="1:24" ht="14.45" x14ac:dyDescent="0.2">
       <c r="A403" s="22">
         <v>402</v>
       </c>
@@ -15393,7 +15397,7 @@
       </c>
       <c r="L403" s="10"/>
     </row>
-    <row r="404" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="404" spans="1:24" ht="14.45" x14ac:dyDescent="0.2">
       <c r="A404" s="22">
         <v>403</v>
       </c>
@@ -15420,7 +15424,7 @@
       </c>
       <c r="L404" s="10"/>
     </row>
-    <row r="405" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="405" spans="1:24" ht="14.45" x14ac:dyDescent="0.2">
       <c r="A405" s="22">
         <v>404</v>
       </c>
@@ -15448,7 +15452,7 @@
       <c r="K405" s="10"/>
       <c r="L405" s="10"/>
     </row>
-    <row r="406" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="406" spans="1:24" ht="14.45" x14ac:dyDescent="0.2">
       <c r="A406" s="22">
         <v>405</v>
       </c>
@@ -15476,7 +15480,7 @@
       <c r="K406" s="10"/>
       <c r="L406" s="10"/>
     </row>
-    <row r="407" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="407" spans="1:24" ht="14.45" x14ac:dyDescent="0.2">
       <c r="A407" s="22">
         <v>406</v>
       </c>
@@ -15504,7 +15508,7 @@
       <c r="K407" s="10"/>
       <c r="L407" s="10"/>
     </row>
-    <row r="408" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="408" spans="1:24" ht="14.45" x14ac:dyDescent="0.2">
       <c r="A408" s="22">
         <v>407</v>
       </c>
@@ -15534,7 +15538,7 @@
       <c r="W408" s="10"/>
       <c r="X408" s="18"/>
     </row>
-    <row r="409" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="409" spans="1:24" ht="14.45" x14ac:dyDescent="0.2">
       <c r="A409" s="22">
         <v>408</v>
       </c>
@@ -15570,7 +15574,7 @@
       <c r="W409" s="10"/>
       <c r="X409" s="18"/>
     </row>
-    <row r="410" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="410" spans="1:24" ht="14.45" x14ac:dyDescent="0.2">
       <c r="A410" s="22">
         <v>409</v>
       </c>
@@ -15600,7 +15604,7 @@
       <c r="W410" s="10"/>
       <c r="X410" s="18"/>
     </row>
-    <row r="411" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="411" spans="1:24" ht="14.45" x14ac:dyDescent="0.2">
       <c r="A411" s="22">
         <v>410</v>
       </c>
@@ -15630,7 +15634,7 @@
       <c r="W411" s="10"/>
       <c r="X411" s="18"/>
     </row>
-    <row r="412" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="412" spans="1:24" ht="14.45" x14ac:dyDescent="0.2">
       <c r="A412" s="22">
         <v>411</v>
       </c>
@@ -15660,7 +15664,7 @@
       <c r="W412" s="10"/>
       <c r="X412" s="18"/>
     </row>
-    <row r="413" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="413" spans="1:24" ht="14.45" x14ac:dyDescent="0.2">
       <c r="A413" s="22">
         <v>412</v>
       </c>
@@ -15696,7 +15700,7 @@
       <c r="W413" s="10"/>
       <c r="X413" s="10"/>
     </row>
-    <row r="414" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="414" spans="1:24" ht="14.45" x14ac:dyDescent="0.2">
       <c r="A414" s="22">
         <v>413</v>
       </c>
@@ -15726,7 +15730,7 @@
       <c r="W414" s="10"/>
       <c r="X414" s="10"/>
     </row>
-    <row r="415" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="415" spans="1:24" ht="14.45" x14ac:dyDescent="0.2">
       <c r="A415" s="22">
         <v>414</v>
       </c>
@@ -15756,7 +15760,7 @@
       <c r="W415" s="10"/>
       <c r="X415" s="10"/>
     </row>
-    <row r="416" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="416" spans="1:24" ht="14.45" x14ac:dyDescent="0.2">
       <c r="A416" s="22">
         <v>415</v>
       </c>
@@ -15792,7 +15796,7 @@
       <c r="W416" s="10"/>
       <c r="X416" s="10"/>
     </row>
-    <row r="417" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="417" spans="1:24" ht="14.45" x14ac:dyDescent="0.2">
       <c r="A417" s="22">
         <v>416</v>
       </c>
@@ -15828,7 +15832,7 @@
       <c r="W417" s="10"/>
       <c r="X417" s="10"/>
     </row>
-    <row r="418" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="418" spans="1:24" ht="14.45" x14ac:dyDescent="0.2">
       <c r="A418" s="22">
         <v>417</v>
       </c>
@@ -15857,7 +15861,7 @@
       <c r="W418" s="10"/>
       <c r="X418" s="10"/>
     </row>
-    <row r="419" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="419" spans="1:24" ht="14.45" x14ac:dyDescent="0.2">
       <c r="A419" s="22">
         <v>418</v>
       </c>
@@ -15886,7 +15890,7 @@
       <c r="W419" s="10"/>
       <c r="X419" s="10"/>
     </row>
-    <row r="420" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="420" spans="1:24" ht="14.45" x14ac:dyDescent="0.2">
       <c r="A420" s="22">
         <v>419</v>
       </c>
@@ -15915,7 +15919,7 @@
       <c r="W420" s="10"/>
       <c r="X420" s="10"/>
     </row>
-    <row r="421" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="421" spans="1:24" ht="14.45" x14ac:dyDescent="0.2">
       <c r="A421" s="22">
         <v>420</v>
       </c>
@@ -15942,7 +15946,7 @@
       </c>
       <c r="L421" s="10"/>
     </row>
-    <row r="422" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="422" spans="1:24" ht="14.45" x14ac:dyDescent="0.2">
       <c r="A422" s="22">
         <v>421</v>
       </c>
@@ -15969,7 +15973,7 @@
       </c>
       <c r="L422" s="10"/>
     </row>
-    <row r="423" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="423" spans="1:24" ht="14.45" x14ac:dyDescent="0.2">
       <c r="A423" s="22">
         <v>422</v>
       </c>
@@ -15996,7 +16000,7 @@
       </c>
       <c r="L423" s="10"/>
     </row>
-    <row r="424" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="424" spans="1:24" ht="14.45" x14ac:dyDescent="0.2">
       <c r="A424" s="22">
         <v>423</v>
       </c>
@@ -16023,7 +16027,7 @@
       </c>
       <c r="L424" s="10"/>
     </row>
-    <row r="425" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="425" spans="1:24" ht="14.45" x14ac:dyDescent="0.2">
       <c r="A425" s="22">
         <v>424</v>
       </c>
@@ -16050,7 +16054,7 @@
       </c>
       <c r="L425" s="10"/>
     </row>
-    <row r="426" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="426" spans="1:24" ht="14.45" x14ac:dyDescent="0.2">
       <c r="A426" s="22">
         <v>425</v>
       </c>
@@ -16077,7 +16081,7 @@
       </c>
       <c r="L426" s="10"/>
     </row>
-    <row r="427" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="427" spans="1:24" ht="14.45" x14ac:dyDescent="0.2">
       <c r="A427" s="22">
         <v>426</v>
       </c>
@@ -16104,7 +16108,7 @@
       </c>
       <c r="L427" s="10"/>
     </row>
-    <row r="428" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="428" spans="1:24" ht="14.45" x14ac:dyDescent="0.2">
       <c r="A428" s="22">
         <v>427</v>
       </c>
@@ -16131,7 +16135,7 @@
       </c>
       <c r="L428" s="10"/>
     </row>
-    <row r="429" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="429" spans="1:24" ht="14.45" x14ac:dyDescent="0.2">
       <c r="A429" s="22">
         <v>428</v>
       </c>
@@ -16158,7 +16162,7 @@
       </c>
       <c r="L429" s="10"/>
     </row>
-    <row r="430" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="430" spans="1:24" ht="14.45" x14ac:dyDescent="0.2">
       <c r="A430" s="22">
         <v>429</v>
       </c>
@@ -16185,7 +16189,7 @@
       </c>
       <c r="L430" s="10"/>
     </row>
-    <row r="431" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="431" spans="1:24" ht="14.45" x14ac:dyDescent="0.2">
       <c r="A431" s="22">
         <v>430</v>
       </c>
@@ -16212,7 +16216,7 @@
       </c>
       <c r="L431" s="10"/>
     </row>
-    <row r="432" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="432" spans="1:24" ht="14.45" x14ac:dyDescent="0.2">
       <c r="A432" s="22">
         <v>431</v>
       </c>
@@ -16239,7 +16243,7 @@
       </c>
       <c r="L432" s="10"/>
     </row>
-    <row r="433" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="433" spans="1:12" ht="14.45" x14ac:dyDescent="0.2">
       <c r="A433" s="22">
         <v>432</v>
       </c>
@@ -16266,7 +16270,7 @@
       </c>
       <c r="L433" s="10"/>
     </row>
-    <row r="434" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="434" spans="1:12" ht="14.45" x14ac:dyDescent="0.2">
       <c r="A434" s="22">
         <v>433</v>
       </c>
@@ -16293,7 +16297,7 @@
       </c>
       <c r="L434" s="10"/>
     </row>
-    <row r="435" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="435" spans="1:12" ht="14.45" x14ac:dyDescent="0.2">
       <c r="A435" s="22">
         <v>434</v>
       </c>
@@ -16320,7 +16324,7 @@
       </c>
       <c r="L435" s="10"/>
     </row>
-    <row r="436" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="436" spans="1:12" ht="14.45" x14ac:dyDescent="0.2">
       <c r="A436" s="22">
         <v>435</v>
       </c>
@@ -16347,7 +16351,7 @@
       </c>
       <c r="L436" s="10"/>
     </row>
-    <row r="437" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="437" spans="1:12" ht="14.45" x14ac:dyDescent="0.2">
       <c r="A437" s="22">
         <v>436</v>
       </c>
@@ -16374,7 +16378,7 @@
       </c>
       <c r="L437" s="10"/>
     </row>
-    <row r="438" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="438" spans="1:12" ht="14.45" x14ac:dyDescent="0.2">
       <c r="A438" s="22">
         <v>437</v>
       </c>
@@ -16401,7 +16405,7 @@
       </c>
       <c r="L438" s="10"/>
     </row>
-    <row r="439" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="439" spans="1:12" ht="14.45" x14ac:dyDescent="0.2">
       <c r="A439" s="22">
         <v>438</v>
       </c>
@@ -16434,7 +16438,7 @@
       </c>
       <c r="L439" s="10"/>
     </row>
-    <row r="440" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="440" spans="1:12" ht="14.45" x14ac:dyDescent="0.2">
       <c r="A440" s="22">
         <v>439</v>
       </c>
@@ -16461,7 +16465,7 @@
       </c>
       <c r="L440" s="10"/>
     </row>
-    <row r="441" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="441" spans="1:12" ht="14.45" x14ac:dyDescent="0.2">
       <c r="A441" s="22">
         <v>440</v>
       </c>
@@ -16494,7 +16498,7 @@
       </c>
       <c r="L441" s="10"/>
     </row>
-    <row r="442" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="442" spans="1:12" ht="14.45" x14ac:dyDescent="0.2">
       <c r="A442" s="22">
         <v>441</v>
       </c>
@@ -16521,7 +16525,7 @@
       </c>
       <c r="L442" s="10"/>
     </row>
-    <row r="443" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="443" spans="1:12" ht="14.45" x14ac:dyDescent="0.2">
       <c r="A443" s="22">
         <v>442</v>
       </c>
@@ -16548,7 +16552,7 @@
       </c>
       <c r="L443" s="10"/>
     </row>
-    <row r="444" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="444" spans="1:12" ht="14.45" x14ac:dyDescent="0.2">
       <c r="A444" s="22">
         <v>443</v>
       </c>
@@ -16575,7 +16579,7 @@
       </c>
       <c r="L444" s="10"/>
     </row>
-    <row r="445" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="445" spans="1:12" ht="14.45" x14ac:dyDescent="0.2">
       <c r="A445" s="22">
         <v>444</v>
       </c>
@@ -16602,7 +16606,7 @@
       </c>
       <c r="L445" s="10"/>
     </row>
-    <row r="446" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="446" spans="1:12" ht="14.45" x14ac:dyDescent="0.2">
       <c r="A446" s="22">
         <v>445</v>
       </c>
@@ -16629,7 +16633,7 @@
       </c>
       <c r="L446" s="10"/>
     </row>
-    <row r="447" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="447" spans="1:12" ht="14.45" x14ac:dyDescent="0.2">
       <c r="A447" s="22">
         <v>446</v>
       </c>
@@ -16656,7 +16660,7 @@
       </c>
       <c r="L447" s="10"/>
     </row>
-    <row r="448" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="448" spans="1:12" ht="14.45" x14ac:dyDescent="0.2">
       <c r="A448" s="22">
         <v>447</v>
       </c>
@@ -16684,7 +16688,7 @@
       <c r="K448" s="10"/>
       <c r="L448" s="10"/>
     </row>
-    <row r="449" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="449" spans="1:24" ht="14.45" x14ac:dyDescent="0.2">
       <c r="A449" s="22">
         <v>448</v>
       </c>
@@ -16718,7 +16722,7 @@
       <c r="K449" s="10"/>
       <c r="L449" s="10"/>
     </row>
-    <row r="450" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="450" spans="1:24" ht="14.45" x14ac:dyDescent="0.2">
       <c r="A450" s="22">
         <v>449</v>
       </c>
@@ -16752,7 +16756,7 @@
       <c r="K450" s="10"/>
       <c r="L450" s="10"/>
     </row>
-    <row r="451" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="451" spans="1:24" ht="14.45" x14ac:dyDescent="0.2">
       <c r="A451" s="22">
         <v>450</v>
       </c>
@@ -16788,7 +16792,7 @@
       <c r="W451" s="10"/>
       <c r="X451" s="18"/>
     </row>
-    <row r="452" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="452" spans="1:24" ht="14.45" x14ac:dyDescent="0.2">
       <c r="A452" s="22">
         <v>451</v>
       </c>
@@ -16818,7 +16822,7 @@
       <c r="W452" s="10"/>
       <c r="X452" s="18"/>
     </row>
-    <row r="453" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="453" spans="1:24" ht="14.45" x14ac:dyDescent="0.2">
       <c r="A453" s="22">
         <v>452</v>
       </c>
@@ -16848,7 +16852,7 @@
       <c r="W453" s="10"/>
       <c r="X453" s="18"/>
     </row>
-    <row r="454" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="454" spans="1:24" ht="14.45" x14ac:dyDescent="0.2">
       <c r="A454" s="22">
         <v>453</v>
       </c>
@@ -16878,7 +16882,7 @@
       <c r="W454" s="10"/>
       <c r="X454" s="18"/>
     </row>
-    <row r="455" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="455" spans="1:24" ht="14.45" x14ac:dyDescent="0.2">
       <c r="A455" s="22">
         <v>454</v>
       </c>
@@ -16908,7 +16912,7 @@
       <c r="W455" s="10"/>
       <c r="X455" s="18"/>
     </row>
-    <row r="456" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="456" spans="1:24" ht="14.45" x14ac:dyDescent="0.2">
       <c r="A456" s="22">
         <v>455</v>
       </c>
@@ -16938,7 +16942,7 @@
       <c r="W456" s="10"/>
       <c r="X456" s="10"/>
     </row>
-    <row r="457" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="457" spans="1:24" ht="14.45" x14ac:dyDescent="0.2">
       <c r="A457" s="22">
         <v>456</v>
       </c>
@@ -16968,7 +16972,7 @@
       <c r="W457" s="10"/>
       <c r="X457" s="10"/>
     </row>
-    <row r="458" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="458" spans="1:24" ht="14.45" x14ac:dyDescent="0.2">
       <c r="A458" s="22">
         <v>457</v>
       </c>
@@ -16998,7 +17002,7 @@
       <c r="W458" s="10"/>
       <c r="X458" s="10"/>
     </row>
-    <row r="459" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="459" spans="1:24" ht="14.45" x14ac:dyDescent="0.2">
       <c r="A459" s="22">
         <v>458</v>
       </c>
@@ -17034,7 +17038,7 @@
       <c r="W459" s="10"/>
       <c r="X459" s="10"/>
     </row>
-    <row r="460" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="460" spans="1:24" ht="14.45" x14ac:dyDescent="0.2">
       <c r="A460" s="22">
         <v>459</v>
       </c>
@@ -17070,7 +17074,7 @@
       <c r="W460" s="10"/>
       <c r="X460" s="10"/>
     </row>
-    <row r="461" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="461" spans="1:24" ht="14.45" x14ac:dyDescent="0.2">
       <c r="A461" s="22">
         <v>460</v>
       </c>
@@ -17099,7 +17103,7 @@
       <c r="W461" s="10"/>
       <c r="X461" s="10"/>
     </row>
-    <row r="462" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="462" spans="1:24" ht="14.45" x14ac:dyDescent="0.2">
       <c r="A462" s="22">
         <v>461</v>
       </c>
@@ -17128,7 +17132,7 @@
       <c r="W462" s="10"/>
       <c r="X462" s="10"/>
     </row>
-    <row r="463" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="463" spans="1:24" ht="14.45" x14ac:dyDescent="0.2">
       <c r="A463" s="22">
         <v>462</v>
       </c>
@@ -17157,7 +17161,7 @@
       <c r="W463" s="10"/>
       <c r="X463" s="10"/>
     </row>
-    <row r="464" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="464" spans="1:24" ht="14.45" x14ac:dyDescent="0.2">
       <c r="A464" s="22">
         <v>463</v>
       </c>
@@ -17184,7 +17188,7 @@
       </c>
       <c r="M464" s="10"/>
     </row>
-    <row r="465" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="465" spans="1:13" ht="14.45" x14ac:dyDescent="0.2">
       <c r="A465" s="22">
         <v>464</v>
       </c>
@@ -17211,7 +17215,7 @@
       </c>
       <c r="M465" s="10"/>
     </row>
-    <row r="466" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="466" spans="1:13" ht="14.45" x14ac:dyDescent="0.2">
       <c r="A466" s="22">
         <v>465</v>
       </c>
@@ -17238,7 +17242,7 @@
       </c>
       <c r="M466" s="10"/>
     </row>
-    <row r="467" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="467" spans="1:13" ht="14.45" x14ac:dyDescent="0.2">
       <c r="A467" s="22">
         <v>466</v>
       </c>
@@ -17265,7 +17269,7 @@
       </c>
       <c r="M467" s="10"/>
     </row>
-    <row r="468" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="468" spans="1:13" ht="14.45" x14ac:dyDescent="0.2">
       <c r="A468" s="22">
         <v>467</v>
       </c>
@@ -17292,7 +17296,7 @@
       </c>
       <c r="M468" s="10"/>
     </row>
-    <row r="469" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="469" spans="1:13" ht="14.45" x14ac:dyDescent="0.2">
       <c r="A469" s="22">
         <v>468</v>
       </c>
@@ -17319,7 +17323,7 @@
       </c>
       <c r="M469" s="10"/>
     </row>
-    <row r="470" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="470" spans="1:13" ht="14.45" x14ac:dyDescent="0.2">
       <c r="A470" s="22">
         <v>469</v>
       </c>
@@ -17346,7 +17350,7 @@
       </c>
       <c r="M470" s="10"/>
     </row>
-    <row r="471" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="471" spans="1:13" ht="14.45" x14ac:dyDescent="0.2">
       <c r="A471" s="22">
         <v>470</v>
       </c>
@@ -17373,7 +17377,7 @@
       </c>
       <c r="M471" s="10"/>
     </row>
-    <row r="472" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="472" spans="1:13" ht="14.45" x14ac:dyDescent="0.2">
       <c r="A472" s="22">
         <v>471</v>
       </c>
@@ -17400,7 +17404,7 @@
       </c>
       <c r="M472" s="10"/>
     </row>
-    <row r="473" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="473" spans="1:13" ht="14.45" x14ac:dyDescent="0.2">
       <c r="A473" s="22">
         <v>472</v>
       </c>
@@ -17427,7 +17431,7 @@
       </c>
       <c r="M473" s="10"/>
     </row>
-    <row r="474" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="474" spans="1:13" ht="14.45" x14ac:dyDescent="0.2">
       <c r="A474" s="22">
         <v>473</v>
       </c>
@@ -17458,7 +17462,7 @@
       <c r="L474" s="10"/>
       <c r="M474" s="10"/>
     </row>
-    <row r="475" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="475" spans="1:13" ht="14.45" x14ac:dyDescent="0.2">
       <c r="A475" s="22">
         <v>474</v>
       </c>
@@ -17486,7 +17490,7 @@
       <c r="L475" s="10"/>
       <c r="M475" s="10"/>
     </row>
-    <row r="476" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="476" spans="1:13" ht="14.45" x14ac:dyDescent="0.2">
       <c r="A476" s="22">
         <v>475</v>
       </c>
@@ -17514,7 +17518,7 @@
       <c r="L476" s="10"/>
       <c r="M476" s="10"/>
     </row>
-    <row r="477" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="477" spans="1:13" ht="14.45" x14ac:dyDescent="0.2">
       <c r="A477" s="22">
         <v>476</v>
       </c>
@@ -17542,7 +17546,7 @@
       <c r="L477" s="10"/>
       <c r="M477" s="10"/>
     </row>
-    <row r="478" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="478" spans="1:13" ht="14.45" x14ac:dyDescent="0.2">
       <c r="A478" s="22">
         <v>477</v>
       </c>
@@ -17570,7 +17574,7 @@
       <c r="L478" s="10"/>
       <c r="M478" s="10"/>
     </row>
-    <row r="479" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="479" spans="1:13" ht="14.45" x14ac:dyDescent="0.2">
       <c r="A479" s="22">
         <v>478</v>
       </c>
@@ -17598,7 +17602,7 @@
       <c r="L479" s="10"/>
       <c r="M479" s="10"/>
     </row>
-    <row r="480" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="480" spans="1:13" ht="14.45" x14ac:dyDescent="0.2">
       <c r="A480" s="22">
         <v>479</v>
       </c>
@@ -17626,7 +17630,7 @@
       <c r="L480" s="10"/>
       <c r="M480" s="10"/>
     </row>
-    <row r="481" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="481" spans="1:24" ht="14.45" x14ac:dyDescent="0.2">
       <c r="A481" s="22">
         <v>480</v>
       </c>
@@ -17654,7 +17658,7 @@
       <c r="L481" s="10"/>
       <c r="M481" s="10"/>
     </row>
-    <row r="482" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="482" spans="1:24" ht="14.45" x14ac:dyDescent="0.2">
       <c r="A482" s="22">
         <v>481</v>
       </c>
@@ -17682,7 +17686,7 @@
       <c r="L482" s="10"/>
       <c r="M482" s="10"/>
     </row>
-    <row r="483" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="483" spans="1:24" ht="14.45" x14ac:dyDescent="0.2">
       <c r="A483" s="22">
         <v>482</v>
       </c>
@@ -17710,7 +17714,7 @@
       <c r="L483" s="10"/>
       <c r="M483" s="10"/>
     </row>
-    <row r="484" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="484" spans="1:24" ht="14.45" x14ac:dyDescent="0.2">
       <c r="A484" s="22">
         <v>483</v>
       </c>
@@ -17738,7 +17742,7 @@
       <c r="L484" s="10"/>
       <c r="M484" s="10"/>
     </row>
-    <row r="485" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="485" spans="1:24" ht="14.45" x14ac:dyDescent="0.2">
       <c r="A485" s="22">
         <v>484</v>
       </c>
@@ -17766,7 +17770,7 @@
       <c r="L485" s="10"/>
       <c r="M485" s="10"/>
     </row>
-    <row r="486" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="486" spans="1:24" ht="14.45" x14ac:dyDescent="0.2">
       <c r="A486" s="22">
         <v>485</v>
       </c>
@@ -17794,7 +17798,7 @@
       <c r="L486" s="10"/>
       <c r="M486" s="10"/>
     </row>
-    <row r="487" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="487" spans="1:24" ht="14.45" x14ac:dyDescent="0.2">
       <c r="A487" s="22">
         <v>486</v>
       </c>
@@ -17822,7 +17826,7 @@
       <c r="L487" s="10"/>
       <c r="M487" s="10"/>
     </row>
-    <row r="488" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="488" spans="1:24" ht="14.45" x14ac:dyDescent="0.2">
       <c r="A488" s="22">
         <v>487</v>
       </c>
@@ -17850,7 +17854,7 @@
       <c r="L488" s="10"/>
       <c r="M488" s="10"/>
     </row>
-    <row r="489" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="489" spans="1:24" ht="14.45" x14ac:dyDescent="0.2">
       <c r="A489" s="22">
         <v>488</v>
       </c>
@@ -17878,7 +17882,7 @@
       <c r="L489" s="10"/>
       <c r="M489" s="10"/>
     </row>
-    <row r="490" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="490" spans="1:24" ht="14.45" x14ac:dyDescent="0.2">
       <c r="A490" s="22">
         <v>489</v>
       </c>
@@ -17906,7 +17910,7 @@
       <c r="L490" s="10"/>
       <c r="M490" s="10"/>
     </row>
-    <row r="491" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="491" spans="1:24" ht="14.45" x14ac:dyDescent="0.2">
       <c r="A491" s="22">
         <v>490</v>
       </c>
@@ -17941,7 +17945,7 @@
       <c r="L491" s="10"/>
       <c r="M491" s="10"/>
     </row>
-    <row r="492" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="492" spans="1:24" ht="14.45" x14ac:dyDescent="0.2">
       <c r="A492" s="22">
         <v>491</v>
       </c>
@@ -17976,7 +17980,7 @@
       <c r="L492" s="10"/>
       <c r="M492" s="10"/>
     </row>
-    <row r="493" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="493" spans="1:24" ht="14.45" x14ac:dyDescent="0.2">
       <c r="A493" s="22">
         <v>492</v>
       </c>
@@ -18005,7 +18009,7 @@
       <c r="L493" s="10"/>
       <c r="M493" s="10"/>
     </row>
-    <row r="494" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="494" spans="1:24" ht="14.45" x14ac:dyDescent="0.2">
       <c r="A494" s="22">
         <v>493</v>
       </c>
@@ -18036,7 +18040,7 @@
       <c r="W494" s="10"/>
       <c r="X494" s="18"/>
     </row>
-    <row r="495" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="495" spans="1:24" ht="14.45" x14ac:dyDescent="0.2">
       <c r="A495" s="22">
         <v>494</v>
       </c>
@@ -18067,7 +18071,7 @@
       <c r="W495" s="10"/>
       <c r="X495" s="18"/>
     </row>
-    <row r="496" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="496" spans="1:24" ht="14.45" x14ac:dyDescent="0.2">
       <c r="A496" s="22">
         <v>495</v>
       </c>
@@ -18098,7 +18102,7 @@
       <c r="W496" s="10"/>
       <c r="X496" s="18"/>
     </row>
-    <row r="497" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="497" spans="1:24" ht="14.45" x14ac:dyDescent="0.2">
       <c r="A497" s="22">
         <v>496</v>
       </c>
@@ -18129,7 +18133,7 @@
       <c r="W497" s="10"/>
       <c r="X497" s="18"/>
     </row>
-    <row r="498" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="498" spans="1:24" ht="14.45" x14ac:dyDescent="0.2">
       <c r="A498" s="22">
         <v>497</v>
       </c>
@@ -18160,7 +18164,7 @@
       <c r="W498" s="10"/>
       <c r="X498" s="18"/>
     </row>
-    <row r="499" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="499" spans="1:24" ht="14.45" x14ac:dyDescent="0.2">
       <c r="A499" s="22">
         <v>498</v>
       </c>
@@ -18191,7 +18195,7 @@
       <c r="W499" s="10"/>
       <c r="X499" s="10"/>
     </row>
-    <row r="500" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="500" spans="1:24" ht="14.45" x14ac:dyDescent="0.2">
       <c r="A500" s="22">
         <v>499</v>
       </c>
@@ -18222,7 +18226,7 @@
       <c r="W500" s="10"/>
       <c r="X500" s="10"/>
     </row>
-    <row r="501" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="501" spans="1:24" ht="14.45" x14ac:dyDescent="0.2">
       <c r="A501" s="22">
         <v>500</v>
       </c>
@@ -18253,7 +18257,7 @@
       <c r="W501" s="10"/>
       <c r="X501" s="10"/>
     </row>
-    <row r="502" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="502" spans="1:24" ht="14.45" x14ac:dyDescent="0.2">
       <c r="A502" s="22">
         <v>501</v>
       </c>
@@ -18290,7 +18294,7 @@
       <c r="W502" s="10"/>
       <c r="X502" s="10"/>
     </row>
-    <row r="503" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="503" spans="1:24" ht="14.45" x14ac:dyDescent="0.2">
       <c r="A503" s="22">
         <v>502</v>
       </c>
@@ -18321,7 +18325,7 @@
       <c r="W503" s="10"/>
       <c r="X503" s="10"/>
     </row>
-    <row r="504" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="504" spans="1:24" ht="14.45" x14ac:dyDescent="0.2">
       <c r="A504" s="22">
         <v>503</v>
       </c>
@@ -18349,7 +18353,7 @@
       <c r="L504" s="10"/>
       <c r="M504" s="10"/>
     </row>
-    <row r="505" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="505" spans="1:24" ht="14.45" x14ac:dyDescent="0.2">
       <c r="A505" s="22">
         <v>504</v>
       </c>
@@ -18377,7 +18381,7 @@
       <c r="L505" s="10"/>
       <c r="M505" s="10"/>
     </row>
-    <row r="506" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="506" spans="1:24" ht="14.45" x14ac:dyDescent="0.2">
       <c r="A506" s="22">
         <v>505</v>
       </c>
@@ -18411,7 +18415,7 @@
       <c r="L506" s="10"/>
       <c r="M506" s="10"/>
     </row>
-    <row r="507" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="507" spans="1:24" ht="14.45" x14ac:dyDescent="0.2">
       <c r="A507" s="22">
         <v>506</v>
       </c>
@@ -18439,7 +18443,7 @@
       <c r="L507" s="10"/>
       <c r="M507" s="10"/>
     </row>
-    <row r="508" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="508" spans="1:24" ht="14.45" x14ac:dyDescent="0.2">
       <c r="A508" s="22">
         <v>507</v>
       </c>
@@ -18467,7 +18471,7 @@
       <c r="L508" s="10"/>
       <c r="M508" s="10"/>
     </row>
-    <row r="509" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="509" spans="1:24" ht="14.45" x14ac:dyDescent="0.2">
       <c r="A509" s="22">
         <v>508</v>
       </c>
@@ -18495,7 +18499,7 @@
       <c r="L509" s="10"/>
       <c r="M509" s="10"/>
     </row>
-    <row r="510" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="510" spans="1:24" ht="14.45" x14ac:dyDescent="0.2">
       <c r="A510" s="22">
         <v>509</v>
       </c>
@@ -18523,7 +18527,7 @@
       <c r="L510" s="10"/>
       <c r="M510" s="10"/>
     </row>
-    <row r="511" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="511" spans="1:24" ht="14.45" x14ac:dyDescent="0.2">
       <c r="A511" s="22">
         <v>510</v>
       </c>
@@ -18551,7 +18555,7 @@
       <c r="L511" s="10"/>
       <c r="M511" s="10"/>
     </row>
-    <row r="512" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="512" spans="1:24" ht="14.45" x14ac:dyDescent="0.2">
       <c r="A512" s="22">
         <v>511</v>
       </c>
@@ -18579,7 +18583,7 @@
       <c r="L512" s="10"/>
       <c r="M512" s="10"/>
     </row>
-    <row r="513" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="513" spans="1:13" ht="14.45" x14ac:dyDescent="0.2">
       <c r="A513" s="22">
         <v>512</v>
       </c>
@@ -18607,7 +18611,7 @@
       <c r="L513" s="10"/>
       <c r="M513" s="10"/>
     </row>
-    <row r="514" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="514" spans="1:13" ht="14.45" x14ac:dyDescent="0.2">
       <c r="A514" s="22">
         <v>513</v>
       </c>
@@ -18635,7 +18639,7 @@
       <c r="L514" s="10"/>
       <c r="M514" s="10"/>
     </row>
-    <row r="515" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="515" spans="1:13" ht="14.45" x14ac:dyDescent="0.2">
       <c r="A515" s="22">
         <v>514</v>
       </c>
@@ -18663,7 +18667,7 @@
       <c r="L515" s="10"/>
       <c r="M515" s="10"/>
     </row>
-    <row r="516" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="516" spans="1:13" ht="14.45" x14ac:dyDescent="0.2">
       <c r="A516" s="22">
         <v>515</v>
       </c>
@@ -18691,7 +18695,7 @@
       <c r="L516" s="10"/>
       <c r="M516" s="10"/>
     </row>
-    <row r="517" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="517" spans="1:13" ht="14.45" x14ac:dyDescent="0.2">
       <c r="A517" s="22">
         <v>516</v>
       </c>
@@ -18719,7 +18723,7 @@
       <c r="L517" s="10"/>
       <c r="M517" s="10"/>
     </row>
-    <row r="518" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="518" spans="1:13" ht="14.45" x14ac:dyDescent="0.2">
       <c r="A518" s="22">
         <v>517</v>
       </c>
@@ -18747,7 +18751,7 @@
       <c r="L518" s="10"/>
       <c r="M518" s="10"/>
     </row>
-    <row r="519" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="519" spans="1:13" ht="14.45" x14ac:dyDescent="0.2">
       <c r="A519" s="22">
         <v>518</v>
       </c>
@@ -18775,7 +18779,7 @@
       <c r="L519" s="10"/>
       <c r="M519" s="10"/>
     </row>
-    <row r="520" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="520" spans="1:13" ht="14.45" x14ac:dyDescent="0.2">
       <c r="A520" s="22">
         <v>519</v>
       </c>
@@ -18803,7 +18807,7 @@
       <c r="L520" s="10"/>
       <c r="M520" s="10"/>
     </row>
-    <row r="521" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="521" spans="1:13" ht="14.45" x14ac:dyDescent="0.2">
       <c r="A521" s="22">
         <v>520</v>
       </c>
@@ -18831,7 +18835,7 @@
       <c r="L521" s="10"/>
       <c r="M521" s="10"/>
     </row>
-    <row r="522" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="522" spans="1:13" ht="14.45" x14ac:dyDescent="0.2">
       <c r="A522" s="22">
         <v>521</v>
       </c>
@@ -18859,7 +18863,7 @@
       <c r="L522" s="10"/>
       <c r="M522" s="10"/>
     </row>
-    <row r="523" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="523" spans="1:13" ht="14.45" x14ac:dyDescent="0.2">
       <c r="A523" s="22">
         <v>522</v>
       </c>
@@ -18887,7 +18891,7 @@
       <c r="L523" s="10"/>
       <c r="M523" s="10"/>
     </row>
-    <row r="524" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="524" spans="1:13" ht="14.45" x14ac:dyDescent="0.2">
       <c r="A524" s="22">
         <v>523</v>
       </c>
@@ -18915,7 +18919,7 @@
       <c r="L524" s="10"/>
       <c r="M524" s="10"/>
     </row>
-    <row r="525" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="525" spans="1:13" ht="14.45" x14ac:dyDescent="0.2">
       <c r="A525" s="22">
         <v>524</v>
       </c>
@@ -18943,7 +18947,7 @@
       <c r="L525" s="10"/>
       <c r="M525" s="10"/>
     </row>
-    <row r="526" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="526" spans="1:13" ht="14.45" x14ac:dyDescent="0.2">
       <c r="A526" s="22">
         <v>525</v>
       </c>
@@ -18971,7 +18975,7 @@
       <c r="L526" s="10"/>
       <c r="M526" s="10"/>
     </row>
-    <row r="527" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="527" spans="1:13" ht="14.45" x14ac:dyDescent="0.2">
       <c r="A527" s="22">
         <v>526</v>
       </c>
@@ -18999,7 +19003,7 @@
       <c r="L527" s="10"/>
       <c r="M527" s="10"/>
     </row>
-    <row r="528" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="528" spans="1:13" ht="14.45" x14ac:dyDescent="0.2">
       <c r="A528" s="22">
         <v>527</v>
       </c>
@@ -19026,7 +19030,7 @@
       </c>
       <c r="L528" s="10"/>
     </row>
-    <row r="529" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="529" spans="1:13" ht="14.45" x14ac:dyDescent="0.2">
       <c r="A529" s="22">
         <v>528</v>
       </c>
@@ -19059,7 +19063,7 @@
       </c>
       <c r="L529" s="10"/>
     </row>
-    <row r="530" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="530" spans="1:13" ht="14.45" x14ac:dyDescent="0.2">
       <c r="A530" s="22">
         <v>529</v>
       </c>
@@ -19086,7 +19090,7 @@
       </c>
       <c r="L530" s="10"/>
     </row>
-    <row r="531" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="531" spans="1:13" ht="14.45" x14ac:dyDescent="0.2">
       <c r="A531" s="22">
         <v>530</v>
       </c>
@@ -19113,7 +19117,7 @@
       </c>
       <c r="L531" s="10"/>
     </row>
-    <row r="532" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="532" spans="1:13" ht="14.45" x14ac:dyDescent="0.2">
       <c r="A532" s="22">
         <v>531</v>
       </c>
@@ -19146,7 +19150,7 @@
       </c>
       <c r="L532" s="10"/>
     </row>
-    <row r="533" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="533" spans="1:13" ht="14.45" x14ac:dyDescent="0.2">
       <c r="A533" s="22">
         <v>532</v>
       </c>
@@ -19173,7 +19177,7 @@
       </c>
       <c r="L533" s="10"/>
     </row>
-    <row r="534" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="534" spans="1:13" ht="14.45" x14ac:dyDescent="0.2">
       <c r="A534" s="22">
         <v>533</v>
       </c>
@@ -19200,7 +19204,7 @@
       </c>
       <c r="L534" s="10"/>
     </row>
-    <row r="535" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="535" spans="1:13" ht="14.45" x14ac:dyDescent="0.2">
       <c r="A535" s="22">
         <v>534</v>
       </c>
@@ -19227,7 +19231,7 @@
       </c>
       <c r="L535" s="10"/>
     </row>
-    <row r="536" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="536" spans="1:13" ht="14.45" x14ac:dyDescent="0.2">
       <c r="A536" s="22">
         <v>535</v>
       </c>
@@ -19254,7 +19258,7 @@
       </c>
       <c r="L536" s="10"/>
     </row>
-    <row r="537" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="537" spans="1:13" ht="14.45" x14ac:dyDescent="0.2">
       <c r="A537" s="22">
         <v>536</v>
       </c>
@@ -19281,7 +19285,7 @@
       </c>
       <c r="L537" s="10"/>
     </row>
-    <row r="538" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="538" spans="1:13" ht="14.45" x14ac:dyDescent="0.2">
       <c r="A538" s="22">
         <v>537</v>
       </c>
@@ -19314,7 +19318,7 @@
       </c>
       <c r="L538" s="10"/>
     </row>
-    <row r="539" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="539" spans="1:13" ht="14.45" x14ac:dyDescent="0.2">
       <c r="A539" s="22">
         <v>538</v>
       </c>
@@ -19341,7 +19345,7 @@
       </c>
       <c r="L539" s="10"/>
     </row>
-    <row r="540" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="540" spans="1:13" ht="14.45" x14ac:dyDescent="0.2">
       <c r="A540" s="22">
         <v>539</v>
       </c>
@@ -19368,7 +19372,7 @@
       </c>
       <c r="L540" s="10"/>
     </row>
-    <row r="541" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="541" spans="1:13" ht="14.45" x14ac:dyDescent="0.2">
       <c r="A541" s="22">
         <v>540</v>
       </c>
@@ -19395,7 +19399,7 @@
       </c>
       <c r="L541" s="10"/>
     </row>
-    <row r="542" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="542" spans="1:13" ht="14.45" x14ac:dyDescent="0.2">
       <c r="A542" s="22">
         <v>541</v>
       </c>
@@ -19428,7 +19432,7 @@
       </c>
       <c r="L542" s="10"/>
     </row>
-    <row r="543" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="543" spans="1:13" ht="14.45" x14ac:dyDescent="0.2">
       <c r="A543" s="22">
         <v>542</v>
       </c>
@@ -19456,7 +19460,7 @@
       <c r="L543" s="10"/>
       <c r="M543" s="10"/>
     </row>
-    <row r="544" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="544" spans="1:13" ht="14.45" x14ac:dyDescent="0.2">
       <c r="A544" s="22">
         <v>543</v>
       </c>
@@ -19484,7 +19488,7 @@
       <c r="L544" s="10"/>
       <c r="M544" s="10"/>
     </row>
-    <row r="545" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="545" spans="1:13" ht="14.45" x14ac:dyDescent="0.2">
       <c r="A545" s="22">
         <v>544</v>
       </c>
@@ -19518,7 +19522,7 @@
       <c r="L545" s="10"/>
       <c r="M545" s="10"/>
     </row>
-    <row r="546" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="546" spans="1:13" ht="14.45" x14ac:dyDescent="0.2">
       <c r="A546" s="22">
         <v>545</v>
       </c>
@@ -19546,7 +19550,7 @@
       <c r="L546" s="10"/>
       <c r="M546" s="10"/>
     </row>
-    <row r="547" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="547" spans="1:13" ht="14.45" x14ac:dyDescent="0.2">
       <c r="A547" s="22">
         <v>546</v>
       </c>
@@ -19574,7 +19578,7 @@
       <c r="L547" s="10"/>
       <c r="M547" s="10"/>
     </row>
-    <row r="548" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="548" spans="1:13" ht="14.45" x14ac:dyDescent="0.2">
       <c r="A548" s="22">
         <v>547</v>
       </c>
@@ -19602,7 +19606,7 @@
       <c r="L548" s="10"/>
       <c r="M548" s="10"/>
     </row>
-    <row r="549" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="549" spans="1:13" ht="14.45" x14ac:dyDescent="0.2">
       <c r="A549" s="22">
         <v>548</v>
       </c>
@@ -19630,7 +19634,7 @@
       <c r="L549" s="10"/>
       <c r="M549" s="10"/>
     </row>
-    <row r="550" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="550" spans="1:13" ht="14.45" x14ac:dyDescent="0.2">
       <c r="A550" s="22">
         <v>549</v>
       </c>
@@ -19658,7 +19662,7 @@
       <c r="L550" s="10"/>
       <c r="M550" s="10"/>
     </row>
-    <row r="551" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="551" spans="1:13" ht="14.45" x14ac:dyDescent="0.2">
       <c r="A551" s="22">
         <v>550</v>
       </c>
@@ -19686,7 +19690,7 @@
       <c r="L551" s="10"/>
       <c r="M551" s="10"/>
     </row>
-    <row r="552" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="552" spans="1:13" ht="14.45" x14ac:dyDescent="0.2">
       <c r="A552" s="22">
         <v>551</v>
       </c>
@@ -19714,7 +19718,7 @@
       <c r="L552" s="10"/>
       <c r="M552" s="10"/>
     </row>
-    <row r="553" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="553" spans="1:13" ht="14.45" x14ac:dyDescent="0.2">
       <c r="A553" s="22">
         <v>552</v>
       </c>
@@ -19742,7 +19746,7 @@
       <c r="L553" s="10"/>
       <c r="M553" s="10"/>
     </row>
-    <row r="554" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="554" spans="1:13" ht="14.45" x14ac:dyDescent="0.2">
       <c r="A554" s="22">
         <v>553</v>
       </c>
@@ -19770,7 +19774,7 @@
       <c r="L554" s="10"/>
       <c r="M554" s="10"/>
     </row>
-    <row r="555" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="555" spans="1:13" ht="14.45" x14ac:dyDescent="0.2">
       <c r="A555" s="22">
         <v>554</v>
       </c>
@@ -19798,7 +19802,7 @@
       <c r="L555" s="10"/>
       <c r="M555" s="10"/>
     </row>
-    <row r="556" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="556" spans="1:13" ht="14.45" x14ac:dyDescent="0.2">
       <c r="A556" s="22">
         <v>555</v>
       </c>
@@ -19826,7 +19830,7 @@
       <c r="L556" s="10"/>
       <c r="M556" s="10"/>
     </row>
-    <row r="557" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="557" spans="1:13" ht="14.45" x14ac:dyDescent="0.2">
       <c r="A557" s="22">
         <v>556</v>
       </c>
@@ -19854,7 +19858,7 @@
       <c r="L557" s="10"/>
       <c r="M557" s="10"/>
     </row>
-    <row r="558" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="558" spans="1:13" ht="14.45" x14ac:dyDescent="0.2">
       <c r="A558" s="22">
         <v>557</v>
       </c>
@@ -19882,7 +19886,7 @@
       <c r="L558" s="10"/>
       <c r="M558" s="10"/>
     </row>
-    <row r="559" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="559" spans="1:13" ht="14.45" x14ac:dyDescent="0.2">
       <c r="A559" s="22">
         <v>558</v>
       </c>
@@ -19910,7 +19914,7 @@
       <c r="L559" s="10"/>
       <c r="M559" s="10"/>
     </row>
-    <row r="560" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="560" spans="1:13" ht="14.45" x14ac:dyDescent="0.2">
       <c r="A560" s="22">
         <v>559</v>
       </c>
@@ -19938,7 +19942,7 @@
       <c r="L560" s="10"/>
       <c r="M560" s="10"/>
     </row>
-    <row r="561" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="561" spans="1:13" ht="14.45" x14ac:dyDescent="0.2">
       <c r="A561" s="22">
         <v>560</v>
       </c>
@@ -19966,7 +19970,7 @@
       <c r="L561" s="10"/>
       <c r="M561" s="10"/>
     </row>
-    <row r="562" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="562" spans="1:13" ht="14.45" x14ac:dyDescent="0.2">
       <c r="A562" s="22">
         <v>561</v>
       </c>
@@ -19994,7 +19998,7 @@
       <c r="L562" s="10"/>
       <c r="M562" s="10"/>
     </row>
-    <row r="563" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="563" spans="1:13" ht="14.45" x14ac:dyDescent="0.2">
       <c r="A563" s="22">
         <v>562</v>
       </c>
@@ -20022,7 +20026,7 @@
       <c r="L563" s="10"/>
       <c r="M563" s="10"/>
     </row>
-    <row r="564" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="564" spans="1:13" ht="14.45" x14ac:dyDescent="0.2">
       <c r="A564" s="22">
         <v>563</v>
       </c>
@@ -20050,7 +20054,7 @@
       <c r="L564" s="10"/>
       <c r="M564" s="10"/>
     </row>
-    <row r="565" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="565" spans="1:13" ht="14.45" x14ac:dyDescent="0.2">
       <c r="A565" s="22">
         <v>564</v>
       </c>
@@ -20078,7 +20082,7 @@
       <c r="L565" s="10"/>
       <c r="M565" s="10"/>
     </row>
-    <row r="566" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="566" spans="1:13" ht="14.45" x14ac:dyDescent="0.2">
       <c r="A566" s="22">
         <v>565</v>
       </c>
@@ -20106,7 +20110,7 @@
       <c r="L566" s="10"/>
       <c r="M566" s="10"/>
     </row>
-    <row r="567" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="567" spans="1:13" ht="14.45" x14ac:dyDescent="0.2">
       <c r="A567" s="22">
         <v>566</v>
       </c>
@@ -20133,7 +20137,7 @@
       </c>
       <c r="L567" s="10"/>
     </row>
-    <row r="568" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="568" spans="1:13" ht="14.45" x14ac:dyDescent="0.2">
       <c r="A568" s="22">
         <v>567</v>
       </c>
@@ -20166,7 +20170,7 @@
       </c>
       <c r="L568" s="10"/>
     </row>
-    <row r="569" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="569" spans="1:13" ht="14.45" x14ac:dyDescent="0.2">
       <c r="A569" s="22">
         <v>568</v>
       </c>
@@ -20193,7 +20197,7 @@
       </c>
       <c r="L569" s="10"/>
     </row>
-    <row r="570" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="570" spans="1:13" ht="14.45" x14ac:dyDescent="0.2">
       <c r="A570" s="22">
         <v>569</v>
       </c>
@@ -20220,7 +20224,7 @@
       </c>
       <c r="L570" s="10"/>
     </row>
-    <row r="571" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="571" spans="1:13" ht="14.45" x14ac:dyDescent="0.2">
       <c r="A571" s="22">
         <v>570</v>
       </c>
@@ -20253,7 +20257,7 @@
       </c>
       <c r="L571" s="10"/>
     </row>
-    <row r="572" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="572" spans="1:13" ht="14.45" x14ac:dyDescent="0.2">
       <c r="A572" s="22">
         <v>571</v>
       </c>
@@ -20280,7 +20284,7 @@
       </c>
       <c r="L572" s="10"/>
     </row>
-    <row r="573" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="573" spans="1:13" ht="14.45" x14ac:dyDescent="0.2">
       <c r="A573" s="22">
         <v>572</v>
       </c>
@@ -20307,7 +20311,7 @@
       </c>
       <c r="L573" s="10"/>
     </row>
-    <row r="574" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="574" spans="1:13" ht="14.45" x14ac:dyDescent="0.2">
       <c r="A574" s="22">
         <v>573</v>
       </c>
@@ -20334,7 +20338,7 @@
       </c>
       <c r="L574" s="10"/>
     </row>
-    <row r="575" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="575" spans="1:13" ht="14.45" x14ac:dyDescent="0.2">
       <c r="A575" s="22">
         <v>574</v>
       </c>
@@ -20361,7 +20365,7 @@
       </c>
       <c r="L575" s="10"/>
     </row>
-    <row r="576" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="576" spans="1:13" ht="14.45" x14ac:dyDescent="0.2">
       <c r="A576" s="22">
         <v>575</v>
       </c>
@@ -20394,7 +20398,7 @@
       </c>
       <c r="L576" s="10"/>
     </row>
-    <row r="577" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="577" spans="1:12" ht="14.45" x14ac:dyDescent="0.2">
       <c r="A577" s="22">
         <v>576</v>
       </c>
@@ -20427,7 +20431,7 @@
       </c>
       <c r="L577" s="10"/>
     </row>
-    <row r="578" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="578" spans="1:12" ht="14.45" x14ac:dyDescent="0.2">
       <c r="A578" s="22">
         <v>577</v>
       </c>
@@ -20460,7 +20464,7 @@
       </c>
       <c r="L578" s="10"/>
     </row>
-    <row r="579" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="579" spans="1:12" ht="14.45" x14ac:dyDescent="0.2">
       <c r="A579" s="22">
         <v>578</v>
       </c>
@@ -20493,7 +20497,7 @@
       </c>
       <c r="L579" s="10"/>
     </row>
-    <row r="580" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="580" spans="1:12" ht="14.45" x14ac:dyDescent="0.2">
       <c r="A580" s="22">
         <v>579</v>
       </c>
@@ -20520,7 +20524,7 @@
       </c>
       <c r="L580" s="10"/>
     </row>
-    <row r="581" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="581" spans="1:12" ht="14.45" x14ac:dyDescent="0.2">
       <c r="A581" s="22">
         <v>580</v>
       </c>
@@ -20547,7 +20551,7 @@
       </c>
       <c r="L581" s="10"/>
     </row>
-    <row r="582" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="582" spans="1:12" ht="14.45" x14ac:dyDescent="0.2">
       <c r="A582" s="22">
         <v>581</v>
       </c>
@@ -20574,7 +20578,7 @@
       </c>
       <c r="L582" s="10"/>
     </row>
-    <row r="583" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="583" spans="1:12" ht="14.45" x14ac:dyDescent="0.2">
       <c r="A583" s="22">
         <v>582</v>
       </c>
@@ -20601,7 +20605,7 @@
       </c>
       <c r="L583" s="10"/>
     </row>
-    <row r="584" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="584" spans="1:12" ht="14.45" x14ac:dyDescent="0.2">
       <c r="A584" s="22">
         <v>583</v>
       </c>
@@ -20634,7 +20638,7 @@
       </c>
       <c r="L584" s="10"/>
     </row>
-    <row r="585" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="585" spans="1:12" ht="14.45" x14ac:dyDescent="0.2">
       <c r="A585" s="22">
         <v>584</v>
       </c>
@@ -20661,7 +20665,7 @@
       </c>
       <c r="L585" s="10"/>
     </row>
-    <row r="586" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="586" spans="1:12" ht="14.45" x14ac:dyDescent="0.2">
       <c r="A586" s="22">
         <v>585</v>
       </c>
@@ -20688,7 +20692,7 @@
       </c>
       <c r="L586" s="10"/>
     </row>
-    <row r="587" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="587" spans="1:12" ht="14.45" x14ac:dyDescent="0.2">
       <c r="A587" s="22">
         <v>586</v>
       </c>
@@ -20715,7 +20719,7 @@
       </c>
       <c r="L587" s="10"/>
     </row>
-    <row r="588" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="588" spans="1:12" ht="14.45" x14ac:dyDescent="0.2">
       <c r="A588" s="22">
         <v>587</v>
       </c>
@@ -20742,7 +20746,7 @@
       </c>
       <c r="L588" s="10"/>
     </row>
-    <row r="589" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="589" spans="1:12" ht="14.45" x14ac:dyDescent="0.2">
       <c r="A589" s="22">
         <v>588</v>
       </c>
@@ -20769,7 +20773,7 @@
       </c>
       <c r="L589" s="10"/>
     </row>
-    <row r="590" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="590" spans="1:12" ht="14.45" x14ac:dyDescent="0.2">
       <c r="A590" s="22">
         <v>589</v>
       </c>
@@ -20796,7 +20800,7 @@
       </c>
       <c r="L590" s="10"/>
     </row>
-    <row r="591" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="591" spans="1:12" ht="14.45" x14ac:dyDescent="0.2">
       <c r="A591" s="22">
         <v>590</v>
       </c>
@@ -20823,7 +20827,7 @@
       </c>
       <c r="L591" s="10"/>
     </row>
-    <row r="592" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="592" spans="1:12" ht="14.45" x14ac:dyDescent="0.2">
       <c r="A592" s="22">
         <v>591</v>
       </c>
@@ -20850,7 +20854,7 @@
       </c>
       <c r="L592" s="10"/>
     </row>
-    <row r="593" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="593" spans="1:12" ht="14.45" x14ac:dyDescent="0.2">
       <c r="A593" s="22">
         <v>592</v>
       </c>
@@ -20877,7 +20881,7 @@
       </c>
       <c r="L593" s="10"/>
     </row>
-    <row r="594" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="594" spans="1:12" ht="14.45" x14ac:dyDescent="0.2">
       <c r="A594" s="22">
         <v>593</v>
       </c>
@@ -20904,7 +20908,7 @@
       </c>
       <c r="L594" s="10"/>
     </row>
-    <row r="595" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="595" spans="1:12" ht="14.45" x14ac:dyDescent="0.2">
       <c r="A595" s="22">
         <v>594</v>
       </c>
@@ -20931,7 +20935,7 @@
       </c>
       <c r="L595" s="10"/>
     </row>
-    <row r="596" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="596" spans="1:12" ht="14.45" x14ac:dyDescent="0.2">
       <c r="A596" s="22">
         <v>595</v>
       </c>
@@ -20958,7 +20962,7 @@
       </c>
       <c r="L596" s="10"/>
     </row>
-    <row r="597" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="597" spans="1:12" ht="14.45" x14ac:dyDescent="0.2">
       <c r="A597" s="22">
         <v>596</v>
       </c>
@@ -20985,7 +20989,7 @@
       </c>
       <c r="L597" s="10"/>
     </row>
-    <row r="598" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="598" spans="1:12" ht="14.45" x14ac:dyDescent="0.2">
       <c r="A598" s="22">
         <v>597</v>
       </c>
@@ -21012,7 +21016,7 @@
       </c>
       <c r="L598" s="10"/>
     </row>
-    <row r="599" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="599" spans="1:12" ht="14.45" x14ac:dyDescent="0.2">
       <c r="A599" s="22">
         <v>598</v>
       </c>
@@ -21039,7 +21043,7 @@
       </c>
       <c r="L599" s="10"/>
     </row>
-    <row r="600" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="600" spans="1:12" ht="14.45" x14ac:dyDescent="0.2">
       <c r="A600" s="22">
         <v>599</v>
       </c>
@@ -21066,7 +21070,7 @@
       </c>
       <c r="L600" s="10"/>
     </row>
-    <row r="601" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="601" spans="1:12" ht="14.45" x14ac:dyDescent="0.2">
       <c r="A601" s="22">
         <v>600</v>
       </c>
@@ -21093,7 +21097,7 @@
       </c>
       <c r="L601" s="10"/>
     </row>
-    <row r="602" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="602" spans="1:12" ht="14.45" x14ac:dyDescent="0.2">
       <c r="A602" s="22">
         <v>601</v>
       </c>
@@ -21120,7 +21124,7 @@
       </c>
       <c r="L602" s="10"/>
     </row>
-    <row r="603" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="603" spans="1:12" ht="14.45" x14ac:dyDescent="0.2">
       <c r="A603" s="22">
         <v>602</v>
       </c>
@@ -21147,7 +21151,7 @@
       </c>
       <c r="L603" s="10"/>
     </row>
-    <row r="604" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="604" spans="1:12" ht="14.45" x14ac:dyDescent="0.2">
       <c r="A604" s="22">
         <v>603</v>
       </c>
@@ -21174,7 +21178,7 @@
       </c>
       <c r="L604" s="10"/>
     </row>
-    <row r="605" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="605" spans="1:12" ht="14.45" x14ac:dyDescent="0.2">
       <c r="A605" s="22">
         <v>604</v>
       </c>
@@ -21201,7 +21205,7 @@
       </c>
       <c r="L605" s="10"/>
     </row>
-    <row r="606" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="606" spans="1:12" ht="14.45" x14ac:dyDescent="0.2">
       <c r="A606" s="22">
         <v>605</v>
       </c>
@@ -21228,7 +21232,7 @@
       </c>
       <c r="L606" s="10"/>
     </row>
-    <row r="607" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="607" spans="1:12" ht="14.45" x14ac:dyDescent="0.2">
       <c r="A607" s="22">
         <v>606</v>
       </c>
@@ -21261,7 +21265,7 @@
       </c>
       <c r="L607" s="10"/>
     </row>
-    <row r="608" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="608" spans="1:12" ht="14.45" x14ac:dyDescent="0.2">
       <c r="A608" s="22">
         <v>607</v>
       </c>
@@ -21294,7 +21298,7 @@
       </c>
       <c r="L608" s="10"/>
     </row>
-    <row r="609" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="609" spans="1:12" ht="14.45" x14ac:dyDescent="0.2">
       <c r="A609" s="22">
         <v>608</v>
       </c>
@@ -21321,7 +21325,7 @@
       </c>
       <c r="L609" s="10"/>
     </row>
-    <row r="610" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="610" spans="1:12" ht="14.45" x14ac:dyDescent="0.2">
       <c r="A610" s="22">
         <v>609</v>
       </c>
@@ -21354,7 +21358,7 @@
       </c>
       <c r="L610" s="10"/>
     </row>
-    <row r="611" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="611" spans="1:12" ht="14.45" x14ac:dyDescent="0.2">
       <c r="A611" s="22">
         <v>610</v>
       </c>
@@ -21381,7 +21385,7 @@
       </c>
       <c r="L611" s="10"/>
     </row>
-    <row r="612" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="612" spans="1:12" ht="14.45" x14ac:dyDescent="0.2">
       <c r="A612" s="22">
         <v>611</v>
       </c>
@@ -21408,7 +21412,7 @@
       </c>
       <c r="L612" s="10"/>
     </row>
-    <row r="613" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="613" spans="1:12" ht="14.45" x14ac:dyDescent="0.2">
       <c r="A613" s="22">
         <v>612</v>
       </c>
@@ -21441,7 +21445,7 @@
       </c>
       <c r="L613" s="10"/>
     </row>
-    <row r="614" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="614" spans="1:12" ht="14.45" x14ac:dyDescent="0.2">
       <c r="A614" s="22">
         <v>613</v>
       </c>
@@ -21474,7 +21478,7 @@
       </c>
       <c r="L614" s="10"/>
     </row>
-    <row r="615" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="615" spans="1:12" ht="14.45" x14ac:dyDescent="0.2">
       <c r="A615" s="22">
         <v>614</v>
       </c>
@@ -21510,7 +21514,7 @@
       </c>
       <c r="L615" s="10"/>
     </row>
-    <row r="616" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="616" spans="1:12" ht="14.45" x14ac:dyDescent="0.2">
       <c r="A616" s="22">
         <v>615</v>
       </c>
@@ -21543,7 +21547,7 @@
       </c>
       <c r="L616" s="10"/>
     </row>
-    <row r="617" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="617" spans="1:12" ht="14.45" x14ac:dyDescent="0.2">
       <c r="A617" s="22">
         <v>616</v>
       </c>
@@ -21573,7 +21577,7 @@
       </c>
       <c r="L617" s="10"/>
     </row>
-    <row r="618" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="618" spans="1:12" ht="14.45" x14ac:dyDescent="0.2">
       <c r="A618" s="22">
         <v>617</v>
       </c>
@@ -21600,7 +21604,7 @@
       </c>
       <c r="L618" s="10"/>
     </row>
-    <row r="619" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="619" spans="1:12" ht="14.45" x14ac:dyDescent="0.2">
       <c r="A619" s="22">
         <v>618</v>
       </c>
@@ -21627,7 +21631,7 @@
       </c>
       <c r="L619" s="10"/>
     </row>
-    <row r="620" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="620" spans="1:12" ht="14.45" x14ac:dyDescent="0.2">
       <c r="A620" s="22">
         <v>619</v>
       </c>
@@ -21654,7 +21658,7 @@
       </c>
       <c r="L620" s="10"/>
     </row>
-    <row r="621" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="621" spans="1:12" ht="14.45" x14ac:dyDescent="0.2">
       <c r="A621" s="22">
         <v>620</v>
       </c>
@@ -21681,7 +21685,7 @@
       </c>
       <c r="K621" s="10"/>
     </row>
-    <row r="622" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="622" spans="1:12" ht="14.45" x14ac:dyDescent="0.2">
       <c r="A622" s="22">
         <v>621</v>
       </c>
@@ -21708,7 +21712,7 @@
       </c>
       <c r="K622" s="10"/>
     </row>
-    <row r="623" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="623" spans="1:12" ht="14.45" x14ac:dyDescent="0.2">
       <c r="A623" s="22">
         <v>622</v>
       </c>
@@ -21735,7 +21739,7 @@
       </c>
       <c r="K623" s="10"/>
     </row>
-    <row r="624" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="624" spans="1:12" ht="14.45" x14ac:dyDescent="0.2">
       <c r="A624" s="22">
         <v>623</v>
       </c>
@@ -21762,7 +21766,7 @@
       </c>
       <c r="K624" s="10"/>
     </row>
-    <row r="625" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="625" spans="1:11" ht="14.45" x14ac:dyDescent="0.2">
       <c r="A625" s="22">
         <v>624</v>
       </c>
@@ -21789,7 +21793,7 @@
       </c>
       <c r="K625" s="10"/>
     </row>
-    <row r="626" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="626" spans="1:11" ht="14.45" x14ac:dyDescent="0.2">
       <c r="A626" s="22">
         <v>625</v>
       </c>
@@ -21816,7 +21820,7 @@
       </c>
       <c r="K626" s="10"/>
     </row>
-    <row r="627" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="627" spans="1:11" ht="14.45" x14ac:dyDescent="0.2">
       <c r="A627" s="22">
         <v>626</v>
       </c>
@@ -21843,7 +21847,7 @@
       </c>
       <c r="K627" s="10"/>
     </row>
-    <row r="628" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="628" spans="1:11" ht="14.45" x14ac:dyDescent="0.2">
       <c r="A628" s="22">
         <v>627</v>
       </c>
@@ -21870,7 +21874,7 @@
       </c>
       <c r="K628" s="10"/>
     </row>
-    <row r="629" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="629" spans="1:11" ht="14.45" x14ac:dyDescent="0.2">
       <c r="A629" s="22">
         <v>628</v>
       </c>
@@ -21897,7 +21901,7 @@
       </c>
       <c r="K629" s="10"/>
     </row>
-    <row r="630" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="630" spans="1:11" ht="14.45" x14ac:dyDescent="0.2">
       <c r="A630" s="22">
         <v>629</v>
       </c>
@@ -21924,7 +21928,7 @@
       </c>
       <c r="K630" s="10"/>
     </row>
-    <row r="631" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="631" spans="1:11" ht="14.45" x14ac:dyDescent="0.2">
       <c r="A631" s="22">
         <v>630</v>
       </c>
@@ -21951,7 +21955,7 @@
       </c>
       <c r="K631" s="10"/>
     </row>
-    <row r="632" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="632" spans="1:11" ht="14.45" x14ac:dyDescent="0.2">
       <c r="A632" s="22">
         <v>631</v>
       </c>
@@ -21978,7 +21982,7 @@
       </c>
       <c r="K632" s="10"/>
     </row>
-    <row r="633" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="633" spans="1:11" ht="14.45" x14ac:dyDescent="0.2">
       <c r="A633" s="22">
         <v>632</v>
       </c>
@@ -22005,7 +22009,7 @@
       </c>
       <c r="K633" s="10"/>
     </row>
-    <row r="634" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="634" spans="1:11" ht="14.45" x14ac:dyDescent="0.2">
       <c r="A634" s="22">
         <v>633</v>
       </c>
@@ -22032,7 +22036,7 @@
       </c>
       <c r="K634" s="10"/>
     </row>
-    <row r="635" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="635" spans="1:11" ht="14.45" x14ac:dyDescent="0.2">
       <c r="A635" s="22">
         <v>634</v>
       </c>
@@ -22059,7 +22063,7 @@
       </c>
       <c r="K635" s="10"/>
     </row>
-    <row r="636" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="636" spans="1:11" ht="14.45" x14ac:dyDescent="0.2">
       <c r="A636" s="22">
         <v>635</v>
       </c>
@@ -22086,7 +22090,7 @@
       </c>
       <c r="K636" s="10"/>
     </row>
-    <row r="637" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="637" spans="1:11" ht="14.45" x14ac:dyDescent="0.2">
       <c r="A637" s="22">
         <v>636</v>
       </c>
@@ -22113,7 +22117,7 @@
       </c>
       <c r="K637" s="10"/>
     </row>
-    <row r="638" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="638" spans="1:11" ht="14.45" x14ac:dyDescent="0.2">
       <c r="A638" s="22">
         <v>637</v>
       </c>
@@ -22140,7 +22144,7 @@
       </c>
       <c r="K638" s="10"/>
     </row>
-    <row r="639" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="639" spans="1:11" ht="14.45" x14ac:dyDescent="0.2">
       <c r="A639" s="22">
         <v>638</v>
       </c>
@@ -22167,7 +22171,7 @@
       </c>
       <c r="K639" s="10"/>
     </row>
-    <row r="640" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="640" spans="1:11" ht="14.45" x14ac:dyDescent="0.2">
       <c r="A640" s="22">
         <v>639</v>
       </c>
@@ -22194,7 +22198,7 @@
       </c>
       <c r="K640" s="10"/>
     </row>
-    <row r="641" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="641" spans="1:11" ht="14.45" x14ac:dyDescent="0.2">
       <c r="A641" s="22">
         <v>640</v>
       </c>
@@ -22221,7 +22225,7 @@
       </c>
       <c r="K641" s="10"/>
     </row>
-    <row r="642" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="642" spans="1:11" ht="14.45" x14ac:dyDescent="0.2">
       <c r="A642" s="22">
         <v>641</v>
       </c>
@@ -22248,7 +22252,7 @@
       </c>
       <c r="K642" s="10"/>
     </row>
-    <row r="643" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="643" spans="1:11" ht="14.45" x14ac:dyDescent="0.2">
       <c r="A643" s="22">
         <v>642</v>
       </c>
@@ -22275,7 +22279,7 @@
       </c>
       <c r="K643" s="10"/>
     </row>
-    <row r="644" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="644" spans="1:11" ht="14.45" x14ac:dyDescent="0.2">
       <c r="A644" s="22">
         <v>643</v>
       </c>
@@ -22302,7 +22306,7 @@
       </c>
       <c r="K644" s="10"/>
     </row>
-    <row r="645" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="645" spans="1:11" ht="14.45" x14ac:dyDescent="0.2">
       <c r="A645" s="22">
         <v>644</v>
       </c>
@@ -22329,7 +22333,7 @@
       </c>
       <c r="K645" s="10"/>
     </row>
-    <row r="646" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="646" spans="1:11" ht="14.45" x14ac:dyDescent="0.2">
       <c r="A646" s="22">
         <v>645</v>
       </c>
@@ -22362,7 +22366,7 @@
       </c>
       <c r="K646" s="10"/>
     </row>
-    <row r="647" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="647" spans="1:11" ht="14.45" x14ac:dyDescent="0.2">
       <c r="A647" s="22">
         <v>646</v>
       </c>
@@ -22389,7 +22393,7 @@
       </c>
       <c r="K647" s="10"/>
     </row>
-    <row r="648" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="648" spans="1:11" ht="14.45" x14ac:dyDescent="0.2">
       <c r="A648" s="22">
         <v>647</v>
       </c>
@@ -22416,7 +22420,7 @@
       </c>
       <c r="K648" s="10"/>
     </row>
-    <row r="649" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="649" spans="1:11" ht="14.45" x14ac:dyDescent="0.2">
       <c r="A649" s="22">
         <v>648</v>
       </c>
@@ -22449,7 +22453,7 @@
       </c>
       <c r="K649" s="10"/>
     </row>
-    <row r="650" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="650" spans="1:11" ht="14.45" x14ac:dyDescent="0.2">
       <c r="A650" s="22">
         <v>649</v>
       </c>
@@ -22476,7 +22480,7 @@
       </c>
       <c r="K650" s="10"/>
     </row>
-    <row r="651" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="651" spans="1:11" ht="14.45" x14ac:dyDescent="0.2">
       <c r="A651" s="22">
         <v>650</v>
       </c>
@@ -24828,7 +24832,7 @@
       <formula1>1</formula1>
       <formula2>10000</formula2>
     </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F4:F1048576" xr:uid="{FB0380DA-17B9-4465-8DA2-9955BBCA70DA}">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F1048576" xr:uid="{FB0380DA-17B9-4465-8DA2-9955BBCA70DA}">
       <formula1>1</formula1>
       <formula2>20</formula2>
     </dataValidation>
@@ -24870,21 +24874,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:V74"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C53" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="C32" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
       <selection pane="bottomRight" activeCell="D72" sqref="D72"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="9" width="11.5546875" style="2"/>
-    <col min="10" max="22" width="16.6640625" style="2" customWidth="1"/>
-    <col min="23" max="16384" width="11.5546875" style="2"/>
+    <col min="1" max="9" width="11.5703125" style="2"/>
+    <col min="10" max="22" width="16.7109375" style="2" customWidth="1"/>
+    <col min="23" max="16384" width="11.5703125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:22" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="19" t="s">
         <v>39</v>
       </c>
@@ -24952,7 +24956,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="2" spans="1:22" ht="15" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -25016,7 +25020,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="3" spans="1:22" ht="15" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A3" s="2">
         <v>2</v>
       </c>
@@ -25072,7 +25076,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="4" spans="1:22" ht="15" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A4" s="2">
         <v>3</v>
       </c>
@@ -25130,7 +25134,7 @@
       <c r="U4" s="10"/>
       <c r="V4" s="10"/>
     </row>
-    <row r="5" spans="1:22" ht="15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A5" s="2">
         <v>4</v>
       </c>
@@ -25186,7 +25190,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="6" spans="1:22" ht="15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A6" s="2">
         <v>5</v>
       </c>
@@ -25240,7 +25244,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="7" spans="1:22" ht="15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A7" s="2">
         <v>6</v>
       </c>
@@ -25300,7 +25304,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="8" spans="1:22" ht="15" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A8" s="2">
         <v>7</v>
       </c>
@@ -25358,7 +25362,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="9" spans="1:22" ht="15" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A9" s="2">
         <v>8</v>
       </c>
@@ -25418,7 +25422,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="10" spans="1:22" ht="15" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A10" s="2">
         <v>9</v>
       </c>
@@ -25476,7 +25480,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="11" spans="1:22" ht="15" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A11" s="2">
         <v>10</v>
       </c>
@@ -25536,7 +25540,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="12" spans="1:22" ht="15" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A12" s="2">
         <v>11</v>
       </c>
@@ -25596,7 +25600,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="13" spans="1:22" ht="15" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A13" s="2">
         <v>12</v>
       </c>
@@ -25650,7 +25654,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="14" spans="1:22" ht="15" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A14" s="2">
         <v>13</v>
       </c>
@@ -25704,7 +25708,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="15" spans="1:22" ht="15" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A15" s="2">
         <v>14</v>
       </c>
@@ -25764,7 +25768,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="16" spans="1:22" ht="15" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A16" s="2">
         <v>15</v>
       </c>
@@ -25816,7 +25820,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="17" spans="1:22" ht="15" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A17" s="2">
         <v>16</v>
       </c>
@@ -25870,7 +25874,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="18" spans="1:22" ht="15" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A18" s="2">
         <v>17</v>
       </c>
@@ -25924,7 +25928,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="19" spans="1:22" ht="15" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A19" s="2">
         <v>18</v>
       </c>
@@ -25984,7 +25988,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="20" spans="1:22" ht="15" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A20" s="2">
         <v>19</v>
       </c>
@@ -26044,7 +26048,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="21" spans="1:22" ht="15" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A21" s="2">
         <v>20</v>
       </c>
@@ -26098,7 +26102,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="22" spans="1:22" ht="15" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A22" s="2">
         <v>21</v>
       </c>
@@ -26152,7 +26156,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="23" spans="1:22" ht="15" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A23" s="2">
         <v>22</v>
       </c>
@@ -26204,7 +26208,7 @@
       <c r="U23" s="10"/>
       <c r="V23" s="10"/>
     </row>
-    <row r="24" spans="1:22" ht="15" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A24" s="2">
         <v>23</v>
       </c>
@@ -26262,7 +26266,7 @@
       <c r="U24" s="10"/>
       <c r="V24" s="10"/>
     </row>
-    <row r="25" spans="1:22" ht="15" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A25" s="2">
         <v>24</v>
       </c>
@@ -26314,7 +26318,7 @@
       <c r="U25" s="10"/>
       <c r="V25" s="10"/>
     </row>
-    <row r="26" spans="1:22" ht="15" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A26" s="2">
         <v>25</v>
       </c>
@@ -26366,7 +26370,7 @@
       <c r="U26" s="10"/>
       <c r="V26" s="10"/>
     </row>
-    <row r="27" spans="1:22" ht="15" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A27" s="2">
         <v>26</v>
       </c>
@@ -26422,7 +26426,7 @@
       <c r="U27" s="10"/>
       <c r="V27" s="10"/>
     </row>
-    <row r="28" spans="1:22" ht="15" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A28" s="2">
         <v>27</v>
       </c>
@@ -26480,7 +26484,7 @@
       <c r="U28" s="10"/>
       <c r="V28" s="10"/>
     </row>
-    <row r="29" spans="1:22" ht="15" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A29" s="2">
         <v>28</v>
       </c>
@@ -26532,7 +26536,7 @@
       <c r="U29" s="10"/>
       <c r="V29" s="10"/>
     </row>
-    <row r="30" spans="1:22" ht="15" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A30" s="2">
         <v>29</v>
       </c>
@@ -26584,7 +26588,7 @@
       <c r="U30" s="10"/>
       <c r="V30" s="10"/>
     </row>
-    <row r="31" spans="1:22" ht="15" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A31" s="2">
         <v>30</v>
       </c>
@@ -26636,7 +26640,7 @@
       <c r="U31" s="10"/>
       <c r="V31" s="10"/>
     </row>
-    <row r="32" spans="1:22" ht="15" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A32" s="2">
         <v>31</v>
       </c>
@@ -26688,7 +26692,7 @@
       <c r="U32" s="10"/>
       <c r="V32" s="10"/>
     </row>
-    <row r="33" spans="1:22" ht="15" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A33" s="2">
         <v>32</v>
       </c>
@@ -26746,7 +26750,7 @@
       <c r="U33" s="10"/>
       <c r="V33" s="10"/>
     </row>
-    <row r="34" spans="1:22" ht="15" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A34" s="2">
         <v>33</v>
       </c>
@@ -26798,7 +26802,7 @@
       <c r="U34" s="10"/>
       <c r="V34" s="10"/>
     </row>
-    <row r="35" spans="1:22" ht="15" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A35" s="2">
         <v>34</v>
       </c>
@@ -29128,14 +29132,14 @@
       <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.5546875" style="2"/>
-    <col min="2" max="2" width="20.88671875" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="11.5546875" style="2"/>
+    <col min="1" max="1" width="11.5703125" style="2"/>
+    <col min="2" max="2" width="20.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="11.5703125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>19</v>
       </c>
@@ -29143,7 +29147,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>29</v>
       </c>
@@ -29151,7 +29155,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>30</v>
       </c>
@@ -29173,12 +29177,12 @@
       <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="11.5546875" style="2"/>
+    <col min="1" max="16384" width="11.5703125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>13</v>
       </c>
@@ -29186,7 +29190,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>16</v>
       </c>
@@ -29194,7 +29198,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>15</v>
       </c>
@@ -29202,7 +29206,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>32</v>
       </c>
@@ -29210,7 +29214,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>33</v>
       </c>
@@ -29218,7 +29222,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>76</v>
       </c>
@@ -29226,7 +29230,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>20</v>
       </c>
@@ -29234,7 +29238,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>0</v>
       </c>
@@ -29256,14 +29260,14 @@
       <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.5546875" style="2"/>
+    <col min="1" max="1" width="11.5703125" style="2"/>
     <col min="2" max="2" width="15" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="11.5546875" style="2"/>
+    <col min="3" max="16384" width="11.5703125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>25</v>
       </c>
@@ -29271,7 +29275,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>22</v>
       </c>
@@ -29279,7 +29283,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>23</v>
       </c>
@@ -29287,7 +29291,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>28</v>
       </c>
@@ -29308,9 +29312,9 @@
       <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A1" s="10"/>
       <c r="B1" s="10"/>
       <c r="C1" s="10"/>
@@ -29342,7 +29346,7 @@
       <c r="Z1" s="10"/>
       <c r="AA1" s="10"/>
     </row>
-    <row r="2" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A2" s="9"/>
       <c r="B2" s="10"/>
       <c r="C2" s="11"/>
@@ -29374,7 +29378,7 @@
       <c r="Z2" s="10"/>
       <c r="AA2" s="10"/>
     </row>
-    <row r="3" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A3" s="9"/>
       <c r="B3" s="10"/>
       <c r="C3" s="11"/>
@@ -29406,7 +29410,7 @@
       <c r="Z3" s="10"/>
       <c r="AA3" s="10"/>
     </row>
-    <row r="4" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A4" s="10"/>
       <c r="B4" s="10"/>
       <c r="C4" s="11"/>
@@ -29433,7 +29437,7 @@
       <c r="Z4" s="10"/>
       <c r="AA4" s="10"/>
     </row>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A5" s="9"/>
       <c r="B5" s="10"/>
       <c r="C5" s="11"/>
@@ -29460,7 +29464,7 @@
       <c r="Z5" s="10"/>
       <c r="AA5" s="10"/>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A6" s="9"/>
       <c r="B6" s="10"/>
       <c r="C6" s="11"/>
@@ -29487,7 +29491,7 @@
       <c r="Z6" s="10"/>
       <c r="AA6" s="10"/>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A7" s="9"/>
       <c r="B7" s="10"/>
       <c r="C7" s="11"/>
@@ -29514,7 +29518,7 @@
       <c r="Z7" s="10"/>
       <c r="AA7" s="10"/>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A8" s="9"/>
       <c r="B8" s="10"/>
       <c r="C8" s="11"/>
@@ -29541,7 +29545,7 @@
       <c r="Z8" s="10"/>
       <c r="AA8" s="10"/>
     </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A9" s="9"/>
       <c r="B9" s="10"/>
       <c r="C9" s="11"/>
@@ -29568,7 +29572,7 @@
       <c r="Z9" s="10"/>
       <c r="AA9" s="10"/>
     </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A10" s="9"/>
       <c r="B10" s="10"/>
       <c r="C10" s="11"/>
@@ -29595,7 +29599,7 @@
       <c r="Z10" s="10"/>
       <c r="AA10" s="10"/>
     </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A11" s="9"/>
       <c r="B11" s="10"/>
       <c r="C11" s="11"/>
@@ -29622,7 +29626,7 @@
       <c r="Z11" s="10"/>
       <c r="AA11" s="10"/>
     </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A12" s="9"/>
       <c r="B12" s="10"/>
       <c r="C12" s="11"/>
@@ -29649,7 +29653,7 @@
       <c r="Z12" s="10"/>
       <c r="AA12" s="10"/>
     </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A13" s="9"/>
       <c r="B13" s="10"/>
       <c r="C13" s="11"/>
@@ -29676,7 +29680,7 @@
       <c r="Z13" s="10"/>
       <c r="AA13" s="10"/>
     </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A14" s="9"/>
       <c r="B14" s="10"/>
       <c r="C14" s="11"/>
@@ -29703,7 +29707,7 @@
       <c r="Z14" s="10"/>
       <c r="AA14" s="10"/>
     </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A15" s="9"/>
       <c r="B15" s="10"/>
       <c r="C15" s="11"/>
@@ -29730,7 +29734,7 @@
       <c r="Z15" s="10"/>
       <c r="AA15" s="10"/>
     </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A16" s="9"/>
       <c r="B16" s="10"/>
       <c r="C16" s="11"/>
@@ -29757,7 +29761,7 @@
       <c r="Z16" s="10"/>
       <c r="AA16" s="10"/>
     </row>
-    <row r="17" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A17" s="9"/>
       <c r="B17" s="10"/>
       <c r="C17" s="11"/>
@@ -29784,7 +29788,7 @@
       <c r="Z17" s="10"/>
       <c r="AA17" s="10"/>
     </row>
-    <row r="18" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A18" s="9"/>
       <c r="B18" s="10"/>
       <c r="C18" s="11"/>
@@ -29811,7 +29815,7 @@
       <c r="Z18" s="10"/>
       <c r="AA18" s="10"/>
     </row>
-    <row r="19" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A19" s="9"/>
       <c r="B19" s="10"/>
       <c r="C19" s="11"/>
@@ -29838,7 +29842,7 @@
       <c r="Z19" s="10"/>
       <c r="AA19" s="10"/>
     </row>
-    <row r="20" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A20" s="9"/>
       <c r="B20" s="10"/>
       <c r="C20" s="11"/>
@@ -29865,7 +29869,7 @@
       <c r="Z20" s="10"/>
       <c r="AA20" s="10"/>
     </row>
-    <row r="21" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A21" s="9"/>
       <c r="B21" s="10"/>
       <c r="C21" s="11"/>
@@ -29892,7 +29896,7 @@
       <c r="Z21" s="10"/>
       <c r="AA21" s="10"/>
     </row>
-    <row r="22" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A22" s="9"/>
       <c r="B22" s="10"/>
       <c r="C22" s="11"/>
@@ -29919,7 +29923,7 @@
       <c r="Z22" s="10"/>
       <c r="AA22" s="10"/>
     </row>
-    <row r="23" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A23" s="10"/>
       <c r="B23" s="10"/>
       <c r="C23" s="11"/>
@@ -29946,7 +29950,7 @@
       <c r="Z23" s="10"/>
       <c r="AA23" s="10"/>
     </row>
-    <row r="24" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A24" s="10"/>
       <c r="B24" s="10"/>
       <c r="C24" s="11"/>
@@ -29973,7 +29977,7 @@
       <c r="Z24" s="10"/>
       <c r="AA24" s="10"/>
     </row>
-    <row r="25" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A25" s="10"/>
       <c r="B25" s="10"/>
       <c r="C25" s="11"/>
@@ -30000,7 +30004,7 @@
       <c r="Z25" s="10"/>
       <c r="AA25" s="10"/>
     </row>
-    <row r="26" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A26" s="10"/>
       <c r="B26" s="10"/>
       <c r="C26" s="11"/>
@@ -30027,7 +30031,7 @@
       <c r="Z26" s="10"/>
       <c r="AA26" s="10"/>
     </row>
-    <row r="27" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A27" s="10"/>
       <c r="B27" s="10"/>
       <c r="C27" s="11"/>
@@ -30054,7 +30058,7 @@
       <c r="Z27" s="10"/>
       <c r="AA27" s="10"/>
     </row>
-    <row r="28" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A28" s="10"/>
       <c r="B28" s="10"/>
       <c r="C28" s="11"/>
@@ -30081,7 +30085,7 @@
       <c r="Z28" s="10"/>
       <c r="AA28" s="10"/>
     </row>
-    <row r="29" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A29" s="10"/>
       <c r="B29" s="10"/>
       <c r="C29" s="11"/>
@@ -30108,7 +30112,7 @@
       <c r="Z29" s="10"/>
       <c r="AA29" s="10"/>
     </row>
-    <row r="30" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A30" s="10"/>
       <c r="B30" s="10"/>
       <c r="C30" s="11"/>
@@ -30135,7 +30139,7 @@
       <c r="Z30" s="10"/>
       <c r="AA30" s="10"/>
     </row>
-    <row r="31" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A31" s="10"/>
       <c r="B31" s="10"/>
       <c r="C31" s="11"/>
@@ -30162,7 +30166,7 @@
       <c r="Z31" s="10"/>
       <c r="AA31" s="10"/>
     </row>
-    <row r="32" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A32" s="10"/>
       <c r="B32" s="10"/>
       <c r="C32" s="11"/>
@@ -30189,7 +30193,7 @@
       <c r="Z32" s="10"/>
       <c r="AA32" s="10"/>
     </row>
-    <row r="33" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A33" s="10"/>
       <c r="B33" s="10"/>
       <c r="C33" s="11"/>
@@ -30216,7 +30220,7 @@
       <c r="Z33" s="10"/>
       <c r="AA33" s="10"/>
     </row>
-    <row r="34" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A34" s="10"/>
       <c r="B34" s="10"/>
       <c r="C34" s="11"/>
@@ -30243,7 +30247,7 @@
       <c r="Z34" s="10"/>
       <c r="AA34" s="10"/>
     </row>
-    <row r="35" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A35" s="14"/>
       <c r="B35" s="10"/>
       <c r="C35" s="11"/>
@@ -30270,7 +30274,7 @@
       <c r="Z35" s="10"/>
       <c r="AA35" s="10"/>
     </row>
-    <row r="36" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A36" s="14"/>
       <c r="B36" s="10"/>
       <c r="C36" s="11"/>
@@ -30297,7 +30301,7 @@
       <c r="Z36" s="10"/>
       <c r="AA36" s="10"/>
     </row>
-    <row r="37" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A37" s="14"/>
       <c r="B37" s="10"/>
       <c r="C37" s="11"/>
@@ -30324,7 +30328,7 @@
       <c r="Z37" s="10"/>
       <c r="AA37" s="10"/>
     </row>
-    <row r="38" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A38" s="14"/>
       <c r="B38" s="10"/>
       <c r="C38" s="11"/>
@@ -30351,7 +30355,7 @@
       <c r="Z38" s="10"/>
       <c r="AA38" s="10"/>
     </row>
-    <row r="39" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A39" s="14"/>
       <c r="B39" s="10"/>
       <c r="C39" s="11"/>
@@ -30378,7 +30382,7 @@
       <c r="Z39" s="10"/>
       <c r="AA39" s="10"/>
     </row>
-    <row r="40" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A40" s="14"/>
       <c r="B40" s="10"/>
       <c r="C40" s="11"/>
@@ -30405,7 +30409,7 @@
       <c r="Z40" s="10"/>
       <c r="AA40" s="10"/>
     </row>
-    <row r="41" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A41" s="14"/>
       <c r="B41" s="10"/>
       <c r="C41" s="11"/>
@@ -30432,7 +30436,7 @@
       <c r="Z41" s="10"/>
       <c r="AA41" s="10"/>
     </row>
-    <row r="42" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A42" s="14"/>
       <c r="B42" s="10"/>
       <c r="C42" s="11"/>
@@ -30459,7 +30463,7 @@
       <c r="Z42" s="10"/>
       <c r="AA42" s="10"/>
     </row>
-    <row r="43" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A43" s="14"/>
       <c r="B43" s="10"/>
       <c r="C43" s="11"/>
@@ -30486,7 +30490,7 @@
       <c r="Z43" s="10"/>
       <c r="AA43" s="10"/>
     </row>
-    <row r="44" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A44" s="14"/>
       <c r="B44" s="10"/>
       <c r="C44" s="11"/>
@@ -30513,7 +30517,7 @@
       <c r="Z44" s="10"/>
       <c r="AA44" s="10"/>
     </row>
-    <row r="45" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A45" s="14"/>
       <c r="B45" s="10"/>
       <c r="C45" s="11"/>
@@ -30540,7 +30544,7 @@
       <c r="Z45" s="10"/>
       <c r="AA45" s="10"/>
     </row>
-    <row r="46" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A46" s="16"/>
       <c r="B46" s="10"/>
       <c r="C46" s="11"/>
@@ -30567,7 +30571,7 @@
       <c r="Z46" s="10"/>
       <c r="AA46" s="10"/>
     </row>
-    <row r="47" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A47" s="14"/>
       <c r="B47" s="10"/>
       <c r="C47" s="11"/>
@@ -30594,7 +30598,7 @@
       <c r="Z47" s="10"/>
       <c r="AA47" s="10"/>
     </row>
-    <row r="48" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A48" s="14"/>
       <c r="B48" s="10"/>
       <c r="C48" s="11"/>
@@ -30621,7 +30625,7 @@
       <c r="Z48" s="10"/>
       <c r="AA48" s="10"/>
     </row>
-    <row r="49" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A49" s="14"/>
       <c r="B49" s="10"/>
       <c r="C49" s="11"/>
@@ -30648,7 +30652,7 @@
       <c r="Z49" s="10"/>
       <c r="AA49" s="10"/>
     </row>
-    <row r="50" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A50" s="14"/>
       <c r="B50" s="10"/>
       <c r="C50" s="11"/>
@@ -30675,7 +30679,7 @@
       <c r="Z50" s="10"/>
       <c r="AA50" s="10"/>
     </row>
-    <row r="51" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A51" s="14"/>
       <c r="B51" s="10"/>
       <c r="C51" s="11"/>
@@ -30702,7 +30706,7 @@
       <c r="Z51" s="10"/>
       <c r="AA51" s="10"/>
     </row>
-    <row r="52" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A52" s="14"/>
       <c r="B52" s="10"/>
       <c r="C52" s="11"/>
@@ -30729,7 +30733,7 @@
       <c r="Z52" s="10"/>
       <c r="AA52" s="10"/>
     </row>
-    <row r="53" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A53" s="14"/>
       <c r="B53" s="10"/>
       <c r="C53" s="11"/>
@@ -30756,7 +30760,7 @@
       <c r="Z53" s="10"/>
       <c r="AA53" s="10"/>
     </row>
-    <row r="54" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A54" s="14"/>
       <c r="B54" s="10"/>
       <c r="C54" s="11"/>
@@ -30783,7 +30787,7 @@
       <c r="Z54" s="10"/>
       <c r="AA54" s="10"/>
     </row>
-    <row r="55" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A55" s="14"/>
       <c r="B55" s="10"/>
       <c r="C55" s="11"/>
@@ -30810,7 +30814,7 @@
       <c r="Z55" s="10"/>
       <c r="AA55" s="10"/>
     </row>
-    <row r="56" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A56" s="14"/>
       <c r="B56" s="10"/>
       <c r="C56" s="11"/>
@@ -30837,7 +30841,7 @@
       <c r="Z56" s="10"/>
       <c r="AA56" s="10"/>
     </row>
-    <row r="57" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A57" s="14"/>
       <c r="B57" s="10"/>
       <c r="C57" s="11"/>
@@ -30864,7 +30868,7 @@
       <c r="Z57" s="10"/>
       <c r="AA57" s="10"/>
     </row>
-    <row r="58" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A58" s="16"/>
       <c r="B58" s="10"/>
       <c r="C58" s="11"/>
@@ -30891,7 +30895,7 @@
       <c r="Z58" s="10"/>
       <c r="AA58" s="10"/>
     </row>
-    <row r="59" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A59" s="16"/>
       <c r="B59" s="10"/>
       <c r="C59" s="11"/>
@@ -30918,7 +30922,7 @@
       <c r="Z59" s="10"/>
       <c r="AA59" s="10"/>
     </row>
-    <row r="60" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A60" s="16"/>
       <c r="B60" s="10"/>
       <c r="C60" s="11"/>
@@ -30945,7 +30949,7 @@
       <c r="Z60" s="10"/>
       <c r="AA60" s="10"/>
     </row>
-    <row r="61" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A61" s="16"/>
       <c r="B61" s="10"/>
       <c r="C61" s="11"/>
@@ -30972,7 +30976,7 @@
       <c r="Z61" s="10"/>
       <c r="AA61" s="10"/>
     </row>
-    <row r="62" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A62" s="16"/>
       <c r="B62" s="10"/>
       <c r="C62" s="11"/>
@@ -30999,7 +31003,7 @@
       <c r="Z62" s="10"/>
       <c r="AA62" s="10"/>
     </row>
-    <row r="63" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A63" s="16"/>
       <c r="B63" s="10"/>
       <c r="C63" s="11"/>
@@ -31026,7 +31030,7 @@
       <c r="Z63" s="10"/>
       <c r="AA63" s="10"/>
     </row>
-    <row r="64" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A64" s="16"/>
       <c r="B64" s="10"/>
       <c r="C64" s="11"/>
@@ -31053,7 +31057,7 @@
       <c r="Z64" s="10"/>
       <c r="AA64" s="10"/>
     </row>
-    <row r="65" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A65" s="16"/>
       <c r="B65" s="10"/>
       <c r="C65" s="11"/>
@@ -31080,7 +31084,7 @@
       <c r="Z65" s="10"/>
       <c r="AA65" s="10"/>
     </row>
-    <row r="66" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A66" s="16"/>
       <c r="B66" s="10"/>
       <c r="C66" s="11"/>
@@ -31107,7 +31111,7 @@
       <c r="Z66" s="10"/>
       <c r="AA66" s="10"/>
     </row>
-    <row r="67" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A67" s="16"/>
       <c r="B67" s="10"/>
       <c r="C67" s="11"/>
@@ -31134,7 +31138,7 @@
       <c r="Z67" s="10"/>
       <c r="AA67" s="10"/>
     </row>
-    <row r="68" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A68" s="16"/>
       <c r="B68" s="10"/>
       <c r="C68" s="11"/>
@@ -31161,7 +31165,7 @@
       <c r="Z68" s="10"/>
       <c r="AA68" s="10"/>
     </row>
-    <row r="69" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A69" s="16"/>
       <c r="B69" s="10"/>
       <c r="C69" s="11"/>
@@ -31188,7 +31192,7 @@
       <c r="Z69" s="10"/>
       <c r="AA69" s="10"/>
     </row>
-    <row r="70" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A70" s="16"/>
       <c r="B70" s="10"/>
       <c r="C70" s="11"/>
@@ -31215,7 +31219,7 @@
       <c r="Z70" s="10"/>
       <c r="AA70" s="10"/>
     </row>
-    <row r="71" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A71" s="16"/>
       <c r="B71" s="10"/>
       <c r="C71" s="11"/>
@@ -31242,7 +31246,7 @@
       <c r="Z71" s="10"/>
       <c r="AA71" s="10"/>
     </row>
-    <row r="72" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A72" s="16"/>
       <c r="B72" s="10"/>
       <c r="C72" s="11"/>
@@ -31280,12 +31284,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="41.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="41.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>45</v>
       </c>
@@ -31293,7 +31297,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>68</v>
       </c>
@@ -31301,7 +31305,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>62</v>
       </c>
@@ -31309,7 +31313,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>59</v>
       </c>
@@ -31317,289 +31321,289 @@
         <v>101</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>69</v>
       </c>
       <c r="B5" s="2"/>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>66</v>
       </c>
       <c r="B6" s="2"/>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>55</v>
       </c>
       <c r="B7" s="2"/>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>67</v>
       </c>
       <c r="B8" s="2"/>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>64</v>
       </c>
       <c r="B9" s="2"/>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>65</v>
       </c>
       <c r="B10" s="2"/>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>73</v>
       </c>
       <c r="B11" s="2"/>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="10"/>
       <c r="B12" s="10"/>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="10"/>
       <c r="B13" s="10"/>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="10"/>
       <c r="B14" s="10"/>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="10"/>
       <c r="B15" s="10"/>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="10"/>
       <c r="B16" s="10"/>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="10"/>
       <c r="B17" s="10"/>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="10"/>
       <c r="B18" s="10"/>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="10"/>
       <c r="B19" s="10"/>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="10"/>
       <c r="B20" s="10"/>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="10"/>
       <c r="B21" s="10"/>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="10"/>
       <c r="B22" s="10"/>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="10"/>
       <c r="B23" s="10"/>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="10"/>
       <c r="B24" s="10"/>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" s="10"/>
       <c r="B25" s="10"/>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" s="10"/>
       <c r="B26" s="10"/>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" s="10"/>
       <c r="B27" s="10"/>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" s="10"/>
       <c r="B28" s="10"/>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" s="10"/>
       <c r="B29" s="10"/>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" s="10"/>
       <c r="B30" s="10"/>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" s="10"/>
       <c r="B31" s="10"/>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" s="10"/>
       <c r="B32" s="10"/>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" s="10"/>
       <c r="B33" s="10"/>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" s="10"/>
       <c r="B34" s="10"/>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" s="10"/>
       <c r="B35" s="10"/>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" s="10"/>
       <c r="B36" s="10"/>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" s="10"/>
       <c r="B37" s="10"/>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" s="10"/>
       <c r="B38" s="10"/>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" s="10"/>
       <c r="B39" s="10"/>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" s="10"/>
       <c r="B40" s="10"/>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" s="10"/>
       <c r="B41" s="10"/>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" s="10"/>
       <c r="B42" s="10"/>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" s="10"/>
       <c r="B43" s="10"/>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" s="10"/>
       <c r="B44" s="10"/>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" s="10"/>
       <c r="B45" s="10"/>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" s="10"/>
       <c r="B46" s="10"/>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" s="10"/>
       <c r="B47" s="10"/>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" s="10"/>
       <c r="B48" s="10"/>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" s="10"/>
       <c r="B49" s="10"/>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" s="10"/>
       <c r="B50" s="10"/>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" s="10"/>
       <c r="B51" s="10"/>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" s="10"/>
       <c r="B52" s="10"/>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" s="10"/>
       <c r="B53" s="10"/>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54" s="10"/>
       <c r="B54" s="10"/>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55" s="10"/>
       <c r="B55" s="10"/>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56" s="10"/>
       <c r="B56" s="10"/>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57" s="10"/>
       <c r="B57" s="10"/>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58" s="10"/>
       <c r="B58" s="10"/>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59" s="10"/>
       <c r="B59" s="10"/>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60" s="10"/>
       <c r="B60" s="10"/>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61" s="10"/>
       <c r="B61" s="10"/>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A62" s="10"/>
       <c r="B62" s="10"/>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A63" s="10"/>
       <c r="B63" s="10"/>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A64" s="10"/>
       <c r="B64" s="10"/>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A65" s="10"/>
       <c r="B65" s="10"/>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A66" s="10"/>
       <c r="B66" s="10"/>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A67" s="10"/>
       <c r="B67" s="10"/>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A68" s="10"/>
       <c r="B68" s="10"/>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A69" s="10"/>
       <c r="B69" s="10"/>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A70" s="10"/>
       <c r="B70" s="10"/>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A71" s="10"/>
       <c r="B71" s="10"/>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A72" s="10"/>
       <c r="B72" s="10"/>
     </row>
@@ -31614,19 +31618,19 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="21" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>61</v>
       </c>
